--- a/ml_bb.xlsx
+++ b/ml_bb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,168 +518,168 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maccabi Tel-Aviv </t>
+          <t xml:space="preserve">Taoyuan Clouded Leopard </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Panathinaikos BC</t>
+          <t xml:space="preserve"> Kaohsiung Poseidon Aquas</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.14</v>
+        <v>1.8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="F2" t="n">
-        <v>22.83333333333333</v>
+        <v>18.75</v>
       </c>
       <c r="G2" t="n">
-        <v>24.33333333333333</v>
+        <v>14.25</v>
       </c>
       <c r="H2" t="n">
-        <v>21.83333333333333</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>24.83333333333333</v>
+        <v>19.25</v>
       </c>
       <c r="J2" t="n">
-        <v>21.16666666666667</v>
+        <v>18.5</v>
       </c>
       <c r="K2" t="n">
-        <v>22.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="L2" t="n">
-        <v>19.66666666666667</v>
+        <v>21</v>
       </c>
       <c r="M2" t="n">
-        <v>19.66666666666667</v>
+        <v>17.75</v>
       </c>
       <c r="N2" t="n">
-        <v>84.68333333333332</v>
+        <v>96.05499999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>74.97</v>
+        <v>95.265</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alba Berlin </t>
+          <t xml:space="preserve">Zhejiang Golden Bulls </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MLP Academics Heidelberg</t>
+          <t xml:space="preserve"> Xinjiang Flying Tigers</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.09</v>
+        <v>1.97</v>
       </c>
       <c r="D3" t="n">
-        <v>8.66</v>
+        <v>1.81</v>
       </c>
       <c r="E3" t="n">
-        <v>7.57</v>
+        <v>0.1599999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>19.25</v>
+        <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>28.5</v>
       </c>
       <c r="H3" t="n">
-        <v>21.25</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M3" t="n">
         <v>21.5</v>
       </c>
-      <c r="J3" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>17.5</v>
-      </c>
       <c r="N3" t="n">
-        <v>85.52249999999999</v>
+        <v>111.795</v>
       </c>
       <c r="O3" t="n">
-        <v>81.505</v>
+        <v>95.54000000000001</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamburg Towers </t>
+          <t xml:space="preserve">Tabiaat </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Crailsheim Merlins</t>
+          <t xml:space="preserve"> Zob Ahan Isfahan</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="D4" t="n">
-        <v>3.62</v>
+        <v>2.65</v>
       </c>
       <c r="E4" t="n">
-        <v>2.29</v>
+        <v>1.23</v>
       </c>
       <c r="F4" t="n">
-        <v>15.5</v>
+        <v>20.25</v>
       </c>
       <c r="G4" t="n">
-        <v>23.5</v>
+        <v>22.25</v>
       </c>
       <c r="H4" t="n">
-        <v>22.5</v>
+        <v>13.25</v>
       </c>
       <c r="I4" t="n">
-        <v>21.75</v>
+        <v>24</v>
       </c>
       <c r="J4" t="n">
-        <v>19</v>
+        <v>21.5</v>
       </c>
       <c r="K4" t="n">
-        <v>21.75</v>
+        <v>12.75</v>
       </c>
       <c r="L4" t="n">
-        <v>20.75</v>
+        <v>17.25</v>
       </c>
       <c r="M4" t="n">
-        <v>21.5</v>
+        <v>21.25</v>
       </c>
       <c r="N4" t="n">
-        <v>87.31</v>
+        <v>77.0825</v>
       </c>
       <c r="O4" t="n">
-        <v>84.52500000000001</v>
+        <v>76.03</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -691,835 +691,2403 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Riesen Ludwigsburg</t>
+          <t xml:space="preserve"> Crailsheim Merlins</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.51</v>
+        <v>1.38</v>
       </c>
       <c r="D5" t="n">
-        <v>1.34</v>
+        <v>3.26</v>
       </c>
       <c r="E5" t="n">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="F5" t="n">
-        <v>21.6</v>
+        <v>22.75</v>
       </c>
       <c r="G5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="H5" t="n">
-        <v>22.4</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>22.2</v>
+        <v>31.5</v>
       </c>
       <c r="J5" t="n">
-        <v>21.8</v>
+        <v>18.75</v>
       </c>
       <c r="K5" t="n">
-        <v>22</v>
+        <v>23.25</v>
       </c>
       <c r="L5" t="n">
-        <v>19</v>
+        <v>14.25</v>
       </c>
       <c r="M5" t="n">
-        <v>20</v>
+        <v>24.25</v>
       </c>
       <c r="N5" t="n">
-        <v>91.58199999999999</v>
+        <v>83.86250000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>84.90799999999999</v>
+        <v>85.97999999999999</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maccabi Tel-Aviv </t>
+          <t xml:space="preserve">Santo Andre/Apaba </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Panathinaikos BC</t>
+          <t xml:space="preserve"> Ituano</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.14</v>
+        <v>3.1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.81</v>
+        <v>1.31</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3300000000000001</v>
+        <v>1.79</v>
       </c>
       <c r="F6" t="n">
-        <v>21.66666666666667</v>
+        <v>20.5</v>
       </c>
       <c r="G6" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="H6" t="n">
-        <v>20.83333333333333</v>
+        <v>23.5</v>
       </c>
       <c r="I6" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="J6" t="n">
-        <v>21.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>22.16666666666667</v>
+        <v>18</v>
       </c>
       <c r="L6" t="n">
-        <v>21.83333333333333</v>
+        <v>16.5</v>
       </c>
       <c r="M6" t="n">
-        <v>20.33333333333333</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>83.51166666666667</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>76.54000000000001</v>
+        <v>67.80500000000001</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alba Berlin </t>
+          <t xml:space="preserve">Obras Sanitarias </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MLP Academics Heidelberg</t>
+          <t xml:space="preserve"> Quimsa Santiogo Del Estero</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.09</v>
+        <v>2.65</v>
       </c>
       <c r="D7" t="n">
-        <v>8.66</v>
+        <v>1.47</v>
       </c>
       <c r="E7" t="n">
-        <v>7.57</v>
+        <v>1.18</v>
       </c>
       <c r="F7" t="n">
-        <v>23.66666666666667</v>
+        <v>10.25</v>
       </c>
       <c r="G7" t="n">
-        <v>22.66666666666667</v>
+        <v>8.5</v>
       </c>
       <c r="H7" t="n">
-        <v>19.5</v>
+        <v>11.75</v>
       </c>
       <c r="I7" t="n">
-        <v>23</v>
+        <v>11.25</v>
       </c>
       <c r="J7" t="n">
-        <v>20.5</v>
+        <v>10.25</v>
       </c>
       <c r="K7" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="L7" t="n">
-        <v>19</v>
+        <v>10.75</v>
       </c>
       <c r="M7" t="n">
-        <v>22.33333333333333</v>
+        <v>12.25</v>
       </c>
       <c r="N7" t="n">
-        <v>88.41500000000001</v>
+        <v>59.235</v>
       </c>
       <c r="O7" t="n">
-        <v>80.56166666666667</v>
+        <v>56.50749999999999</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamburg Towers </t>
+          <t xml:space="preserve">New York Knicks </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Crailsheim Merlins</t>
+          <t xml:space="preserve"> Indiana Pacers</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="D8" t="n">
-        <v>3.62</v>
+        <v>2.62</v>
       </c>
       <c r="E8" t="n">
-        <v>2.29</v>
+        <v>1.05</v>
       </c>
       <c r="F8" t="n">
-        <v>18.75</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
+        <v>28</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>28</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="L8" t="n">
+        <v>32</v>
+      </c>
+      <c r="M8" t="n">
         <v>24.25</v>
       </c>
-      <c r="H8" t="n">
-        <v>24</v>
-      </c>
-      <c r="I8" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="L8" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>25</v>
-      </c>
       <c r="N8" t="n">
-        <v>87.3125</v>
+        <v>113.74</v>
       </c>
       <c r="O8" t="n">
-        <v>83.245</v>
+        <v>106.5475</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rostock Seawolves </t>
+          <t xml:space="preserve">CA Platense </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Riesen Ludwigsburg</t>
+          <t xml:space="preserve"> Gimnasia de Comodoro</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.51</v>
+        <v>1.78</v>
       </c>
       <c r="D9" t="n">
-        <v>1.34</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="F9" t="n">
-        <v>21.6</v>
+        <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="H9" t="n">
-        <v>22.4</v>
+        <v>16.25</v>
       </c>
       <c r="I9" t="n">
-        <v>22.2</v>
+        <v>16.75</v>
       </c>
       <c r="J9" t="n">
-        <v>21.8</v>
+        <v>13.25</v>
       </c>
       <c r="K9" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="L9" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>13.75</v>
       </c>
       <c r="N9" t="n">
-        <v>91.58199999999999</v>
+        <v>62.77500000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>84.90799999999999</v>
+        <v>54.3325</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spartak Subotica </t>
+          <t xml:space="preserve">IA Central Cordoba </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KK Borac Cacak</t>
+          <t xml:space="preserve"> Union de Santa Fe</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.96</v>
+        <v>1.13</v>
       </c>
       <c r="D10" t="n">
-        <v>1.75</v>
+        <v>5.7</v>
       </c>
       <c r="E10" t="n">
-        <v>0.21</v>
+        <v>4.57</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>24</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="K10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="N10" t="n">
-        <v>80.405</v>
+        <v>69.41666666666667</v>
       </c>
       <c r="O10" t="n">
-        <v>85.20500000000001</v>
+        <v>65.12</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hapoel Jerusalem </t>
+          <t xml:space="preserve">Basquetbol La Paz </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maccabi Ironi Ramat Gan</t>
+          <t xml:space="preserve"> Juan Misael Saracho de Oruro</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.33</v>
+        <v>2.45</v>
       </c>
       <c r="D11" t="n">
-        <v>3.2</v>
+        <v>1.46</v>
       </c>
       <c r="E11" t="n">
-        <v>1.87</v>
+        <v>0.9900000000000002</v>
       </c>
       <c r="F11" t="n">
-        <v>23.75</v>
+        <v>14.75</v>
       </c>
       <c r="G11" t="n">
-        <v>18.25</v>
+        <v>15.5</v>
       </c>
       <c r="H11" t="n">
         <v>18</v>
       </c>
       <c r="I11" t="n">
-        <v>24.75</v>
+        <v>16.75</v>
       </c>
       <c r="J11" t="n">
-        <v>20.5</v>
+        <v>14</v>
       </c>
       <c r="K11" t="n">
-        <v>23</v>
+        <v>14.75</v>
       </c>
       <c r="L11" t="n">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="M11" t="n">
-        <v>18.25</v>
+        <v>11.5</v>
       </c>
       <c r="N11" t="n">
-        <v>84.22749999999999</v>
+        <v>70.39</v>
       </c>
       <c r="O11" t="n">
-        <v>81.7925</v>
+        <v>67.57250000000001</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apoel Nicosia </t>
+          <t xml:space="preserve">Defensor Sporting </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AEK Larnaca</t>
+          <t xml:space="preserve"> Hebraica Macabi</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1.36</v>
       </c>
       <c r="D12" t="n">
-        <v>1.33</v>
+        <v>2.9</v>
       </c>
       <c r="E12" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="F12" t="n">
-        <v>23.66666666666667</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>24.33333333333333</v>
+        <v>24.5</v>
       </c>
       <c r="I12" t="n">
-        <v>21.33333333333333</v>
+        <v>19.5</v>
       </c>
       <c r="J12" t="n">
-        <v>20.66666666666667</v>
+        <v>18.75</v>
       </c>
       <c r="K12" t="n">
-        <v>24.66666666666667</v>
+        <v>24.5</v>
       </c>
       <c r="L12" t="n">
-        <v>16.33333333333333</v>
+        <v>16.75</v>
       </c>
       <c r="M12" t="n">
-        <v>23.66666666666667</v>
+        <v>22</v>
       </c>
       <c r="N12" t="n">
-        <v>78.30333333333333</v>
+        <v>86.02499999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>77.28333333333335</v>
+        <v>83.5275</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maccabi Tel-Aviv </t>
+          <t xml:space="preserve">Batang Pier </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Panathinaikos BC</t>
+          <t xml:space="preserve"> Dyip</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.14</v>
+        <v>1.68</v>
       </c>
       <c r="D13" t="n">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.3699999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>19.33333333333333</v>
+        <v>22.5</v>
       </c>
       <c r="G13" t="n">
-        <v>17.66666666666667</v>
+        <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>16.66666666666667</v>
+        <v>23</v>
       </c>
       <c r="I13" t="n">
-        <v>16.66666666666667</v>
+        <v>28.5</v>
       </c>
       <c r="J13" t="n">
-        <v>19.16666666666667</v>
+        <v>24</v>
       </c>
       <c r="K13" t="n">
-        <v>17.16666666666667</v>
+        <v>23.5</v>
       </c>
       <c r="L13" t="n">
-        <v>19.83333333333333</v>
+        <v>31</v>
       </c>
       <c r="M13" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="N13" t="n">
-        <v>71.15666666666665</v>
+        <v>98.455</v>
       </c>
       <c r="O13" t="n">
-        <v>66.73666666666666</v>
+        <v>99.75</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alba Berlin </t>
+          <t xml:space="preserve">Guangdong Southern Tigers </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MLP Academics Heidelberg</t>
+          <t xml:space="preserve"> Liaoning Flying Leopards</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="D14" t="n">
-        <v>8.66</v>
+        <v>3.8</v>
       </c>
       <c r="E14" t="n">
-        <v>7.57</v>
+        <v>2.55</v>
       </c>
       <c r="F14" t="n">
-        <v>23.66666666666667</v>
+        <v>21.75</v>
       </c>
       <c r="G14" t="n">
-        <v>22.66666666666667</v>
+        <v>21.75</v>
       </c>
       <c r="H14" t="n">
-        <v>19.5</v>
+        <v>24.75</v>
       </c>
       <c r="I14" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="J14" t="n">
-        <v>20.5</v>
+        <v>31.75</v>
       </c>
       <c r="K14" t="n">
-        <v>19.5</v>
+        <v>31.25</v>
       </c>
       <c r="L14" t="n">
-        <v>19</v>
+        <v>22.5</v>
       </c>
       <c r="M14" t="n">
-        <v>22.33333333333333</v>
+        <v>17.5</v>
       </c>
       <c r="N14" t="n">
-        <v>88.41500000000001</v>
+        <v>98.91249999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>80.56166666666667</v>
+        <v>101.1825</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamburg Towers </t>
+          <t xml:space="preserve">KK Vrijednosnice Osijek </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Crailsheim Merlins</t>
+          <t xml:space="preserve"> KK Skrljevo</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="D15" t="n">
-        <v>3.62</v>
+        <v>2.1</v>
       </c>
       <c r="E15" t="n">
-        <v>2.29</v>
+        <v>0.4500000000000002</v>
       </c>
       <c r="F15" t="n">
-        <v>18.75</v>
+        <v>23.5</v>
       </c>
       <c r="G15" t="n">
-        <v>24.25</v>
+        <v>26</v>
       </c>
       <c r="H15" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I15" t="n">
-        <v>24.5</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
+        <v>17</v>
+      </c>
+      <c r="K15" t="n">
         <v>21.5</v>
       </c>
-      <c r="K15" t="n">
-        <v>21.75</v>
-      </c>
       <c r="L15" t="n">
-        <v>19.75</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="N15" t="n">
-        <v>87.3125</v>
+        <v>82.37</v>
       </c>
       <c r="O15" t="n">
-        <v>83.245</v>
+        <v>73.78</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rostock Seawolves </t>
+          <t xml:space="preserve">BC Zalgiris Kaunas </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Riesen Ludwigsburg</t>
+          <t xml:space="preserve"> BC Juventus Utena</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.51</v>
+        <v>1.06</v>
       </c>
       <c r="D16" t="n">
-        <v>1.34</v>
+        <v>8.75</v>
       </c>
       <c r="E16" t="n">
-        <v>2.17</v>
+        <v>7.69</v>
       </c>
       <c r="F16" t="n">
-        <v>21.6</v>
+        <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H16" t="n">
-        <v>22.4</v>
+        <v>24.5</v>
       </c>
       <c r="I16" t="n">
-        <v>22.2</v>
+        <v>26.5</v>
       </c>
       <c r="J16" t="n">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="K16" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="L16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>26.5</v>
       </c>
       <c r="N16" t="n">
-        <v>91.58199999999999</v>
+        <v>83.08500000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>84.90799999999999</v>
+        <v>86.58000000000001</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spartak Subotica </t>
+          <t xml:space="preserve">Helsinki Seagulls </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KK Borac Cacak</t>
+          <t xml:space="preserve"> BC Nokia</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.96</v>
+        <v>1.24</v>
       </c>
       <c r="D17" t="n">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.21</v>
+        <v>2.36</v>
       </c>
       <c r="F17" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>22</v>
+      </c>
+      <c r="I17" t="n">
         <v>24</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
+        <v>18</v>
+      </c>
+      <c r="K17" t="n">
         <v>20</v>
       </c>
-      <c r="H17" t="n">
-        <v>20</v>
-      </c>
-      <c r="I17" t="n">
-        <v>19</v>
-      </c>
-      <c r="J17" t="n">
-        <v>24</v>
-      </c>
-      <c r="K17" t="n">
-        <v>18</v>
-      </c>
       <c r="L17" t="n">
-        <v>21</v>
+        <v>22.75</v>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>20.5</v>
       </c>
       <c r="N17" t="n">
-        <v>80.405</v>
+        <v>86.4225</v>
       </c>
       <c r="O17" t="n">
-        <v>85.20500000000001</v>
+        <v>77.02250000000001</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hapoel Jerusalem </t>
+          <t xml:space="preserve">Washington Mystics </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maccabi Ironi Ramat Gan</t>
+          <t xml:space="preserve"> Minnesota Lynx</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.33</v>
+        <v>1.95</v>
       </c>
       <c r="D18" t="n">
-        <v>3.2</v>
+        <v>1.74</v>
       </c>
       <c r="E18" t="n">
-        <v>1.87</v>
+        <v>0.21</v>
       </c>
       <c r="F18" t="n">
-        <v>23.75</v>
+        <v>21.25</v>
       </c>
       <c r="G18" t="n">
         <v>18.25</v>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>18.75</v>
       </c>
       <c r="I18" t="n">
-        <v>24.75</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="K18" t="n">
-        <v>23</v>
+        <v>16.25</v>
       </c>
       <c r="L18" t="n">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="M18" t="n">
-        <v>18.25</v>
+        <v>17.75</v>
       </c>
       <c r="N18" t="n">
-        <v>84.22749999999999</v>
+        <v>80.98250000000002</v>
       </c>
       <c r="O18" t="n">
-        <v>81.7925</v>
+        <v>81.1825</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Apoel Nicosia </t>
+          <t xml:space="preserve">BC Uniks Kazan </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AEK Larnaca</t>
+          <t xml:space="preserve"> BC Lokomotiv Kuban Krasnodar</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1.38</v>
       </c>
       <c r="D19" t="n">
-        <v>1.33</v>
+        <v>2.8</v>
       </c>
       <c r="E19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11</v>
+      </c>
+      <c r="H19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>19</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14</v>
+      </c>
+      <c r="K19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>21</v>
+      </c>
+      <c r="M19" t="n">
+        <v>25</v>
+      </c>
+      <c r="N19" t="n">
+        <v>82.005</v>
+      </c>
+      <c r="O19" t="n">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AEK Larnaca </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Apoel Nicosia</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F20" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>20</v>
+      </c>
+      <c r="K20" t="n">
+        <v>22</v>
+      </c>
+      <c r="L20" t="n">
+        <v>15</v>
+      </c>
+      <c r="M20" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>84.524</v>
+      </c>
+      <c r="O20" t="n">
+        <v>76.03399999999999</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSU Sibiu </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CS Dinamo Bucuresti</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="G21" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="N21" t="n">
+        <v>90.276</v>
+      </c>
+      <c r="O21" t="n">
+        <v>91.71399999999998</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BK Decin </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sluneta Usti nad Labem</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>17</v>
+      </c>
+      <c r="H22" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>18</v>
+      </c>
+      <c r="K22" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="M22" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="N22" t="n">
+        <v>79.75749999999999</v>
+      </c>
+      <c r="O22" t="n">
+        <v>78.38</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chernomorets Burgas </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Balkan Botevgrad</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F23" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20</v>
+      </c>
+      <c r="K23" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="O23" t="n">
+        <v>72.34999999999999</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S.Oliver Wurzburg </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MLP Academics Heidelberg</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="E24" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="G24" t="n">
+        <v>24</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="I24" t="n">
+        <v>24.66666666666667</v>
+      </c>
+      <c r="J24" t="n">
+        <v>19</v>
+      </c>
+      <c r="K24" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="L24" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="M24" t="n">
+        <v>23</v>
+      </c>
+      <c r="N24" t="n">
+        <v>89.35000000000001</v>
+      </c>
+      <c r="O24" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Skyliners Frankfurt </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Science City Jena</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F25" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>22</v>
+      </c>
+      <c r="H25" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="K25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>81.0625</v>
+      </c>
+      <c r="O25" t="n">
+        <v>75.34750000000001</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KK Siroki </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KK Bosna Royal Sarajevo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F26" t="n">
+        <v>13</v>
+      </c>
+      <c r="G26" t="n">
+        <v>11</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12</v>
+      </c>
+      <c r="I26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10</v>
+      </c>
+      <c r="M26" t="n">
+        <v>11</v>
+      </c>
+      <c r="N26" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="O26" t="n">
+        <v>38.08</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Giessen 46ers </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PS Karlsruhe Lions</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="F27" t="n">
+        <v>27</v>
+      </c>
+      <c r="G27" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>102.115</v>
+      </c>
+      <c r="O27" t="n">
+        <v>82.17500000000001</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donar Groningen </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basketball Academie Limburg</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="G28" t="n">
+        <v>18</v>
+      </c>
+      <c r="H28" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>24</v>
+      </c>
+      <c r="K28" t="n">
+        <v>19</v>
+      </c>
+      <c r="L28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>81.06</v>
+      </c>
+      <c r="O28" t="n">
+        <v>81.99000000000001</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Landstede Hammers </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aris Leeuwarden</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F29" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>17</v>
+      </c>
+      <c r="H29" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>14</v>
+      </c>
+      <c r="M29" t="n">
+        <v>18</v>
+      </c>
+      <c r="N29" t="n">
+        <v>80.69749999999999</v>
+      </c>
+      <c r="O29" t="n">
+        <v>74.54499999999999</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alba Berlin </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Baskets Bonn</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F30" t="n">
+        <v>22.11111111111111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>20.11111111111111</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="I30" t="n">
+        <v>20.88888888888889</v>
+      </c>
+      <c r="J30" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="K30" t="n">
+        <v>18.88888888888889</v>
+      </c>
+      <c r="L30" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="M30" t="n">
+        <v>17.88888888888889</v>
+      </c>
+      <c r="N30" t="n">
+        <v>86.61888888888888</v>
+      </c>
+      <c r="O30" t="n">
+        <v>76.08222222222223</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Riesen Ludwigsburg </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bayern Munich</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F31" t="n">
+        <v>21.71428571428572</v>
+      </c>
+      <c r="G31" t="n">
+        <v>19.71428571428572</v>
+      </c>
+      <c r="H31" t="n">
+        <v>19.71428571428572</v>
+      </c>
+      <c r="I31" t="n">
+        <v>21.85714285714286</v>
+      </c>
+      <c r="J31" t="n">
+        <v>18.71428571428572</v>
+      </c>
+      <c r="K31" t="n">
+        <v>22.85714285714286</v>
+      </c>
+      <c r="L31" t="n">
+        <v>21.14285714285714</v>
+      </c>
+      <c r="M31" t="n">
+        <v>20.57142857142857</v>
+      </c>
+      <c r="N31" t="n">
+        <v>85.86571428571429</v>
+      </c>
+      <c r="O31" t="n">
+        <v>81.58285714285714</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heroes Den Bosch </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yoast United</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="F32" t="n">
+        <v>22</v>
+      </c>
+      <c r="G32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="J32" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="K32" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="L32" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="M32" t="n">
+        <v>19</v>
+      </c>
+      <c r="N32" t="n">
+        <v>81.10499999999999</v>
+      </c>
+      <c r="O32" t="n">
+        <v>79.895</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zorg En Zekerheid Leiden </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Feyenoord Basketbal Rotterdam</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="F33" t="n">
+        <v>22</v>
+      </c>
+      <c r="G33" t="n">
+        <v>21</v>
+      </c>
+      <c r="H33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="K33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="N33" t="n">
+        <v>85.245</v>
+      </c>
+      <c r="O33" t="n">
+        <v>79.54249999999999</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antwerp Giants </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Belfius Mons-Hainaut</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.529999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G34" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="H34" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>18.83333333333333</v>
+      </c>
+      <c r="J34" t="n">
+        <v>18.83333333333333</v>
+      </c>
+      <c r="K34" t="n">
+        <v>21</v>
+      </c>
+      <c r="L34" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="M34" t="n">
+        <v>17.83333333333333</v>
+      </c>
+      <c r="N34" t="n">
+        <v>79.50666666666667</v>
+      </c>
+      <c r="O34" t="n">
+        <v>80.00833333333333</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KK Borac Banja Luka </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mladost Mrkonjic</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="M35" t="n">
+        <v>9</v>
+      </c>
+      <c r="N35" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="O35" t="n">
+        <v>25.28666666666667</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Magnolia Basket </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Umana Venezia</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F36" t="n">
+        <v>19</v>
+      </c>
+      <c r="G36" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>20</v>
+      </c>
+      <c r="I36" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>19</v>
+      </c>
+      <c r="M36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>83.53</v>
+      </c>
+      <c r="O36" t="n">
+        <v>87.03</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASD Latina Basket </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Giobbe Chiusi</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F37" t="n">
+        <v>19</v>
+      </c>
+      <c r="G37" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="H37" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="I37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>16</v>
+      </c>
+      <c r="L37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>22</v>
+      </c>
+      <c r="N37" t="n">
+        <v>76.4425</v>
+      </c>
+      <c r="O37" t="n">
+        <v>79.69749999999999</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortitudo Agrigento </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Benedetto Xiv Cento</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D38" t="n">
         <v>1.67</v>
       </c>
-      <c r="F19" t="n">
-        <v>23.66666666666667</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="E38" t="n">
+        <v>0.4300000000000002</v>
+      </c>
+      <c r="F38" t="n">
+        <v>16</v>
+      </c>
+      <c r="G38" t="n">
+        <v>15</v>
+      </c>
+      <c r="H38" t="n">
+        <v>19</v>
+      </c>
+      <c r="I38" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="K38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>17</v>
+      </c>
+      <c r="M38" t="n">
+        <v>15</v>
+      </c>
+      <c r="N38" t="n">
+        <v>76.715</v>
+      </c>
+      <c r="O38" t="n">
+        <v>77.6425</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luiss Roma </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Frata Nardo</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>20</v>
       </c>
-      <c r="H19" t="n">
+      <c r="G39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>28</v>
+      </c>
+      <c r="I39" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>21</v>
+      </c>
+      <c r="L39" t="n">
+        <v>21</v>
+      </c>
+      <c r="M39" t="n">
+        <v>21</v>
+      </c>
+      <c r="N39" t="n">
+        <v>86.54499999999999</v>
+      </c>
+      <c r="O39" t="n">
+        <v>85.23999999999999</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Oostende </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Leuven Bears</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E40" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F40" t="n">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="G40" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="H40" t="n">
+        <v>15.16666666666667</v>
+      </c>
+      <c r="I40" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="J40" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="K40" t="n">
+        <v>15.33333333333333</v>
+      </c>
+      <c r="L40" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="M40" t="n">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="N40" t="n">
+        <v>75.99333333333333</v>
+      </c>
+      <c r="O40" t="n">
+        <v>72.04166666666667</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limburg United </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kangoeroes Basket Mechelen</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F41" t="n">
+        <v>21</v>
+      </c>
+      <c r="G41" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="H41" t="n">
+        <v>24.125</v>
+      </c>
+      <c r="I41" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="J41" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>20.125</v>
+      </c>
+      <c r="L41" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="M41" t="n">
+        <v>17</v>
+      </c>
+      <c r="N41" t="n">
+        <v>82.12875</v>
+      </c>
+      <c r="O41" t="n">
+        <v>76.26000000000001</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AL Riyadi Beirut </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shahrdari Gorgan</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F42" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="G42" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="H42" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="I42" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="J42" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="M42" t="n">
+        <v>17</v>
+      </c>
+      <c r="N42" t="n">
+        <v>90.4675</v>
+      </c>
+      <c r="O42" t="n">
+        <v>74.97</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Paulistano SP </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sesi/Franca BC SP</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="G43" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="H43" t="n">
+        <v>19</v>
+      </c>
+      <c r="I43" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="J43" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="K43" t="n">
+        <v>16</v>
+      </c>
+      <c r="L43" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="M43" t="n">
+        <v>17</v>
+      </c>
+      <c r="N43" t="n">
+        <v>72.64</v>
+      </c>
+      <c r="O43" t="n">
+        <v>68.96333333333334</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lsb RJ / Sodie Doces </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vera Cruz Campinas</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7799999999999998</v>
+      </c>
+      <c r="F44" t="n">
+        <v>16</v>
+      </c>
+      <c r="G44" t="n">
+        <v>18</v>
+      </c>
+      <c r="H44" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="I44" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="J44" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="K44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="M44" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="N44" t="n">
+        <v>62.3625</v>
+      </c>
+      <c r="O44" t="n">
+        <v>66.3425</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boca Juniors </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Argentino Junin</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F45" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>14</v>
+      </c>
+      <c r="I45" t="n">
+        <v>22</v>
+      </c>
+      <c r="J45" t="n">
+        <v>19</v>
+      </c>
+      <c r="K45" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>15</v>
+      </c>
+      <c r="M45" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>76.47999999999999</v>
+      </c>
+      <c r="O45" t="n">
+        <v>69.56</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aguada </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Malvin</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F46" t="n">
+        <v>19</v>
+      </c>
+      <c r="G46" t="n">
+        <v>25</v>
+      </c>
+      <c r="H46" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="I46" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="J46" t="n">
         <v>24.33333333333333</v>
       </c>
-      <c r="I19" t="n">
-        <v>21.33333333333333</v>
-      </c>
-      <c r="J19" t="n">
-        <v>20.66666666666667</v>
-      </c>
-      <c r="K19" t="n">
-        <v>24.66666666666667</v>
-      </c>
-      <c r="L19" t="n">
-        <v>16.33333333333333</v>
-      </c>
-      <c r="M19" t="n">
-        <v>23.66666666666667</v>
-      </c>
-      <c r="N19" t="n">
-        <v>78.30333333333333</v>
-      </c>
-      <c r="O19" t="n">
-        <v>77.28333333333335</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>pending</t>
+      <c r="K46" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="L46" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="M46" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="N46" t="n">
+        <v>85.73666666666668</v>
+      </c>
+      <c r="O46" t="n">
+        <v>82.27666666666669</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bucaros de Bucaramanga </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Motilones Del Norte</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="F47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="H47" t="n">
+        <v>14</v>
+      </c>
+      <c r="I47" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="J47" t="n">
+        <v>23</v>
+      </c>
+      <c r="K47" t="n">
+        <v>13</v>
+      </c>
+      <c r="L47" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="N47" t="n">
+        <v>78.34</v>
+      </c>
+      <c r="O47" t="n">
+        <v>70.79499999999999</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>H</t>
         </is>
       </c>
     </row>

--- a/ml_bb.xlsx
+++ b/ml_bb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -3088,6 +3088,7734 @@
       <c r="P47" t="inlineStr">
         <is>
           <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boston Celtics </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F48" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="H48" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="I48" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="J48" t="n">
+        <v>28</v>
+      </c>
+      <c r="K48" t="n">
+        <v>24</v>
+      </c>
+      <c r="L48" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="M48" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="N48" t="n">
+        <v>108.5275</v>
+      </c>
+      <c r="O48" t="n">
+        <v>95.36500000000001</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connecticut Sun </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New York Liberty</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1599999999999999</v>
+      </c>
+      <c r="F49" t="n">
+        <v>19</v>
+      </c>
+      <c r="G49" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="I49" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="J49" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="L49" t="n">
+        <v>21</v>
+      </c>
+      <c r="M49" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="N49" t="n">
+        <v>81.42999999999999</v>
+      </c>
+      <c r="O49" t="n">
+        <v>78.855</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indiana Fever </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atlanta Dream</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3200000000000001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="G50" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="H50" t="n">
+        <v>16</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26</v>
+      </c>
+      <c r="J50" t="n">
+        <v>19</v>
+      </c>
+      <c r="K50" t="n">
+        <v>16</v>
+      </c>
+      <c r="L50" t="n">
+        <v>17</v>
+      </c>
+      <c r="M50" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="N50" t="n">
+        <v>85.7625</v>
+      </c>
+      <c r="O50" t="n">
+        <v>87.60249999999999</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Cordon </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Nacional</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F51" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="G51" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="H51" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="I51" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="J51" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="K51" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="M51" t="n">
+        <v>17</v>
+      </c>
+      <c r="N51" t="n">
+        <v>65.97333333333334</v>
+      </c>
+      <c r="O51" t="n">
+        <v>74.18333333333334</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">San Salvador BC </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB Cojute</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>19</v>
+      </c>
+      <c r="G52" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="H52" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="I52" t="n">
+        <v>16</v>
+      </c>
+      <c r="J52" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="K52" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="L52" t="n">
+        <v>16</v>
+      </c>
+      <c r="M52" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="N52" t="n">
+        <v>68.77000000000001</v>
+      </c>
+      <c r="O52" t="n">
+        <v>69.01750000000001</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oklahoma City Thunder </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dallas Mavericks</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F53" t="n">
+        <v>32</v>
+      </c>
+      <c r="G53" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="H53" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="L53" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="M53" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="N53" t="n">
+        <v>109.245</v>
+      </c>
+      <c r="O53" t="n">
+        <v>97.0425</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canterbury Rams </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Taranaki Mountainairs</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.4300000000000002</v>
+      </c>
+      <c r="F54" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="G54" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="H54" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="I54" t="n">
+        <v>22</v>
+      </c>
+      <c r="J54" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="L54" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M54" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="N54" t="n">
+        <v>87.13</v>
+      </c>
+      <c r="O54" t="n">
+        <v>89.78</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taiyuan </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cathay Life</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.5399999999999998</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>68.20333333333335</v>
+      </c>
+      <c r="O55" t="n">
+        <v>68.46666666666665</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taiwan Beer </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yulon Dinos</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F56" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="G56" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="H56" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="J56" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="K56" t="n">
+        <v>17</v>
+      </c>
+      <c r="L56" t="n">
+        <v>21</v>
+      </c>
+      <c r="M56" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N56" t="n">
+        <v>72.9375</v>
+      </c>
+      <c r="O56" t="n">
+        <v>77.0825</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taipei Taishin Mars </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New Taipei Citic Special Attack</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.3799999999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="G57" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="H57" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="K57" t="n">
+        <v>12</v>
+      </c>
+      <c r="L57" t="n">
+        <v>13</v>
+      </c>
+      <c r="M57" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="N57" t="n">
+        <v>88.1275</v>
+      </c>
+      <c r="O57" t="n">
+        <v>90.29249999999999</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brose Bamberg </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rasta Vechta</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.2399999999999998</v>
+      </c>
+      <c r="F58" t="n">
+        <v>22</v>
+      </c>
+      <c r="G58" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="H58" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>21</v>
+      </c>
+      <c r="J58" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="K58" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="L58" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M58" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N58" t="n">
+        <v>84.30500000000001</v>
+      </c>
+      <c r="O58" t="n">
+        <v>85.8625</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ratiopharm Ulm </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Baskets Oldenburg</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="F59" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G59" t="n">
+        <v>18</v>
+      </c>
+      <c r="H59" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="I59" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="J59" t="n">
+        <v>22</v>
+      </c>
+      <c r="K59" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="L59" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="M59" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="N59" t="n">
+        <v>82.72</v>
+      </c>
+      <c r="O59" t="n">
+        <v>84.78</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tigers Tubingen </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hamburg Towers</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F60" t="n">
+        <v>21</v>
+      </c>
+      <c r="G60" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>24</v>
+      </c>
+      <c r="K60" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L60" t="n">
+        <v>25</v>
+      </c>
+      <c r="M60" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="N60" t="n">
+        <v>93.58</v>
+      </c>
+      <c r="O60" t="n">
+        <v>83.43000000000001</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Pieno Zvaigzdes Pasvalys </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BC Rytas Vilnius</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8.649999999999999</v>
+      </c>
+      <c r="F61" t="n">
+        <v>15</v>
+      </c>
+      <c r="G61" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H61" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I61" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>21</v>
+      </c>
+      <c r="K61" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L61" t="n">
+        <v>22</v>
+      </c>
+      <c r="M61" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N61" t="n">
+        <v>79.875</v>
+      </c>
+      <c r="O61" t="n">
+        <v>86.43000000000001</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stjarnan FC </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Keflavik</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F62" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="G62" t="n">
+        <v>20</v>
+      </c>
+      <c r="H62" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="I62" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="J62" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="L62" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="M62" t="n">
+        <v>17</v>
+      </c>
+      <c r="N62" t="n">
+        <v>84.4025</v>
+      </c>
+      <c r="O62" t="n">
+        <v>74.97750000000001</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mersin Buyuksehir Belediyesi </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gaziantep Basketbol</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F63" t="n">
+        <v>23</v>
+      </c>
+      <c r="G63" t="n">
+        <v>25</v>
+      </c>
+      <c r="H63" t="n">
+        <v>22</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L63" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="M63" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N63" t="n">
+        <v>89.715</v>
+      </c>
+      <c r="O63" t="n">
+        <v>83.37</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Kutaisi </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basketball Club Olimpi</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F64" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>22</v>
+      </c>
+      <c r="H64" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="I64" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="J64" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="K64" t="n">
+        <v>20</v>
+      </c>
+      <c r="L64" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M64" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="N64" t="n">
+        <v>83.82749999999999</v>
+      </c>
+      <c r="O64" t="n">
+        <v>80.83750000000001</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayos Spor </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Konya BBSK</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F65" t="n">
+        <v>21</v>
+      </c>
+      <c r="G65" t="n">
+        <v>13</v>
+      </c>
+      <c r="H65" t="n">
+        <v>25</v>
+      </c>
+      <c r="I65" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>9</v>
+      </c>
+      <c r="K65" t="n">
+        <v>18</v>
+      </c>
+      <c r="L65" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="M65" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="N65" t="n">
+        <v>69.59</v>
+      </c>
+      <c r="O65" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bnei Herzelia </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Haifa BC</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="H66" t="n">
+        <v>16</v>
+      </c>
+      <c r="I66" t="n">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="J66" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="K66" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="L66" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M66" t="n">
+        <v>13</v>
+      </c>
+      <c r="N66" t="n">
+        <v>58.37666666666667</v>
+      </c>
+      <c r="O66" t="n">
+        <v>59.85999999999999</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Siauliai </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BC Lietkabelis Panevezys</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.7199999999999998</v>
+      </c>
+      <c r="F67" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="G67" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="H67" t="n">
+        <v>20</v>
+      </c>
+      <c r="I67" t="n">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="J67" t="n">
+        <v>23</v>
+      </c>
+      <c r="K67" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="L67" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="M67" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="N67" t="n">
+        <v>88.22333333333331</v>
+      </c>
+      <c r="O67" t="n">
+        <v>80.05</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anorthosis Famagusta </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Keravnos Strovolou Nicosia</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F68" t="n">
+        <v>23</v>
+      </c>
+      <c r="G68" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="H68" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="I68" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="J68" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="K68" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="L68" t="n">
+        <v>12</v>
+      </c>
+      <c r="M68" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N68" t="n">
+        <v>81.8175</v>
+      </c>
+      <c r="O68" t="n">
+        <v>71.5175</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kk Parnu </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tartu Ulikool</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F69" t="n">
+        <v>20</v>
+      </c>
+      <c r="G69" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H69" t="n">
+        <v>16</v>
+      </c>
+      <c r="I69" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J69" t="n">
+        <v>18</v>
+      </c>
+      <c r="K69" t="n">
+        <v>18</v>
+      </c>
+      <c r="L69" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M69" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N69" t="n">
+        <v>90.38499999999999</v>
+      </c>
+      <c r="O69" t="n">
+        <v>76.25999999999999</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BK Nova Hut Ostrava </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basketball Nymburk</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>11</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E70" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="F70" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G70" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H70" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L70" t="n">
+        <v>19</v>
+      </c>
+      <c r="M70" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="N70" t="n">
+        <v>91.565</v>
+      </c>
+      <c r="O70" t="n">
+        <v>72.69499999999999</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rilski Sportist </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BC Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.760000000000001</v>
+      </c>
+      <c r="F71" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="G71" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="I71" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="J71" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="K71" t="n">
+        <v>17</v>
+      </c>
+      <c r="L71" t="n">
+        <v>18</v>
+      </c>
+      <c r="M71" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="N71" t="n">
+        <v>86.0425</v>
+      </c>
+      <c r="O71" t="n">
+        <v>74.9575</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spojnia Stargard </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Anwil Wroclawek</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.9100000000000001</v>
+      </c>
+      <c r="F72" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="G72" t="n">
+        <v>21</v>
+      </c>
+      <c r="H72" t="n">
+        <v>22</v>
+      </c>
+      <c r="I72" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="J72" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="K72" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="L72" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="M72" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="N72" t="n">
+        <v>80.14</v>
+      </c>
+      <c r="O72" t="n">
+        <v>76.89666666666666</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BK Dukes Klosterneuburg </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UBSC Graz</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F73" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="G73" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H73" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="I73" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="L73" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M73" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N73" t="n">
+        <v>84.27</v>
+      </c>
+      <c r="O73" t="n">
+        <v>80.825</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traiskirchen Lions </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oberwart Gunners</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>17</v>
+      </c>
+      <c r="G74" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="H74" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="I74" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="J74" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="K74" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="L74" t="n">
+        <v>19</v>
+      </c>
+      <c r="M74" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="N74" t="n">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="O74" t="n">
+        <v>68.12</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armee Patriotique Rwandaise </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Monastir</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F75" t="n">
+        <v>18</v>
+      </c>
+      <c r="G75" t="n">
+        <v>22</v>
+      </c>
+      <c r="H75" t="n">
+        <v>22</v>
+      </c>
+      <c r="I75" t="n">
+        <v>20</v>
+      </c>
+      <c r="J75" t="n">
+        <v>19</v>
+      </c>
+      <c r="K75" t="n">
+        <v>21</v>
+      </c>
+      <c r="L75" t="n">
+        <v>23</v>
+      </c>
+      <c r="M75" t="n">
+        <v>23</v>
+      </c>
+      <c r="N75" t="n">
+        <v>79.14</v>
+      </c>
+      <c r="O75" t="n">
+        <v>81.44</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BG Gottingen </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mitteldeutscher BC</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F76" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>30</v>
+      </c>
+      <c r="I76" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L76" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M76" t="n">
+        <v>19</v>
+      </c>
+      <c r="N76" t="n">
+        <v>96.31999999999999</v>
+      </c>
+      <c r="O76" t="n">
+        <v>88.52000000000001</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KK Cibona </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KK Zabok</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F77" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G77" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="H77" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="I77" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="J77" t="n">
+        <v>17</v>
+      </c>
+      <c r="K77" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="L77" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="M77" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N77" t="n">
+        <v>82.27500000000001</v>
+      </c>
+      <c r="O77" t="n">
+        <v>75.91</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Maristas Palencia </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Obradoiro CAB</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F78" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="G78" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="H78" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="I78" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J78" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="K78" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="L78" t="n">
+        <v>21</v>
+      </c>
+      <c r="M78" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="N78" t="n">
+        <v>84.17249999999999</v>
+      </c>
+      <c r="O78" t="n">
+        <v>84.70750000000001</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KK Vojvodina </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Spartak Subotica</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="F79" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="H79" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="I79" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="J79" t="n">
+        <v>24</v>
+      </c>
+      <c r="K79" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L79" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="M79" t="n">
+        <v>20</v>
+      </c>
+      <c r="N79" t="n">
+        <v>81.75</v>
+      </c>
+      <c r="O79" t="n">
+        <v>81.0275</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Budapesti Honved SE </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NKA Universitas Pecs</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F80" t="n">
+        <v>19</v>
+      </c>
+      <c r="G80" t="n">
+        <v>18</v>
+      </c>
+      <c r="H80" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="L80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="M80" t="n">
+        <v>21</v>
+      </c>
+      <c r="N80" t="n">
+        <v>79.015</v>
+      </c>
+      <c r="O80" t="n">
+        <v>77.875</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Beer Sheva </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F81" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G81" t="n">
+        <v>18.16666666666667</v>
+      </c>
+      <c r="H81" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="I81" t="n">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="J81" t="n">
+        <v>18.16666666666667</v>
+      </c>
+      <c r="K81" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L81" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M81" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="N81" t="n">
+        <v>74.06833333333334</v>
+      </c>
+      <c r="O81" t="n">
+        <v>72.03333333333333</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bakken Bears </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Team Fog Naestved</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F82" t="n">
+        <v>26</v>
+      </c>
+      <c r="G82" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H82" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="I82" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>23</v>
+      </c>
+      <c r="K82" t="n">
+        <v>20</v>
+      </c>
+      <c r="L82" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="M82" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="N82" t="n">
+        <v>99.33500000000001</v>
+      </c>
+      <c r="O82" t="n">
+        <v>94.64500000000001</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basquet Manresa </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bilbao Basket</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F83" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="G83" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="H83" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="I83" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="J83" t="n">
+        <v>18</v>
+      </c>
+      <c r="K83" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="L83" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="M83" t="n">
+        <v>25</v>
+      </c>
+      <c r="N83" t="n">
+        <v>81.515</v>
+      </c>
+      <c r="O83" t="n">
+        <v>86.98500000000001</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Legia Warszawa </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wilki Morskie Szczecin</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F84" t="n">
+        <v>18</v>
+      </c>
+      <c r="G84" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H84" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="I84" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="J84" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="K84" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L84" t="n">
+        <v>26</v>
+      </c>
+      <c r="M84" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N84" t="n">
+        <v>92.34999999999999</v>
+      </c>
+      <c r="O84" t="n">
+        <v>93.17749999999999</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kk Cedevita Zagreb Junior </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KK Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.3799999999999999</v>
+      </c>
+      <c r="F85" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="G85" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="I85" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="L85" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="M85" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="N85" t="n">
+        <v>97.3725</v>
+      </c>
+      <c r="O85" t="n">
+        <v>77.80000000000001</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CB Avenida Salamanca </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valencia BC</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.3699999999999999</v>
+      </c>
+      <c r="F86" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="G86" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="H86" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="I86" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="K86" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="L86" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M86" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="N86" t="n">
+        <v>73.67750000000001</v>
+      </c>
+      <c r="O86" t="n">
+        <v>65.93000000000001</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rinascita Basket Rimini </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Real Sebastiani Rieti</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.7699999999999998</v>
+      </c>
+      <c r="F87" t="n">
+        <v>25</v>
+      </c>
+      <c r="G87" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H87" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="I87" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J87" t="n">
+        <v>22</v>
+      </c>
+      <c r="K87" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="L87" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="M87" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="N87" t="n">
+        <v>73.565</v>
+      </c>
+      <c r="O87" t="n">
+        <v>72.63499999999999</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urania Milano </t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Scaligera Basket Verona</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="F88" t="n">
+        <v>24</v>
+      </c>
+      <c r="G88" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H88" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I88" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="K88" t="n">
+        <v>24</v>
+      </c>
+      <c r="L88" t="n">
+        <v>19</v>
+      </c>
+      <c r="M88" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="N88" t="n">
+        <v>89.345</v>
+      </c>
+      <c r="O88" t="n">
+        <v>90.53</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Slask Wroclaw </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stal Ostrow Wielkopolski</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.3199999999999998</v>
+      </c>
+      <c r="F89" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="G89" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="H89" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="I89" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="J89" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="K89" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="L89" t="n">
+        <v>19</v>
+      </c>
+      <c r="M89" t="n">
+        <v>22</v>
+      </c>
+      <c r="N89" t="n">
+        <v>87.91000000000001</v>
+      </c>
+      <c r="O89" t="n">
+        <v>85.35666666666667</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rivers Hoopers </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AS Douanes</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F90" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="G90" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="H90" t="n">
+        <v>21</v>
+      </c>
+      <c r="I90" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="J90" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="K90" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="L90" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="M90" t="n">
+        <v>22</v>
+      </c>
+      <c r="N90" t="n">
+        <v>73.52500000000001</v>
+      </c>
+      <c r="O90" t="n">
+        <v>72.91</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NPC Rieti </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Virtus Cassino</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F91" t="n">
+        <v>18.16666666666667</v>
+      </c>
+      <c r="G91" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="H91" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>22</v>
+      </c>
+      <c r="J91" t="n">
+        <v>18.83333333333333</v>
+      </c>
+      <c r="K91" t="n">
+        <v>18</v>
+      </c>
+      <c r="L91" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="M91" t="n">
+        <v>25</v>
+      </c>
+      <c r="N91" t="n">
+        <v>79.73</v>
+      </c>
+      <c r="O91" t="n">
+        <v>77.17333333333333</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sindri </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IR Reykjavík</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F92" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="G92" t="n">
+        <v>25</v>
+      </c>
+      <c r="H92" t="n">
+        <v>19</v>
+      </c>
+      <c r="I92" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="J92" t="n">
+        <v>25</v>
+      </c>
+      <c r="K92" t="n">
+        <v>22</v>
+      </c>
+      <c r="L92" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M92" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="N92" t="n">
+        <v>87.54666666666667</v>
+      </c>
+      <c r="O92" t="n">
+        <v>88.24000000000001</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Joventut Badalona </t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB 1939 Canarias</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.1299999999999999</v>
+      </c>
+      <c r="F93" t="n">
+        <v>22</v>
+      </c>
+      <c r="G93" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H93" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I93" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>16</v>
+      </c>
+      <c r="L93" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M93" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="N93" t="n">
+        <v>82.83000000000001</v>
+      </c>
+      <c r="O93" t="n">
+        <v>80.105</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bauru Basket SP </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vasco Da Gama</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F94" t="n">
+        <v>17</v>
+      </c>
+      <c r="G94" t="n">
+        <v>23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>13</v>
+      </c>
+      <c r="I94" t="n">
+        <v>25</v>
+      </c>
+      <c r="J94" t="n">
+        <v>27</v>
+      </c>
+      <c r="K94" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M94" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N94" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="O94" t="n">
+        <v>81.12</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortaleza Basquete Cearense </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F95" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G95" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="H95" t="n">
+        <v>18</v>
+      </c>
+      <c r="I95" t="n">
+        <v>21</v>
+      </c>
+      <c r="J95" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="L95" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="M95" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="N95" t="n">
+        <v>73.6575</v>
+      </c>
+      <c r="O95" t="n">
+        <v>74.28</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unisociesc / Blumenau </t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sao Jose Dos Campos</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="F96" t="n">
+        <v>13</v>
+      </c>
+      <c r="G96" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H96" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I96" t="n">
+        <v>15</v>
+      </c>
+      <c r="J96" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>16</v>
+      </c>
+      <c r="L96" t="n">
+        <v>15</v>
+      </c>
+      <c r="M96" t="n">
+        <v>16</v>
+      </c>
+      <c r="N96" t="n">
+        <v>66.84</v>
+      </c>
+      <c r="O96" t="n">
+        <v>66.48</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caribbean Storm Islands </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Piratas de Bogota</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F97" t="n">
+        <v>27</v>
+      </c>
+      <c r="G97" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="H97" t="n">
+        <v>21</v>
+      </c>
+      <c r="I97" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="J97" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="L97" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="M97" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="N97" t="n">
+        <v>75.76000000000001</v>
+      </c>
+      <c r="O97" t="n">
+        <v>81.565</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hobart Chargers </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Melbourne Tigers</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F98" t="n">
+        <v>22</v>
+      </c>
+      <c r="G98" t="n">
+        <v>20</v>
+      </c>
+      <c r="H98" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25</v>
+      </c>
+      <c r="J98" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="K98" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="L98" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="M98" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="N98" t="n">
+        <v>83.3625</v>
+      </c>
+      <c r="O98" t="n">
+        <v>85</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Galil Elyon </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ironi Ness Ziona</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F99" t="n">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="G99" t="n">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="H99" t="n">
+        <v>22.85714285714286</v>
+      </c>
+      <c r="I99" t="n">
+        <v>20</v>
+      </c>
+      <c r="J99" t="n">
+        <v>22</v>
+      </c>
+      <c r="K99" t="n">
+        <v>24.85714285714286</v>
+      </c>
+      <c r="L99" t="n">
+        <v>21</v>
+      </c>
+      <c r="M99" t="n">
+        <v>23.28571428571428</v>
+      </c>
+      <c r="N99" t="n">
+        <v>82.03999999999999</v>
+      </c>
+      <c r="O99" t="n">
+        <v>85.96857142857142</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">North Gold Coast Seahawks </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sunshine Coast Phoenix</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="F100" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="G100" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="H100" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I100" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="J100" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="K100" t="n">
+        <v>19</v>
+      </c>
+      <c r="L100" t="n">
+        <v>17</v>
+      </c>
+      <c r="M100" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="N100" t="n">
+        <v>94.93000000000001</v>
+      </c>
+      <c r="O100" t="n">
+        <v>88.24250000000001</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utsunomiya Brex </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chiba Jets Funabashi</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="G101" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="H101" t="n">
+        <v>20</v>
+      </c>
+      <c r="I101" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="J101" t="n">
+        <v>24</v>
+      </c>
+      <c r="K101" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="L101" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="M101" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="N101" t="n">
+        <v>79.25666666666667</v>
+      </c>
+      <c r="O101" t="n">
+        <v>79.06</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AS Ramat Hasharon </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maccabi Maale Adumim</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3699999999999999</v>
+      </c>
+      <c r="F102" t="n">
+        <v>20</v>
+      </c>
+      <c r="G102" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H102" t="n">
+        <v>17</v>
+      </c>
+      <c r="I102" t="n">
+        <v>21</v>
+      </c>
+      <c r="J102" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K102" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="L102" t="n">
+        <v>17</v>
+      </c>
+      <c r="M102" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="N102" t="n">
+        <v>81.2025</v>
+      </c>
+      <c r="O102" t="n">
+        <v>79.845</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cockburn Cougars </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Perth Redbacks</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D103" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7.169999999999999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>19</v>
+      </c>
+      <c r="G103" t="n">
+        <v>25</v>
+      </c>
+      <c r="H103" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I103" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J103" t="n">
+        <v>17</v>
+      </c>
+      <c r="K103" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L103" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="M103" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="N103" t="n">
+        <v>86.95750000000001</v>
+      </c>
+      <c r="O103" t="n">
+        <v>80.5675</v>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MT Gambier Pioneers </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nunawading Spectres</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F104" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G104" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="H104" t="n">
+        <v>20</v>
+      </c>
+      <c r="I104" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="J104" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="K104" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="L104" t="n">
+        <v>25</v>
+      </c>
+      <c r="M104" t="n">
+        <v>22</v>
+      </c>
+      <c r="N104" t="n">
+        <v>82.1725</v>
+      </c>
+      <c r="O104" t="n">
+        <v>86.6425</v>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evos Thunder Bogor </t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Satria Muda Pertamina Jakarta</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="F105" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="G105" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="H105" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="I105" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="J105" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K105" t="n">
+        <v>23</v>
+      </c>
+      <c r="L105" t="n">
+        <v>27</v>
+      </c>
+      <c r="M105" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="N105" t="n">
+        <v>107.185</v>
+      </c>
+      <c r="O105" t="n">
+        <v>86.12249999999999</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aris Leeuwarden </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Landstede Hammers</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.9800000000000002</v>
+      </c>
+      <c r="F106" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G106" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I106" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="J106" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K106" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="L106" t="n">
+        <v>21</v>
+      </c>
+      <c r="M106" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="N106" t="n">
+        <v>86.0675</v>
+      </c>
+      <c r="O106" t="n">
+        <v>68.63</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Nokia </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Helsinki Seagulls</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.3699999999999999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="G107" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="H107" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I107" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="J107" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="K107" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="L107" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="M107" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="N107" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="O107" t="n">
+        <v>76.97750000000001</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MKS Dabrowa Gornicza </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Trefl Sopot</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.3099999999999998</v>
+      </c>
+      <c r="F108" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="G108" t="n">
+        <v>26</v>
+      </c>
+      <c r="H108" t="n">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="I108" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="J108" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="K108" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="L108" t="n">
+        <v>26</v>
+      </c>
+      <c r="M108" t="n">
+        <v>23</v>
+      </c>
+      <c r="N108" t="n">
+        <v>91.26333333333332</v>
+      </c>
+      <c r="O108" t="n">
+        <v>86.50666666666666</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kk Rapla </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BC Kalev</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="F109" t="n">
+        <v>18</v>
+      </c>
+      <c r="G109" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="H109" t="n">
+        <v>20</v>
+      </c>
+      <c r="I109" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J109" t="n">
+        <v>22</v>
+      </c>
+      <c r="K109" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L109" t="n">
+        <v>18</v>
+      </c>
+      <c r="M109" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="N109" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="O109" t="n">
+        <v>75.51750000000001</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baskonia Vitoria-Gasteiz </t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB Murcia</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F110" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="G110" t="n">
+        <v>12</v>
+      </c>
+      <c r="H110" t="n">
+        <v>15</v>
+      </c>
+      <c r="I110" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="J110" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="K110" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="L110" t="n">
+        <v>14</v>
+      </c>
+      <c r="M110" t="n">
+        <v>14</v>
+      </c>
+      <c r="N110" t="n">
+        <v>81.35666666666667</v>
+      </c>
+      <c r="O110" t="n">
+        <v>78.89333333333333</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Panathinaikos BC </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Promitheas Patras BC</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="F111" t="n">
+        <v>23</v>
+      </c>
+      <c r="G111" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="H111" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="I111" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="J111" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="K111" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="L111" t="n">
+        <v>17</v>
+      </c>
+      <c r="M111" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="N111" t="n">
+        <v>83.34</v>
+      </c>
+      <c r="O111" t="n">
+        <v>76.215</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Science City Jena </t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Skyliners Frankfurt</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.6200000000000001</v>
+      </c>
+      <c r="F112" t="n">
+        <v>19</v>
+      </c>
+      <c r="G112" t="n">
+        <v>25</v>
+      </c>
+      <c r="H112" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I112" t="n">
+        <v>17</v>
+      </c>
+      <c r="J112" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="K112" t="n">
+        <v>19</v>
+      </c>
+      <c r="L112" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M112" t="n">
+        <v>25</v>
+      </c>
+      <c r="N112" t="n">
+        <v>76.325</v>
+      </c>
+      <c r="O112" t="n">
+        <v>72.6825</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alba Berlin </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bayern Munich</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F113" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="G113" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="H113" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="I113" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="J113" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="K113" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="L113" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="M113" t="n">
+        <v>22</v>
+      </c>
+      <c r="N113" t="n">
+        <v>85.07599999999999</v>
+      </c>
+      <c r="O113" t="n">
+        <v>80.44800000000001</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VFL Kirchheim Knights </t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Phoenix Hagen</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.1599999999999999</v>
+      </c>
+      <c r="F114" t="n">
+        <v>18</v>
+      </c>
+      <c r="G114" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="H114" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I114" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="K114" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="L114" t="n">
+        <v>18</v>
+      </c>
+      <c r="M114" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="N114" t="n">
+        <v>85.048</v>
+      </c>
+      <c r="O114" t="n">
+        <v>75.04600000000001</v>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ALM Evreux Basket </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Poitiers Basket 86</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="F115" t="n">
+        <v>19</v>
+      </c>
+      <c r="G115" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="H115" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="I115" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="J115" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="K115" t="n">
+        <v>20</v>
+      </c>
+      <c r="L115" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="M115" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="N115" t="n">
+        <v>85.38333333333333</v>
+      </c>
+      <c r="O115" t="n">
+        <v>80.25666666666667</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antibes Sharks </t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Boulazac Basket Dordogne</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.6200000000000001</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="H116" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="I116" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K116" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="L116" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="M116" t="n">
+        <v>23</v>
+      </c>
+      <c r="N116" t="n">
+        <v>76.36199999999999</v>
+      </c>
+      <c r="O116" t="n">
+        <v>84.364</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fos Provence Basket </t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Etoile Angers Basket</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F117" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="G117" t="n">
+        <v>25</v>
+      </c>
+      <c r="H117" t="n">
+        <v>24</v>
+      </c>
+      <c r="I117" t="n">
+        <v>19</v>
+      </c>
+      <c r="J117" t="n">
+        <v>20</v>
+      </c>
+      <c r="K117" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="L117" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M117" t="n">
+        <v>19</v>
+      </c>
+      <c r="N117" t="n">
+        <v>79.21666666666667</v>
+      </c>
+      <c r="O117" t="n">
+        <v>76.02333333333333</v>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lille Metropole </t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Saint-Chamond</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F118" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G118" t="n">
+        <v>20</v>
+      </c>
+      <c r="H118" t="n">
+        <v>19</v>
+      </c>
+      <c r="I118" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="J118" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="K118" t="n">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="L118" t="n">
+        <v>23</v>
+      </c>
+      <c r="M118" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N118" t="n">
+        <v>85.68333333333334</v>
+      </c>
+      <c r="O118" t="n">
+        <v>81.53</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rouen Metropole Basket </t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Champagne Chalons Reims Basket</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F119" t="n">
+        <v>18.85714285714286</v>
+      </c>
+      <c r="G119" t="n">
+        <v>19.28571428571428</v>
+      </c>
+      <c r="H119" t="n">
+        <v>17</v>
+      </c>
+      <c r="I119" t="n">
+        <v>19.42857142857143</v>
+      </c>
+      <c r="J119" t="n">
+        <v>18</v>
+      </c>
+      <c r="K119" t="n">
+        <v>21.71428571428572</v>
+      </c>
+      <c r="L119" t="n">
+        <v>21</v>
+      </c>
+      <c r="M119" t="n">
+        <v>18.71428571428572</v>
+      </c>
+      <c r="N119" t="n">
+        <v>78.66</v>
+      </c>
+      <c r="O119" t="n">
+        <v>80.19428571428571</v>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basketball Academie Limburg </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Donar Groningen</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F120" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="H120" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="I120" t="n">
+        <v>20</v>
+      </c>
+      <c r="J120" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K120" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="L120" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="M120" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="N120" t="n">
+        <v>83.77</v>
+      </c>
+      <c r="O120" t="n">
+        <v>75.5125</v>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yoast United </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Heroes Den Bosch</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="F121" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="G121" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="H121" t="n">
+        <v>18</v>
+      </c>
+      <c r="I121" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="J121" t="n">
+        <v>21</v>
+      </c>
+      <c r="K121" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L121" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="M121" t="n">
+        <v>14</v>
+      </c>
+      <c r="N121" t="n">
+        <v>82.42999999999999</v>
+      </c>
+      <c r="O121" t="n">
+        <v>71.235</v>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saint Vallier Basket Drome </t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> C Chartres Basket</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0199999999999998</v>
+      </c>
+      <c r="F122" t="n">
+        <v>17.42857142857143</v>
+      </c>
+      <c r="G122" t="n">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="H122" t="n">
+        <v>19.14285714285714</v>
+      </c>
+      <c r="I122" t="n">
+        <v>18.57142857142857</v>
+      </c>
+      <c r="J122" t="n">
+        <v>20</v>
+      </c>
+      <c r="K122" t="n">
+        <v>17.28571428571428</v>
+      </c>
+      <c r="L122" t="n">
+        <v>18.14285714285714</v>
+      </c>
+      <c r="M122" t="n">
+        <v>17</v>
+      </c>
+      <c r="N122" t="n">
+        <v>78.21000000000001</v>
+      </c>
+      <c r="O122" t="n">
+        <v>75.39142857142858</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tours Metropole Basket </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caen Basket Calvados</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.7299999999999998</v>
+      </c>
+      <c r="F123" t="n">
+        <v>18</v>
+      </c>
+      <c r="G123" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H123" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="I123" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J123" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="K123" t="n">
+        <v>21</v>
+      </c>
+      <c r="L123" t="n">
+        <v>17</v>
+      </c>
+      <c r="M123" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="N123" t="n">
+        <v>76.408</v>
+      </c>
+      <c r="O123" t="n">
+        <v>74.91399999999999</v>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trieste 2004 </t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basket Torino</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F124" t="n">
+        <v>18.71428571428572</v>
+      </c>
+      <c r="G124" t="n">
+        <v>22</v>
+      </c>
+      <c r="H124" t="n">
+        <v>20.57142857142857</v>
+      </c>
+      <c r="I124" t="n">
+        <v>19.85714285714286</v>
+      </c>
+      <c r="J124" t="n">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="K124" t="n">
+        <v>18.85714285714286</v>
+      </c>
+      <c r="L124" t="n">
+        <v>18.14285714285714</v>
+      </c>
+      <c r="M124" t="n">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="N124" t="n">
+        <v>81.55</v>
+      </c>
+      <c r="O124" t="n">
+        <v>77.94714285714285</v>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Newcastle Eagles </t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> London Lions</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F125" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="G125" t="n">
+        <v>25</v>
+      </c>
+      <c r="H125" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="I125" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="J125" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="K125" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="L125" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M125" t="n">
+        <v>26</v>
+      </c>
+      <c r="N125" t="n">
+        <v>91.715</v>
+      </c>
+      <c r="O125" t="n">
+        <v>89.1525</v>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sagesse </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beirut SC</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="G126" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="H126" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="I126" t="n">
+        <v>21</v>
+      </c>
+      <c r="J126" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="K126" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="L126" t="n">
+        <v>18</v>
+      </c>
+      <c r="M126" t="n">
+        <v>17</v>
+      </c>
+      <c r="N126" t="n">
+        <v>79.70125</v>
+      </c>
+      <c r="O126" t="n">
+        <v>83.54805357142857</v>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AB Castello </t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Estela</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F127" t="n">
+        <v>16</v>
+      </c>
+      <c r="G127" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H127" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I127" t="n">
+        <v>23</v>
+      </c>
+      <c r="J127" t="n">
+        <v>28</v>
+      </c>
+      <c r="K127" t="n">
+        <v>12</v>
+      </c>
+      <c r="L127" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="M127" t="n">
+        <v>22</v>
+      </c>
+      <c r="N127" t="n">
+        <v>76.53999999999999</v>
+      </c>
+      <c r="O127" t="n">
+        <v>84.69999999999999</v>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Melilla Baloncesto </t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB Coruna</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F128" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="G128" t="n">
+        <v>15.33333333333333</v>
+      </c>
+      <c r="H128" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="I128" t="n">
+        <v>27</v>
+      </c>
+      <c r="J128" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="K128" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="L128" t="n">
+        <v>21</v>
+      </c>
+      <c r="M128" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="N128" t="n">
+        <v>83.68666666666668</v>
+      </c>
+      <c r="O128" t="n">
+        <v>80.14999999999999</v>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Ourense Baloncesto Sad </t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Sebastian Gipuzkoa BC</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F129" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G129" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="H129" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I129" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="J129" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K129" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="L129" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M129" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="N129" t="n">
+        <v>76.66500000000001</v>
+      </c>
+      <c r="O129" t="n">
+        <v>74.38</v>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elachem Vigevano 1955 </t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pallacanestro 2.015 Forli</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F130" t="n">
+        <v>24</v>
+      </c>
+      <c r="G130" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="H130" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="I130" t="n">
+        <v>18</v>
+      </c>
+      <c r="J130" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="K130" t="n">
+        <v>19</v>
+      </c>
+      <c r="L130" t="n">
+        <v>16</v>
+      </c>
+      <c r="M130" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="N130" t="n">
+        <v>82.17333333333333</v>
+      </c>
+      <c r="O130" t="n">
+        <v>72.18333333333332</v>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Porto </t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Imortal BC</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D131" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="F131" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="G131" t="n">
+        <v>21</v>
+      </c>
+      <c r="H131" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I131" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="J131" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="K131" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="L131" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="M131" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="N131" t="n">
+        <v>84.34999999999999</v>
+      </c>
+      <c r="O131" t="n">
+        <v>73.81999999999999</v>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CB Gran Canaria </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basquet Girona</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F132" t="n">
+        <v>19</v>
+      </c>
+      <c r="G132" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="H132" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="I132" t="n">
+        <v>17</v>
+      </c>
+      <c r="J132" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K132" t="n">
+        <v>16</v>
+      </c>
+      <c r="L132" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="M132" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N132" t="n">
+        <v>83.06</v>
+      </c>
+      <c r="O132" t="n">
+        <v>75.7475</v>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">San-En Neophoenix </t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hiroshima Dragonflies</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F133" t="n">
+        <v>16</v>
+      </c>
+      <c r="G133" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="H133" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I133" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="J133" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K133" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L133" t="n">
+        <v>16</v>
+      </c>
+      <c r="M133" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="N133" t="n">
+        <v>77.125</v>
+      </c>
+      <c r="O133" t="n">
+        <v>74.55250000000001</v>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nagoya Diamond Dolphins </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Seahorses Mikawa</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F134" t="n">
+        <v>21</v>
+      </c>
+      <c r="G134" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="H134" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="I134" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="J134" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="K134" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="L134" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="M134" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="N134" t="n">
+        <v>79.7625</v>
+      </c>
+      <c r="O134" t="n">
+        <v>79.0625</v>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Camberwell Dragons </t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wyndham Basketball</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E135" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F135" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="G135" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="H135" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="I135" t="n">
+        <v>29</v>
+      </c>
+      <c r="J135" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K135" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="L135" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="M135" t="n">
+        <v>18</v>
+      </c>
+      <c r="N135" t="n">
+        <v>91.61500000000001</v>
+      </c>
+      <c r="O135" t="n">
+        <v>82.6525</v>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dyip </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Miguel Beermen</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>4</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F136" t="n">
+        <v>24.57142857142857</v>
+      </c>
+      <c r="G136" t="n">
+        <v>23.57142857142857</v>
+      </c>
+      <c r="H136" t="n">
+        <v>24.14285714285714</v>
+      </c>
+      <c r="I136" t="n">
+        <v>24.71428571428572</v>
+      </c>
+      <c r="J136" t="n">
+        <v>25.14285714285714</v>
+      </c>
+      <c r="K136" t="n">
+        <v>24.14285714285714</v>
+      </c>
+      <c r="L136" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="M136" t="n">
+        <v>23.14285714285714</v>
+      </c>
+      <c r="N136" t="n">
+        <v>98.22142857142858</v>
+      </c>
+      <c r="O136" t="n">
+        <v>95.27714285714286</v>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Central Coast Crusaders </t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canberra Gunners</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F137" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="G137" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="H137" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I137" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="J137" t="n">
+        <v>22</v>
+      </c>
+      <c r="K137" t="n">
+        <v>19</v>
+      </c>
+      <c r="L137" t="n">
+        <v>24</v>
+      </c>
+      <c r="M137" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="N137" t="n">
+        <v>83.1675</v>
+      </c>
+      <c r="O137" t="n">
+        <v>83.1675</v>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Warrnambool Mermaids </t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hume City Broncos</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="G138" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H138" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I138" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="J138" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="K138" t="n">
+        <v>19</v>
+      </c>
+      <c r="L138" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M138" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="N138" t="n">
+        <v>81.83750000000001</v>
+      </c>
+      <c r="O138" t="n">
+        <v>81.63000000000001</v>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sunshine Coast Phoenix </t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cairns Dolphins</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F139" t="n">
+        <v>21.28571428571428</v>
+      </c>
+      <c r="G139" t="n">
+        <v>18</v>
+      </c>
+      <c r="H139" t="n">
+        <v>19.28571428571428</v>
+      </c>
+      <c r="I139" t="n">
+        <v>20.28571428571428</v>
+      </c>
+      <c r="J139" t="n">
+        <v>22.71428571428572</v>
+      </c>
+      <c r="K139" t="n">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="L139" t="n">
+        <v>20</v>
+      </c>
+      <c r="M139" t="n">
+        <v>19.85714285714286</v>
+      </c>
+      <c r="N139" t="n">
+        <v>82.84714285714287</v>
+      </c>
+      <c r="O139" t="n">
+        <v>83.9542857142857</v>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ballarat Miners </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eltham Wildcats</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F140" t="n">
+        <v>24</v>
+      </c>
+      <c r="G140" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H140" t="n">
+        <v>21</v>
+      </c>
+      <c r="I140" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J140" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K140" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="L140" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="M140" t="n">
+        <v>21</v>
+      </c>
+      <c r="N140" t="n">
+        <v>91.708</v>
+      </c>
+      <c r="O140" t="n">
+        <v>86.154</v>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sydney City Comets </t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sutherland Sharks</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>18</v>
+      </c>
+      <c r="G141" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="H141" t="n">
+        <v>22</v>
+      </c>
+      <c r="I141" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J141" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="K141" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="L141" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="M141" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="N141" t="n">
+        <v>86.6825</v>
+      </c>
+      <c r="O141" t="n">
+        <v>82.50750000000001</v>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Keysborough </t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Western Port Steelers</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D142" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="F142" t="n">
+        <v>19.85714285714286</v>
+      </c>
+      <c r="G142" t="n">
+        <v>21.14285714285714</v>
+      </c>
+      <c r="H142" t="n">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="I142" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="J142" t="n">
+        <v>23.71428571428572</v>
+      </c>
+      <c r="K142" t="n">
+        <v>23.28571428571428</v>
+      </c>
+      <c r="L142" t="n">
+        <v>17.71428571428572</v>
+      </c>
+      <c r="M142" t="n">
+        <v>19.57142857142857</v>
+      </c>
+      <c r="N142" t="n">
+        <v>81.71000000000001</v>
+      </c>
+      <c r="O142" t="n">
+        <v>84.66857142857144</v>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southern Districts Spartans </t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Logan Thunder</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D143" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F143" t="n">
+        <v>20.625</v>
+      </c>
+      <c r="G143" t="n">
+        <v>19.125</v>
+      </c>
+      <c r="H143" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="I143" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J143" t="n">
+        <v>23</v>
+      </c>
+      <c r="K143" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="L143" t="n">
+        <v>18.375</v>
+      </c>
+      <c r="M143" t="n">
+        <v>19.625</v>
+      </c>
+      <c r="N143" t="n">
+        <v>81.78625</v>
+      </c>
+      <c r="O143" t="n">
+        <v>84.15375</v>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knox Raiders </t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Waverley Falcons</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="F144" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="G144" t="n">
+        <v>22</v>
+      </c>
+      <c r="H144" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="I144" t="n">
+        <v>20</v>
+      </c>
+      <c r="J144" t="n">
+        <v>29.33333333333333</v>
+      </c>
+      <c r="K144" t="n">
+        <v>24.16666666666667</v>
+      </c>
+      <c r="L144" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="M144" t="n">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="N144" t="n">
+        <v>86.575</v>
+      </c>
+      <c r="O144" t="n">
+        <v>90.46499999999999</v>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Launceston Tornadoes </t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Melbourne Tigers</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="G145" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="H145" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="I145" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="J145" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="K145" t="n">
+        <v>26.16666666666667</v>
+      </c>
+      <c r="L145" t="n">
+        <v>22.83333333333333</v>
+      </c>
+      <c r="M145" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="N145" t="n">
+        <v>80.995</v>
+      </c>
+      <c r="O145" t="n">
+        <v>82.92</v>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Norths Bears </t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Penrith Panthers</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D146" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.140000000000001</v>
+      </c>
+      <c r="F146" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="G146" t="n">
+        <v>20</v>
+      </c>
+      <c r="H146" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="I146" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="J146" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K146" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L146" t="n">
+        <v>21</v>
+      </c>
+      <c r="M146" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="N146" t="n">
+        <v>86.491</v>
+      </c>
+      <c r="O146" t="n">
+        <v>79.07499999999997</v>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forestville Eagles </t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> South Adelaide Panthers</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F147" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G147" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="H147" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="I147" t="n">
+        <v>26</v>
+      </c>
+      <c r="J147" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="K147" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L147" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M147" t="n">
+        <v>21</v>
+      </c>
+      <c r="N147" t="n">
+        <v>91.49249999999999</v>
+      </c>
+      <c r="O147" t="n">
+        <v>84.925</v>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southern Tigers </t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Norwood Flames</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="F148" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="G148" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="H148" t="n">
+        <v>19</v>
+      </c>
+      <c r="I148" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J148" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K148" t="n">
+        <v>27</v>
+      </c>
+      <c r="L148" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="M148" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="N148" t="n">
+        <v>100.024</v>
+      </c>
+      <c r="O148" t="n">
+        <v>97.124</v>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Warwick Senators </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cockburn Cougars</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>23.875</v>
+      </c>
+      <c r="G149" t="n">
+        <v>23.875</v>
+      </c>
+      <c r="H149" t="n">
+        <v>26.625</v>
+      </c>
+      <c r="I149" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="J149" t="n">
+        <v>21.125</v>
+      </c>
+      <c r="K149" t="n">
+        <v>20.875</v>
+      </c>
+      <c r="L149" t="n">
+        <v>20</v>
+      </c>
+      <c r="M149" t="n">
+        <v>16.625</v>
+      </c>
+      <c r="N149" t="n">
+        <v>95.27250000000001</v>
+      </c>
+      <c r="O149" t="n">
+        <v>81.63624999999999</v>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maitland Mustangs </t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hills Hornets</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F150" t="n">
+        <v>24.66666666666667</v>
+      </c>
+      <c r="G150" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="H150" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I150" t="n">
+        <v>22.83333333333333</v>
+      </c>
+      <c r="J150" t="n">
+        <v>24.16666666666667</v>
+      </c>
+      <c r="K150" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="L150" t="n">
+        <v>21.83333333333333</v>
+      </c>
+      <c r="M150" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="N150" t="n">
+        <v>82.48833333333333</v>
+      </c>
+      <c r="O150" t="n">
+        <v>88.58999999999999</v>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sydney Comets </t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sutherland Sharks</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F151" t="n">
+        <v>19.28571428571428</v>
+      </c>
+      <c r="G151" t="n">
+        <v>19</v>
+      </c>
+      <c r="H151" t="n">
+        <v>20</v>
+      </c>
+      <c r="I151" t="n">
+        <v>21.14285714285714</v>
+      </c>
+      <c r="J151" t="n">
+        <v>19.42857142857143</v>
+      </c>
+      <c r="K151" t="n">
+        <v>22.14285714285714</v>
+      </c>
+      <c r="L151" t="n">
+        <v>20.42857142857143</v>
+      </c>
+      <c r="M151" t="n">
+        <v>19</v>
+      </c>
+      <c r="N151" t="n">
+        <v>85.52142857142857</v>
+      </c>
+      <c r="O151" t="n">
+        <v>77.92999999999999</v>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lakeside Lightning </t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Willetton Tigers</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F152" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G152" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H152" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="I152" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="J152" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K152" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L152" t="n">
+        <v>15</v>
+      </c>
+      <c r="M152" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="N152" t="n">
+        <v>93.468</v>
+      </c>
+      <c r="O152" t="n">
+        <v>90.806</v>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blackburn Vikings </t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> McKinnon Cougars</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="F153" t="n">
+        <v>18</v>
+      </c>
+      <c r="G153" t="n">
+        <v>33</v>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+      <c r="I153" t="n">
+        <v>21</v>
+      </c>
+      <c r="J153" t="n">
+        <v>33</v>
+      </c>
+      <c r="K153" t="n">
+        <v>20</v>
+      </c>
+      <c r="L153" t="n">
+        <v>24</v>
+      </c>
+      <c r="M153" t="n">
+        <v>21</v>
+      </c>
+      <c r="N153" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="O153" t="n">
+        <v>77.84</v>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bulleen Boomers </t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sherbrooke</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D154" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="F154" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G154" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H154" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I154" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J154" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K154" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L154" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="M154" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>70.75729523809524</v>
+      </c>
+      <c r="O154" t="n">
+        <v>68.26224761904761</v>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bali United BC </t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bumi Borneo Basketball Pontianak</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G155" t="n">
+        <v>21.83333333333333</v>
+      </c>
+      <c r="H155" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="I155" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="J155" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="K155" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="L155" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="M155" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="N155" t="n">
+        <v>81.72333333333333</v>
+      </c>
+      <c r="O155" t="n">
+        <v>74.54333333333334</v>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Goldfields Giants </t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mandurah Magic</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F156" t="n">
+        <v>23.22222222222222</v>
+      </c>
+      <c r="G156" t="n">
+        <v>19.77777777777778</v>
+      </c>
+      <c r="H156" t="n">
+        <v>24.66666666666667</v>
+      </c>
+      <c r="I156" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="J156" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="K156" t="n">
+        <v>22.11111111111111</v>
+      </c>
+      <c r="L156" t="n">
+        <v>21.77777777777778</v>
+      </c>
+      <c r="M156" t="n">
+        <v>23.77777777777778</v>
+      </c>
+      <c r="N156" t="n">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="O156" t="n">
+        <v>88.12333333333332</v>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alvark Tokyo </t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ryukyu Golden Kings Okinawa</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G157" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="H157" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I157" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J157" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K157" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="L157" t="n">
+        <v>16</v>
+      </c>
+      <c r="M157" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="N157" t="n">
+        <v>78.242</v>
+      </c>
+      <c r="O157" t="n">
+        <v>79.54000000000001</v>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sturt Sabres </t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> West Adelaide Bearcats</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D158" t="n">
+        <v>10</v>
+      </c>
+      <c r="E158" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="G158" t="n">
+        <v>19</v>
+      </c>
+      <c r="H158" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I158" t="n">
+        <v>24.66666666666667</v>
+      </c>
+      <c r="J158" t="n">
+        <v>24</v>
+      </c>
+      <c r="K158" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="L158" t="n">
+        <v>24.66666666666667</v>
+      </c>
+      <c r="M158" t="n">
+        <v>26</v>
+      </c>
+      <c r="N158" t="n">
+        <v>89.55833333333332</v>
+      </c>
+      <c r="O158" t="n">
+        <v>95.86833333333333</v>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Woodville Warriors </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Central Districts Lions</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G159" t="n">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="H159" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="I159" t="n">
+        <v>17.83333333333333</v>
+      </c>
+      <c r="J159" t="n">
+        <v>18</v>
+      </c>
+      <c r="K159" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L159" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="M159" t="n">
+        <v>17.83333333333333</v>
+      </c>
+      <c r="N159" t="n">
+        <v>80.98</v>
+      </c>
+      <c r="O159" t="n">
+        <v>88.34333333333332</v>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Lokomotiv Kuban Krasnodar </t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BC Uniks Kazan</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F160" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="G160" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="H160" t="n">
+        <v>27</v>
+      </c>
+      <c r="I160" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="J160" t="n">
+        <v>13</v>
+      </c>
+      <c r="K160" t="n">
+        <v>20</v>
+      </c>
+      <c r="L160" t="n">
+        <v>18</v>
+      </c>
+      <c r="M160" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="N160" t="n">
+        <v>75.31</v>
+      </c>
+      <c r="O160" t="n">
+        <v>81.97000000000001</v>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dewa United Surabaya </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pelita Jaya Bakrie Jakarta</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="F161" t="n">
+        <v>24</v>
+      </c>
+      <c r="G161" t="n">
+        <v>26</v>
+      </c>
+      <c r="H161" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I161" t="n">
+        <v>16</v>
+      </c>
+      <c r="J161" t="n">
+        <v>18</v>
+      </c>
+      <c r="K161" t="n">
+        <v>18</v>
+      </c>
+      <c r="L161" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="M161" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="N161" t="n">
+        <v>92.804</v>
+      </c>
+      <c r="O161" t="n">
+        <v>74.18600000000001</v>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liaoning Flying Leopards </t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guangdong Southern Tigers</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D162" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E162" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F162" t="n">
+        <v>20.85714285714286</v>
+      </c>
+      <c r="G162" t="n">
+        <v>20.42857142857143</v>
+      </c>
+      <c r="H162" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="I162" t="n">
+        <v>22.28571428571428</v>
+      </c>
+      <c r="J162" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="K162" t="n">
+        <v>20.85714285714286</v>
+      </c>
+      <c r="L162" t="n">
+        <v>19.85714285714286</v>
+      </c>
+      <c r="M162" t="n">
+        <v>18.85714285714286</v>
+      </c>
+      <c r="N162" t="n">
+        <v>93.98571428571428</v>
+      </c>
+      <c r="O162" t="n">
+        <v>93.30285714285715</v>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSM Ploiesti </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Csm Focsani</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F163" t="n">
+        <v>19</v>
+      </c>
+      <c r="G163" t="n">
+        <v>15</v>
+      </c>
+      <c r="H163" t="n">
+        <v>19</v>
+      </c>
+      <c r="I163" t="n">
+        <v>15</v>
+      </c>
+      <c r="J163" t="n">
+        <v>17</v>
+      </c>
+      <c r="K163" t="n">
+        <v>16</v>
+      </c>
+      <c r="L163" t="n">
+        <v>17</v>
+      </c>
+      <c r="M163" t="n">
+        <v>14</v>
+      </c>
+      <c r="N163" t="n">
+        <v>78.95999999999999</v>
+      </c>
+      <c r="O163" t="n">
+        <v>76.38</v>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benfica Lisboa </t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vitoria Sport Clube</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D164" t="n">
+        <v>13</v>
+      </c>
+      <c r="E164" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="F164" t="n">
+        <v>16</v>
+      </c>
+      <c r="G164" t="n">
+        <v>15</v>
+      </c>
+      <c r="H164" t="n">
+        <v>19</v>
+      </c>
+      <c r="I164" t="n">
+        <v>12.66666666666667</v>
+      </c>
+      <c r="J164" t="n">
+        <v>12</v>
+      </c>
+      <c r="K164" t="n">
+        <v>9</v>
+      </c>
+      <c r="L164" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="M164" t="n">
+        <v>10</v>
+      </c>
+      <c r="N164" t="n">
+        <v>77.81666666666668</v>
+      </c>
+      <c r="O164" t="n">
+        <v>70.62666666666667</v>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UD Oliveirense </t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Povoa</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="G165" t="n">
+        <v>12</v>
+      </c>
+      <c r="H165" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="I165" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="J165" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="K165" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="L165" t="n">
+        <v>15</v>
+      </c>
+      <c r="M165" t="n">
+        <v>22</v>
+      </c>
+      <c r="N165" t="n">
+        <v>81.19333333333333</v>
+      </c>
+      <c r="O165" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rivers Hoopers </t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Armee Patriotique Rwandaise</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="G166" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H166" t="n">
+        <v>14</v>
+      </c>
+      <c r="I166" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="J166" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K166" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="L166" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="M166" t="n">
+        <v>22</v>
+      </c>
+      <c r="N166" t="n">
+        <v>74.80499999999999</v>
+      </c>
+      <c r="O166" t="n">
+        <v>81.55250000000001</v>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BK Levicki Patrioti </t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BK 04 AC LB SNV Spisski Rytieri</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F167" t="n">
+        <v>23</v>
+      </c>
+      <c r="G167" t="n">
+        <v>20</v>
+      </c>
+      <c r="H167" t="n">
+        <v>39</v>
+      </c>
+      <c r="I167" t="n">
+        <v>22</v>
+      </c>
+      <c r="J167" t="n">
+        <v>19</v>
+      </c>
+      <c r="K167" t="n">
+        <v>24</v>
+      </c>
+      <c r="L167" t="n">
+        <v>15</v>
+      </c>
+      <c r="M167" t="n">
+        <v>20</v>
+      </c>
+      <c r="N167" t="n">
+        <v>78.45999999999999</v>
+      </c>
+      <c r="O167" t="n">
+        <v>82.78</v>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bursaspor </t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fenerbahce Istanbul</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="F168" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G168" t="n">
+        <v>16</v>
+      </c>
+      <c r="H168" t="n">
+        <v>18</v>
+      </c>
+      <c r="I168" t="n">
+        <v>22</v>
+      </c>
+      <c r="J168" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K168" t="n">
+        <v>19</v>
+      </c>
+      <c r="L168" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="M168" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="N168" t="n">
+        <v>80.425</v>
+      </c>
+      <c r="O168" t="n">
+        <v>93.175</v>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tartu Ulikool </t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kk Parnu</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F169" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="G169" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="H169" t="n">
+        <v>18</v>
+      </c>
+      <c r="I169" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J169" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="K169" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="L169" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="M169" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N169" t="n">
+        <v>82.4075</v>
+      </c>
+      <c r="O169" t="n">
+        <v>75.2475</v>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sluneta Usti nad Labem </t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BK Decin</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F170" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G170" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H170" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="I170" t="n">
+        <v>22</v>
+      </c>
+      <c r="J170" t="n">
+        <v>21</v>
+      </c>
+      <c r="K170" t="n">
+        <v>18</v>
+      </c>
+      <c r="L170" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="M170" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="N170" t="n">
+        <v>77.5025</v>
+      </c>
+      <c r="O170" t="n">
+        <v>80.74250000000001</v>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alba Fehervar </t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zalakeramia ZTE</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="F171" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="G171" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="H171" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="I171" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="J171" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K171" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="M171" t="n">
+        <v>19</v>
+      </c>
+      <c r="N171" t="n">
+        <v>89.804</v>
+      </c>
+      <c r="O171" t="n">
+        <v>79.61800000000001</v>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cso Voluntari </t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCMU Arges Pitesti</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D172" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F172" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="G172" t="n">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="H172" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="I172" t="n">
+        <v>18</v>
+      </c>
+      <c r="J172" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="K172" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="L172" t="n">
+        <v>20</v>
+      </c>
+      <c r="M172" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="N172" t="n">
+        <v>84.67</v>
+      </c>
+      <c r="O172" t="n">
+        <v>74.68333333333334</v>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Igokea Aleksandrovac </t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KK Bosna Royal Sarajevo</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>22</v>
+      </c>
+      <c r="G173" t="n">
+        <v>21</v>
+      </c>
+      <c r="H173" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="I173" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="J173" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="K173" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="L173" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="M173" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="N173" t="n">
+        <v>73.7225</v>
+      </c>
+      <c r="O173" t="n">
+        <v>77.80499999999999</v>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cholet Basket </t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Elan Chalon</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F174" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="G174" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="H174" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="I174" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J174" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="K174" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="L174" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="M174" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="N174" t="n">
+        <v>89.25999999999999</v>
+      </c>
+      <c r="O174" t="n">
+        <v>83.508</v>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JDA Dijon Basket </t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Le Mans Sarthe Basket</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F175" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="G175" t="n">
+        <v>18</v>
+      </c>
+      <c r="H175" t="n">
+        <v>18</v>
+      </c>
+      <c r="I175" t="n">
+        <v>19</v>
+      </c>
+      <c r="J175" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="K175" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="L175" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="M175" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="N175" t="n">
+        <v>75.50600000000001</v>
+      </c>
+      <c r="O175" t="n">
+        <v>78.53400000000001</v>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Portel </t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Paris Basketball</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F176" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="G176" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="H176" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="I176" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="J176" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="K176" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="L176" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="M176" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="N176" t="n">
+        <v>82.43199999999999</v>
+      </c>
+      <c r="O176" t="n">
+        <v>81.83199999999999</v>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limoges CSP </t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JL Bourg Basket</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F177" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="G177" t="n">
+        <v>18.16666666666667</v>
+      </c>
+      <c r="H177" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="I177" t="n">
+        <v>17.83333333333333</v>
+      </c>
+      <c r="J177" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K177" t="n">
+        <v>19</v>
+      </c>
+      <c r="L177" t="n">
+        <v>13</v>
+      </c>
+      <c r="M177" t="n">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="N177" t="n">
+        <v>79.08999999999999</v>
+      </c>
+      <c r="O177" t="n">
+        <v>74.58666666666666</v>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Metropolitans 92 </t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nanterre 92</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F178" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="G178" t="n">
+        <v>16</v>
+      </c>
+      <c r="H178" t="n">
+        <v>28.66666666666667</v>
+      </c>
+      <c r="I178" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="J178" t="n">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="K178" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="L178" t="n">
+        <v>22</v>
+      </c>
+      <c r="M178" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="N178" t="n">
+        <v>83.67</v>
+      </c>
+      <c r="O178" t="n">
+        <v>94.67999999999999</v>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roanne Chorale </t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASVEL Lyon Villeurbanne</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4.359999999999999</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20</v>
+      </c>
+      <c r="G179" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="H179" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="I179" t="n">
+        <v>21</v>
+      </c>
+      <c r="J179" t="n">
+        <v>20</v>
+      </c>
+      <c r="K179" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="L179" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="M179" t="n">
+        <v>23.16666666666667</v>
+      </c>
+      <c r="N179" t="n">
+        <v>87.65500000000002</v>
+      </c>
+      <c r="O179" t="n">
+        <v>83.23833333333333</v>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saint Quentin </t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SIG Strasbourg</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="F180" t="n">
+        <v>19.125</v>
+      </c>
+      <c r="G180" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="H180" t="n">
+        <v>16.125</v>
+      </c>
+      <c r="I180" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="J180" t="n">
+        <v>20</v>
+      </c>
+      <c r="K180" t="n">
+        <v>22</v>
+      </c>
+      <c r="L180" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="M180" t="n">
+        <v>18.625</v>
+      </c>
+      <c r="N180" t="n">
+        <v>79.16125000000001</v>
+      </c>
+      <c r="O180" t="n">
+        <v>78.92</v>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sluc Nancy Basket </t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCM Gravelines Dunkerque</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D181" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F181" t="n">
+        <v>22.28571428571428</v>
+      </c>
+      <c r="G181" t="n">
+        <v>23.57142857142857</v>
+      </c>
+      <c r="H181" t="n">
+        <v>16.57142857142857</v>
+      </c>
+      <c r="I181" t="n">
+        <v>22</v>
+      </c>
+      <c r="J181" t="n">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="K181" t="n">
+        <v>19.57142857142857</v>
+      </c>
+      <c r="L181" t="n">
+        <v>20.57142857142857</v>
+      </c>
+      <c r="M181" t="n">
+        <v>18.14285714285714</v>
+      </c>
+      <c r="N181" t="n">
+        <v>85.94571428571429</v>
+      </c>
+      <c r="O181" t="n">
+        <v>76.93142857142857</v>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minas Tenis Clube MG </t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sao Paulo FC</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F182" t="n">
+        <v>18</v>
+      </c>
+      <c r="G182" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="H182" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="I182" t="n">
+        <v>14</v>
+      </c>
+      <c r="J182" t="n">
+        <v>11</v>
+      </c>
+      <c r="K182" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="L182" t="n">
+        <v>10</v>
+      </c>
+      <c r="M182" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="N182" t="n">
+        <v>84.41000000000001</v>
+      </c>
+      <c r="O182" t="n">
+        <v>68.09666666666668</v>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falco KC Szombathely </t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Szolnoki Olaj Kk</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D183" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="F183" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G183" t="n">
+        <v>22</v>
+      </c>
+      <c r="H183" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="I183" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J183" t="n">
+        <v>18</v>
+      </c>
+      <c r="K183" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L183" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="M183" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="N183" t="n">
+        <v>84.8775</v>
+      </c>
+      <c r="O183" t="n">
+        <v>78.3425</v>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reyer Venezia </t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pallacanestro Reggiana</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F184" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G184" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H184" t="n">
+        <v>16</v>
+      </c>
+      <c r="I184" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J184" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K184" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L184" t="n">
+        <v>21</v>
+      </c>
+      <c r="M184" t="n">
+        <v>24</v>
+      </c>
+      <c r="N184" t="n">
+        <v>83.12</v>
+      </c>
+      <c r="O184" t="n">
+        <v>86.14500000000001</v>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juvi Cremona 1952 </t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APU Udine</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F185" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="G185" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H185" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="I185" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="J185" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K185" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="M185" t="n">
+        <v>12</v>
+      </c>
+      <c r="N185" t="n">
+        <v>79.554</v>
+      </c>
+      <c r="O185" t="n">
+        <v>68.506</v>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/ml_bb.xlsx
+++ b/ml_bb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P185"/>
+  <dimension ref="A1:P186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10819,6 +10819,62 @@
         </is>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obera Tenis Club </t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F186" t="n">
+        <v>16</v>
+      </c>
+      <c r="G186" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="H186" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="I186" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J186" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K186" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L186" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="M186" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="N186" t="n">
+        <v>74.55</v>
+      </c>
+      <c r="O186" t="n">
+        <v>72.39200000000001</v>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ml_bb.xlsx
+++ b/ml_bb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P186"/>
+  <dimension ref="A1:P217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -10822,56 +10822,1792 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Obera Tenis Club </t>
+          <t xml:space="preserve">Bali United BC </t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+          <t xml:space="preserve"> Pacific Caesar Surabaya</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1.51</v>
+        <v>1.08</v>
       </c>
       <c r="D186" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="F186" t="n">
+        <v>21.14285714285714</v>
+      </c>
+      <c r="G186" t="n">
+        <v>18.14285714285714</v>
+      </c>
+      <c r="H186" t="n">
+        <v>22.28571428571428</v>
+      </c>
+      <c r="I186" t="n">
+        <v>19</v>
+      </c>
+      <c r="J186" t="n">
+        <v>21.14285714285714</v>
+      </c>
+      <c r="K186" t="n">
+        <v>19.57142857142857</v>
+      </c>
+      <c r="L186" t="n">
+        <v>20.57142857142857</v>
+      </c>
+      <c r="M186" t="n">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="N186" t="n">
+        <v>81.81571428571429</v>
+      </c>
+      <c r="O186" t="n">
+        <v>77.81285714285715</v>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">London Lions </t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Newcastle Eagles</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D187" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="G187" t="n">
+        <v>22.875</v>
+      </c>
+      <c r="H187" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="I187" t="n">
+        <v>18</v>
+      </c>
+      <c r="J187" t="n">
+        <v>22.125</v>
+      </c>
+      <c r="K187" t="n">
+        <v>24</v>
+      </c>
+      <c r="L187" t="n">
+        <v>20</v>
+      </c>
+      <c r="M187" t="n">
+        <v>22.125</v>
+      </c>
+      <c r="N187" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="O187" t="n">
+        <v>82.75500000000001</v>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSKA Moscow </t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zenit Saint Petersburg</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F188" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G188" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="H188" t="n">
+        <v>23</v>
+      </c>
+      <c r="I188" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="J188" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="K188" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="L188" t="n">
+        <v>17</v>
+      </c>
+      <c r="M188" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="N188" t="n">
+        <v>83.60499999999999</v>
+      </c>
+      <c r="O188" t="n">
+        <v>82.0025</v>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dewa United Surabaya </t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rans Pik Basketball Club</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D189" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E189" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F189" t="n">
+        <v>25</v>
+      </c>
+      <c r="G189" t="n">
+        <v>21.85714285714286</v>
+      </c>
+      <c r="H189" t="n">
+        <v>26.28571428571428</v>
+      </c>
+      <c r="I189" t="n">
+        <v>15.57142857142857</v>
+      </c>
+      <c r="J189" t="n">
+        <v>20.28571428571428</v>
+      </c>
+      <c r="K189" t="n">
+        <v>21.28571428571428</v>
+      </c>
+      <c r="L189" t="n">
+        <v>19.85714285714286</v>
+      </c>
+      <c r="M189" t="n">
+        <v>20.85714285714286</v>
+      </c>
+      <c r="N189" t="n">
+        <v>86.27428571428571</v>
+      </c>
+      <c r="O189" t="n">
+        <v>81.96142857142857</v>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basketball Lowen Braunschweig </t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ratiopharm Ulm</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>24.42857142857143</v>
+      </c>
+      <c r="G190" t="n">
+        <v>19.28571428571428</v>
+      </c>
+      <c r="H190" t="n">
+        <v>15.85714285714286</v>
+      </c>
+      <c r="I190" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="J190" t="n">
+        <v>22.28571428571428</v>
+      </c>
+      <c r="K190" t="n">
+        <v>19.42857142857143</v>
+      </c>
+      <c r="L190" t="n">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="M190" t="n">
+        <v>20.28571428571428</v>
+      </c>
+      <c r="N190" t="n">
+        <v>80.45857142857143</v>
+      </c>
+      <c r="O190" t="n">
+        <v>81.39428571428572</v>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baskets Bonn </t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Riesen Ludwigsburg</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F191" t="n">
+        <v>20.94736842105263</v>
+      </c>
+      <c r="G191" t="n">
+        <v>22.10526315789474</v>
+      </c>
+      <c r="H191" t="n">
+        <v>20.26315789473684</v>
+      </c>
+      <c r="I191" t="n">
+        <v>19.26315789473684</v>
+      </c>
+      <c r="J191" t="n">
+        <v>19.94736842105263</v>
+      </c>
+      <c r="K191" t="n">
+        <v>21.84210526315789</v>
+      </c>
+      <c r="L191" t="n">
+        <v>22.42105263157895</v>
+      </c>
+      <c r="M191" t="n">
+        <v>20.57894736842105</v>
+      </c>
+      <c r="N191" t="n">
+        <v>80.53473684210526</v>
+      </c>
+      <c r="O191" t="n">
+        <v>83.19263157894737</v>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baskets Oldenburg </t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brose Bamberg</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.5899999999999999</v>
+      </c>
+      <c r="F192" t="n">
+        <v>22.14285714285714</v>
+      </c>
+      <c r="G192" t="n">
+        <v>20.64285714285714</v>
+      </c>
+      <c r="H192" t="n">
+        <v>22.14285714285714</v>
+      </c>
+      <c r="I192" t="n">
+        <v>22.92857142857143</v>
+      </c>
+      <c r="J192" t="n">
+        <v>21.21428571428572</v>
+      </c>
+      <c r="K192" t="n">
+        <v>20.28571428571428</v>
+      </c>
+      <c r="L192" t="n">
+        <v>19.42857142857143</v>
+      </c>
+      <c r="M192" t="n">
+        <v>21.35714285714286</v>
+      </c>
+      <c r="N192" t="n">
+        <v>88.985</v>
+      </c>
+      <c r="O192" t="n">
+        <v>87.65214285714285</v>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bayern Munich </t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rostock Seawolves</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D193" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="E193" t="n">
+        <v>7.130000000000001</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20.55555555555556</v>
+      </c>
+      <c r="G193" t="n">
+        <v>22</v>
+      </c>
+      <c r="H193" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="I193" t="n">
+        <v>19.44444444444444</v>
+      </c>
+      <c r="J193" t="n">
+        <v>20</v>
+      </c>
+      <c r="K193" t="n">
+        <v>20</v>
+      </c>
+      <c r="L193" t="n">
+        <v>19.44444444444444</v>
+      </c>
+      <c r="M193" t="n">
+        <v>20.77777777777778</v>
+      </c>
+      <c r="N193" t="n">
+        <v>80.68666666666667</v>
+      </c>
+      <c r="O193" t="n">
+        <v>83.27444444444444</v>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crailsheim Merlins </t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alba Berlin</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F194" t="n">
+        <v>18.61538461538462</v>
+      </c>
+      <c r="G194" t="n">
+        <v>23.30769230769231</v>
+      </c>
+      <c r="H194" t="n">
+        <v>20.92307692307692</v>
+      </c>
+      <c r="I194" t="n">
+        <v>24.38461538461538</v>
+      </c>
+      <c r="J194" t="n">
+        <v>19.46153846153846</v>
+      </c>
+      <c r="K194" t="n">
+        <v>18.07692307692308</v>
+      </c>
+      <c r="L194" t="n">
+        <v>20.69230769230769</v>
+      </c>
+      <c r="M194" t="n">
+        <v>21</v>
+      </c>
+      <c r="N194" t="n">
+        <v>87.11461538461539</v>
+      </c>
+      <c r="O194" t="n">
+        <v>80.35923076923076</v>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rasta Vechta </t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mitteldeutscher BC</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D195" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E195" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F195" t="n">
+        <v>21.11111111111111</v>
+      </c>
+      <c r="G195" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="H195" t="n">
+        <v>20.55555555555556</v>
+      </c>
+      <c r="I195" t="n">
+        <v>21.77777777777778</v>
+      </c>
+      <c r="J195" t="n">
+        <v>21.22222222222222</v>
+      </c>
+      <c r="K195" t="n">
+        <v>16.44444444444444</v>
+      </c>
+      <c r="L195" t="n">
+        <v>16</v>
+      </c>
+      <c r="M195" t="n">
+        <v>18.55555555555556</v>
+      </c>
+      <c r="N195" t="n">
+        <v>84.0611111111111</v>
+      </c>
+      <c r="O195" t="n">
+        <v>76.60888888888888</v>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phoenix Hagen </t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VFL Kirchheim Knights</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F196" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="G196" t="n">
+        <v>21.88888888888889</v>
+      </c>
+      <c r="H196" t="n">
+        <v>19</v>
+      </c>
+      <c r="I196" t="n">
+        <v>19</v>
+      </c>
+      <c r="J196" t="n">
+        <v>16.88888888888889</v>
+      </c>
+      <c r="K196" t="n">
+        <v>20.55555555555556</v>
+      </c>
+      <c r="L196" t="n">
+        <v>19.22222222222222</v>
+      </c>
+      <c r="M196" t="n">
+        <v>21.88888888888889</v>
+      </c>
+      <c r="N196" t="n">
+        <v>79.10555555555555</v>
+      </c>
+      <c r="O196" t="n">
+        <v>78.47</v>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Universitatea Cluj-Napoca </t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSM CSU Oradea</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D197" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F197" t="n">
+        <v>21.90909090909091</v>
+      </c>
+      <c r="G197" t="n">
+        <v>21.63636363636364</v>
+      </c>
+      <c r="H197" t="n">
+        <v>21.63636363636364</v>
+      </c>
+      <c r="I197" t="n">
+        <v>21</v>
+      </c>
+      <c r="J197" t="n">
+        <v>21.72727272727273</v>
+      </c>
+      <c r="K197" t="n">
+        <v>20.54545454545455</v>
+      </c>
+      <c r="L197" t="n">
+        <v>19.09090909090909</v>
+      </c>
+      <c r="M197" t="n">
+        <v>18.72727272727273</v>
+      </c>
+      <c r="N197" t="n">
+        <v>86.77181818181818</v>
+      </c>
+      <c r="O197" t="n">
+        <v>79.98</v>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UCC Piacenza </t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pallacanestro Trapani</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>3</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F198" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G198" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H198" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="I198" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="J198" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K198" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="L198" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="M198" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="N198" t="n">
+        <v>81.73999999999999</v>
+      </c>
+      <c r="O198" t="n">
+        <v>74.928</v>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UBSC Graz </t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BK Dukes Klosterneuburg</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.1599999999999999</v>
+      </c>
+      <c r="F199" t="n">
+        <v>20.22222222222222</v>
+      </c>
+      <c r="G199" t="n">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="H199" t="n">
+        <v>21.22222222222222</v>
+      </c>
+      <c r="I199" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="J199" t="n">
+        <v>15.77777777777778</v>
+      </c>
+      <c r="K199" t="n">
+        <v>20.44444444444444</v>
+      </c>
+      <c r="L199" t="n">
+        <v>18.88888888888889</v>
+      </c>
+      <c r="M199" t="n">
+        <v>23.22222222222222</v>
+      </c>
+      <c r="N199" t="n">
+        <v>82.15777777777777</v>
+      </c>
+      <c r="O199" t="n">
+        <v>79.06555555555556</v>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sheffield Sharks </t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cheshire Phoenix</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.1699999999999999</v>
+      </c>
+      <c r="F200" t="n">
+        <v>24.625</v>
+      </c>
+      <c r="G200" t="n">
+        <v>21.875</v>
+      </c>
+      <c r="H200" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="I200" t="n">
+        <v>22.125</v>
+      </c>
+      <c r="J200" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="K200" t="n">
+        <v>22</v>
+      </c>
+      <c r="L200" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="M200" t="n">
+        <v>24.375</v>
+      </c>
+      <c r="N200" t="n">
+        <v>91.92375000000001</v>
+      </c>
+      <c r="O200" t="n">
+        <v>87.96250000000001</v>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olimpia Milano </t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aquila Basket Trento</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D201" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E201" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F201" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="G201" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="H201" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I201" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J201" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K201" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="N201" t="n">
+        <v>83.30199999999999</v>
+      </c>
+      <c r="O201" t="n">
+        <v>83.84100000000001</v>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benedetto Xiv Cento </t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Giobbe Chiusi</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="F202" t="n">
+        <v>18</v>
+      </c>
+      <c r="G202" t="n">
+        <v>17.42857142857143</v>
+      </c>
+      <c r="H202" t="n">
+        <v>16.71428571428572</v>
+      </c>
+      <c r="I202" t="n">
+        <v>20.85714285714286</v>
+      </c>
+      <c r="J202" t="n">
+        <v>16</v>
+      </c>
+      <c r="K202" t="n">
+        <v>19.14285714285714</v>
+      </c>
+      <c r="L202" t="n">
+        <v>19.14285714285714</v>
+      </c>
+      <c r="M202" t="n">
+        <v>19.28571428571428</v>
+      </c>
+      <c r="N202" t="n">
+        <v>75.27</v>
+      </c>
+      <c r="O202" t="n">
+        <v>80.98999999999999</v>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frata Nardo </t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASD Latina Basket</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F203" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G203" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="H203" t="n">
+        <v>18</v>
+      </c>
+      <c r="I203" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J203" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="K203" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="L203" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="M203" t="n">
+        <v>20</v>
+      </c>
+      <c r="N203" t="n">
+        <v>83.93000000000001</v>
+      </c>
+      <c r="O203" t="n">
+        <v>79.4875</v>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Dinamo Bucuresti </t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSU Sibiu</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D204" t="n">
         <v>2.5</v>
       </c>
-      <c r="E186" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="F186" t="n">
-        <v>16</v>
-      </c>
-      <c r="G186" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="H186" t="n">
+      <c r="E204" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F204" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="G204" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H204" t="n">
+        <v>21.83333333333333</v>
+      </c>
+      <c r="I204" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="J204" t="n">
+        <v>22.83333333333333</v>
+      </c>
+      <c r="K204" t="n">
+        <v>21</v>
+      </c>
+      <c r="L204" t="n">
+        <v>19</v>
+      </c>
+      <c r="M204" t="n">
+        <v>19</v>
+      </c>
+      <c r="N204" t="n">
+        <v>85.08166666666666</v>
+      </c>
+      <c r="O204" t="n">
+        <v>81.18833333333333</v>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Spartak Pleven </t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rilski Sportist</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F205" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G205" t="n">
+        <v>21</v>
+      </c>
+      <c r="H205" t="n">
+        <v>20.875</v>
+      </c>
+      <c r="I205" t="n">
+        <v>22.125</v>
+      </c>
+      <c r="J205" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="K205" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="L205" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M205" t="n">
+        <v>19.625</v>
+      </c>
+      <c r="N205" t="n">
+        <v>83.8475</v>
+      </c>
+      <c r="O205" t="n">
+        <v>78.18875</v>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raggisolaris Faenza </t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Libertas Livorno</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D206" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.5299999999999998</v>
+      </c>
+      <c r="F206" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="G206" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H206" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="I206" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J206" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="K206" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="L206" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="M206" t="n">
         <v>17.6</v>
       </c>
-      <c r="I186" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J186" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="K186" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="L186" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="M186" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="N186" t="n">
-        <v>74.55</v>
-      </c>
-      <c r="O186" t="n">
-        <v>72.39200000000001</v>
-      </c>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>pending</t>
+      <c r="N206" t="n">
+        <v>77.074</v>
+      </c>
+      <c r="O206" t="n">
+        <v>71.83799999999999</v>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basquet Girona </t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basket Zaragoza 2002</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F207" t="n">
+        <v>22.57142857142857</v>
+      </c>
+      <c r="G207" t="n">
+        <v>19.85714285714286</v>
+      </c>
+      <c r="H207" t="n">
+        <v>16.85714285714286</v>
+      </c>
+      <c r="I207" t="n">
+        <v>21.28571428571428</v>
+      </c>
+      <c r="J207" t="n">
+        <v>15</v>
+      </c>
+      <c r="K207" t="n">
+        <v>15.71428571428571</v>
+      </c>
+      <c r="L207" t="n">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="M207" t="n">
+        <v>18.85714285714286</v>
+      </c>
+      <c r="N207" t="n">
+        <v>78.23999999999999</v>
+      </c>
+      <c r="O207" t="n">
+        <v>68.31571428571429</v>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Andorra </t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valencia Basket</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F208" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="G208" t="n">
+        <v>20.91666666666667</v>
+      </c>
+      <c r="H208" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="I208" t="n">
+        <v>23.08333333333333</v>
+      </c>
+      <c r="J208" t="n">
+        <v>20.41666666666667</v>
+      </c>
+      <c r="K208" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="L208" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="M208" t="n">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="N208" t="n">
+        <v>89.86499999999999</v>
+      </c>
+      <c r="O208" t="n">
+        <v>78.15333333333334</v>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bilbao Basket </t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Barcelona</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F209" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="G209" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="H209" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="I209" t="n">
+        <v>23</v>
+      </c>
+      <c r="J209" t="n">
+        <v>20</v>
+      </c>
+      <c r="K209" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="L209" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="M209" t="n">
+        <v>22</v>
+      </c>
+      <c r="N209" t="n">
+        <v>81.69800000000001</v>
+      </c>
+      <c r="O209" t="n">
+        <v>82.82599999999999</v>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CB 1939 Canarias </t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basquet Manresa</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F210" t="n">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="G210" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="H210" t="n">
+        <v>19</v>
+      </c>
+      <c r="I210" t="n">
+        <v>27.83333333333333</v>
+      </c>
+      <c r="J210" t="n">
+        <v>15.83333333333333</v>
+      </c>
+      <c r="K210" t="n">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="L210" t="n">
+        <v>21</v>
+      </c>
+      <c r="M210" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="N210" t="n">
+        <v>86.87666666666668</v>
+      </c>
+      <c r="O210" t="n">
+        <v>84.105</v>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CB Malaga </t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Maristas Palencia</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D211" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="E211" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F211" t="n">
+        <v>18</v>
+      </c>
+      <c r="G211" t="n">
+        <v>18</v>
+      </c>
+      <c r="H211" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="I211" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J211" t="n">
+        <v>19</v>
+      </c>
+      <c r="K211" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="L211" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="M211" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="N211" t="n">
+        <v>81.916</v>
+      </c>
+      <c r="O211" t="n">
+        <v>85.81399999999999</v>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CB Murcia </t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB Breogan</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D212" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F212" t="n">
+        <v>16.71428571428572</v>
+      </c>
+      <c r="G212" t="n">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="H212" t="n">
+        <v>17.71428571428572</v>
+      </c>
+      <c r="I212" t="n">
+        <v>13.14285714285714</v>
+      </c>
+      <c r="J212" t="n">
+        <v>14</v>
+      </c>
+      <c r="K212" t="n">
+        <v>13.42857142857143</v>
+      </c>
+      <c r="L212" t="n">
+        <v>13.85714285714286</v>
+      </c>
+      <c r="M212" t="n">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="N212" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="O212" t="n">
+        <v>59.57142857142858</v>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GRANADA </t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB Gran Canaria</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.3300000000000001</v>
+      </c>
+      <c r="F213" t="n">
+        <v>20.57142857142857</v>
+      </c>
+      <c r="G213" t="n">
+        <v>19.42857142857143</v>
+      </c>
+      <c r="H213" t="n">
+        <v>17.42857142857143</v>
+      </c>
+      <c r="I213" t="n">
+        <v>22.57142857142857</v>
+      </c>
+      <c r="J213" t="n">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="K213" t="n">
+        <v>18.71428571428572</v>
+      </c>
+      <c r="L213" t="n">
+        <v>21.14285714285714</v>
+      </c>
+      <c r="M213" t="n">
+        <v>18.57142857142857</v>
+      </c>
+      <c r="N213" t="n">
+        <v>85.28</v>
+      </c>
+      <c r="O213" t="n">
+        <v>78.73428571428572</v>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obradoiro CAB </t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Joventut Badalona</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F214" t="n">
+        <v>24</v>
+      </c>
+      <c r="G214" t="n">
+        <v>19.36363636363636</v>
+      </c>
+      <c r="H214" t="n">
+        <v>21.81818181818182</v>
+      </c>
+      <c r="I214" t="n">
+        <v>21.09090909090909</v>
+      </c>
+      <c r="J214" t="n">
+        <v>18.72727272727273</v>
+      </c>
+      <c r="K214" t="n">
+        <v>19</v>
+      </c>
+      <c r="L214" t="n">
+        <v>22.72727272727273</v>
+      </c>
+      <c r="M214" t="n">
+        <v>23.63636363636364</v>
+      </c>
+      <c r="N214" t="n">
+        <v>88.64545454545454</v>
+      </c>
+      <c r="O214" t="n">
+        <v>85.16090909090909</v>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vasco Da Gama </t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bauru Basket SP</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F215" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G215" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="H215" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="I215" t="n">
+        <v>17.16666666666667</v>
+      </c>
+      <c r="J215" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K215" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="L215" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="M215" t="n">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="N215" t="n">
+        <v>77.47500000000001</v>
+      </c>
+      <c r="O215" t="n">
+        <v>74.51000000000001</v>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kk Split </t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KK Cibona</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D216" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E216" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F216" t="n">
+        <v>20</v>
+      </c>
+      <c r="G216" t="n">
+        <v>23.14285714285714</v>
+      </c>
+      <c r="H216" t="n">
+        <v>21.57142857142857</v>
+      </c>
+      <c r="I216" t="n">
+        <v>21</v>
+      </c>
+      <c r="J216" t="n">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="K216" t="n">
+        <v>22.28571428571428</v>
+      </c>
+      <c r="L216" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="M216" t="n">
+        <v>15.71428571428571</v>
+      </c>
+      <c r="N216" t="n">
+        <v>86.36857142857143</v>
+      </c>
+      <c r="O216" t="n">
+        <v>76.41428571428571</v>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indiana Pacers </t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New York Knicks</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F217" t="n">
+        <v>29</v>
+      </c>
+      <c r="G217" t="n">
+        <v>29</v>
+      </c>
+      <c r="H217" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="I217" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="J217" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="K217" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="L217" t="n">
+        <v>31</v>
+      </c>
+      <c r="M217" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="N217" t="n">
+        <v>114.82</v>
+      </c>
+      <c r="O217" t="n">
+        <v>107.4075</v>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>H</t>
         </is>
       </c>
     </row>

--- a/ml_bb.xlsx
+++ b/ml_bb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P217"/>
+  <dimension ref="A1:P305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -12608,6 +12608,4934 @@
       <c r="P217" t="inlineStr">
         <is>
           <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Aris Thessaloniki </t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Panathinaikos BC</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F218" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="G218" t="n">
+        <v>18.16666666666667</v>
+      </c>
+      <c r="H218" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="I218" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J218" t="n">
+        <v>16.83333333333333</v>
+      </c>
+      <c r="K218" t="n">
+        <v>13.16666666666667</v>
+      </c>
+      <c r="L218" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="M218" t="n">
+        <v>12.83333333333333</v>
+      </c>
+      <c r="N218" t="n">
+        <v>72.99166666666667</v>
+      </c>
+      <c r="O218" t="n">
+        <v>57.25333333333333</v>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fenerbahce Istanbul </t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Buyukcekmece Basketbol</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D219" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="E219" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="F219" t="n">
+        <v>22</v>
+      </c>
+      <c r="G219" t="n">
+        <v>22</v>
+      </c>
+      <c r="H219" t="n">
+        <v>23</v>
+      </c>
+      <c r="I219" t="n">
+        <v>10</v>
+      </c>
+      <c r="J219" t="n">
+        <v>12</v>
+      </c>
+      <c r="K219" t="n">
+        <v>5</v>
+      </c>
+      <c r="L219" t="n">
+        <v>14</v>
+      </c>
+      <c r="M219" t="n">
+        <v>14</v>
+      </c>
+      <c r="N219" t="n">
+        <v>59.53</v>
+      </c>
+      <c r="O219" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Rytas Vilnius </t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BC Jonava</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D220" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E220" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="F220" t="n">
+        <v>20</v>
+      </c>
+      <c r="G220" t="n">
+        <v>18.125</v>
+      </c>
+      <c r="H220" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="I220" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="J220" t="n">
+        <v>23.875</v>
+      </c>
+      <c r="K220" t="n">
+        <v>26.875</v>
+      </c>
+      <c r="L220" t="n">
+        <v>20.625</v>
+      </c>
+      <c r="M220" t="n">
+        <v>20.375</v>
+      </c>
+      <c r="N220" t="n">
+        <v>74.75</v>
+      </c>
+      <c r="O220" t="n">
+        <v>88.75375</v>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSM Targu Jiu </t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Abc Laguna Bucuresti</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D221" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E221" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F221" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="G221" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="H221" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="I221" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="J221" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="K221" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L221" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="M221" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="N221" t="n">
+        <v>86.92500000000001</v>
+      </c>
+      <c r="O221" t="n">
+        <v>85.8275</v>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balkan Botevgrad </t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chernomorets Burgas</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F222" t="n">
+        <v>23.71428571428572</v>
+      </c>
+      <c r="G222" t="n">
+        <v>23.28571428571428</v>
+      </c>
+      <c r="H222" t="n">
+        <v>21.85714285714286</v>
+      </c>
+      <c r="I222" t="n">
+        <v>17.28571428571428</v>
+      </c>
+      <c r="J222" t="n">
+        <v>21</v>
+      </c>
+      <c r="K222" t="n">
+        <v>16.28571428571428</v>
+      </c>
+      <c r="L222" t="n">
+        <v>21</v>
+      </c>
+      <c r="M222" t="n">
+        <v>19.14285714285714</v>
+      </c>
+      <c r="N222" t="n">
+        <v>86.15428571428572</v>
+      </c>
+      <c r="O222" t="n">
+        <v>77.10142857142856</v>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Wolves </t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BC Neptunas Klaipeda</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E223" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F223" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="G223" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="H223" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="I223" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="J223" t="n">
+        <v>17.83333333333333</v>
+      </c>
+      <c r="K223" t="n">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="L223" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="M223" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N223" t="n">
+        <v>93.07833333333333</v>
+      </c>
+      <c r="O223" t="n">
+        <v>80.98999999999999</v>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Team Fog Naestved </t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bakken Bears</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F224" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="G224" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="H224" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I224" t="n">
+        <v>25</v>
+      </c>
+      <c r="J224" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="K224" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L224" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="M224" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="N224" t="n">
+        <v>89.95250000000001</v>
+      </c>
+      <c r="O224" t="n">
+        <v>91.905</v>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Lietkabelis Panevezys </t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BC Juventus Utena</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F225" t="n">
+        <v>23.18181818181818</v>
+      </c>
+      <c r="G225" t="n">
+        <v>24.36363636363636</v>
+      </c>
+      <c r="H225" t="n">
+        <v>22.18181818181818</v>
+      </c>
+      <c r="I225" t="n">
+        <v>20.54545454545455</v>
+      </c>
+      <c r="J225" t="n">
+        <v>24</v>
+      </c>
+      <c r="K225" t="n">
+        <v>21.54545454545455</v>
+      </c>
+      <c r="L225" t="n">
+        <v>21.27272727272727</v>
+      </c>
+      <c r="M225" t="n">
+        <v>21.63636363636364</v>
+      </c>
+      <c r="N225" t="n">
+        <v>88.54000000000001</v>
+      </c>
+      <c r="O225" t="n">
+        <v>87.71909090909091</v>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BK 04 AC LB SNV Spisski Rytieri </t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BK Levicki Patrioti</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F226" t="n">
+        <v>12</v>
+      </c>
+      <c r="G226" t="n">
+        <v>18</v>
+      </c>
+      <c r="H226" t="n">
+        <v>18</v>
+      </c>
+      <c r="I226" t="n">
+        <v>9</v>
+      </c>
+      <c r="J226" t="n">
+        <v>22</v>
+      </c>
+      <c r="K226" t="n">
+        <v>20</v>
+      </c>
+      <c r="L226" t="n">
+        <v>22</v>
+      </c>
+      <c r="M226" t="n">
+        <v>24</v>
+      </c>
+      <c r="N226" t="n">
+        <v>68.63</v>
+      </c>
+      <c r="O226" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anwil Wroclawek </t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Spojnia Stargard</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D227" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E227" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F227" t="n">
+        <v>18.83333333333333</v>
+      </c>
+      <c r="G227" t="n">
+        <v>24.16666666666667</v>
+      </c>
+      <c r="H227" t="n">
+        <v>22</v>
+      </c>
+      <c r="I227" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J227" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="K227" t="n">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="L227" t="n">
+        <v>24.83333333333333</v>
+      </c>
+      <c r="M227" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="N227" t="n">
+        <v>81.15666666666668</v>
+      </c>
+      <c r="O227" t="n">
+        <v>81.72500000000001</v>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Szolnoki Olaj Kk </t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Falco KC Szombathely</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F228" t="n">
+        <v>26</v>
+      </c>
+      <c r="G228" t="n">
+        <v>22.16666666666667</v>
+      </c>
+      <c r="H228" t="n">
+        <v>27.16666666666667</v>
+      </c>
+      <c r="I228" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="J228" t="n">
+        <v>16.83333333333333</v>
+      </c>
+      <c r="K228" t="n">
+        <v>18.16666666666667</v>
+      </c>
+      <c r="L228" t="n">
+        <v>17.16666666666667</v>
+      </c>
+      <c r="M228" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="N228" t="n">
+        <v>95.36333333333334</v>
+      </c>
+      <c r="O228" t="n">
+        <v>69.29333333333334</v>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zalakeramia ZTE </t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alba Fehervar</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F229" t="n">
+        <v>22.81818181818182</v>
+      </c>
+      <c r="G229" t="n">
+        <v>22</v>
+      </c>
+      <c r="H229" t="n">
+        <v>18.09090909090909</v>
+      </c>
+      <c r="I229" t="n">
+        <v>20</v>
+      </c>
+      <c r="J229" t="n">
+        <v>17.54545454545455</v>
+      </c>
+      <c r="K229" t="n">
+        <v>17.45454545454545</v>
+      </c>
+      <c r="L229" t="n">
+        <v>18.09090909090909</v>
+      </c>
+      <c r="M229" t="n">
+        <v>19.18181818181818</v>
+      </c>
+      <c r="N229" t="n">
+        <v>87.54909090909091</v>
+      </c>
+      <c r="O229" t="n">
+        <v>75.06363636363636</v>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baskets Oldenburg </t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hamburg Towers</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D230" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F230" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="G230" t="n">
+        <v>21.41666666666667</v>
+      </c>
+      <c r="H230" t="n">
+        <v>22.91666666666667</v>
+      </c>
+      <c r="I230" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="J230" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="K230" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="L230" t="n">
+        <v>20.08333333333333</v>
+      </c>
+      <c r="M230" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="N230" t="n">
+        <v>82.92166666666667</v>
+      </c>
+      <c r="O230" t="n">
+        <v>84.98833333333333</v>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KK Siroki </t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Igokea Aleksandrovac</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="F231" t="n">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="G231" t="n">
+        <v>11.33333333333333</v>
+      </c>
+      <c r="H231" t="n">
+        <v>9.666666666666666</v>
+      </c>
+      <c r="I231" t="n">
+        <v>11.83333333333333</v>
+      </c>
+      <c r="J231" t="n">
+        <v>14</v>
+      </c>
+      <c r="K231" t="n">
+        <v>11.16666666666667</v>
+      </c>
+      <c r="L231" t="n">
+        <v>12.16666666666667</v>
+      </c>
+      <c r="M231" t="n">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="N231" t="n">
+        <v>45.46333333333333</v>
+      </c>
+      <c r="O231" t="n">
+        <v>46.85999999999999</v>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Washington Mystics </t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New York Liberty</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F232" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G232" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="H232" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="I232" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="J232" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="K232" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="L232" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="M232" t="n">
+        <v>14</v>
+      </c>
+      <c r="N232" t="n">
+        <v>84.485</v>
+      </c>
+      <c r="O232" t="n">
+        <v>82.3775</v>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marinos de Anzoategui </t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Heroes de Falcon</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D233" t="n">
+        <v>5</v>
+      </c>
+      <c r="E233" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F233" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="G233" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H233" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="I233" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="J233" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K233" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="L233" t="n">
+        <v>14</v>
+      </c>
+      <c r="M233" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="N233" t="n">
+        <v>81.7616</v>
+      </c>
+      <c r="O233" t="n">
+        <v>73.98886666666667</v>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ituano </t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Unisociesc / Blumenau</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D234" t="n">
+        <v>5</v>
+      </c>
+      <c r="E234" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F234" t="n">
+        <v>10.83333333333333</v>
+      </c>
+      <c r="G234" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="H234" t="n">
+        <v>11.83333333333333</v>
+      </c>
+      <c r="I234" t="n">
+        <v>10</v>
+      </c>
+      <c r="J234" t="n">
+        <v>13.16666666666667</v>
+      </c>
+      <c r="K234" t="n">
+        <v>11</v>
+      </c>
+      <c r="L234" t="n">
+        <v>11.33333333333333</v>
+      </c>
+      <c r="M234" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="N234" t="n">
+        <v>46.58166666666667</v>
+      </c>
+      <c r="O234" t="n">
+        <v>46.26333333333333</v>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Connecticut Sun </t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Indiana Fever</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D235" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2.779999999999999</v>
+      </c>
+      <c r="F235" t="n">
+        <v>23</v>
+      </c>
+      <c r="G235" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="H235" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="I235" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="J235" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K235" t="n">
+        <v>20</v>
+      </c>
+      <c r="L235" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="M235" t="n">
+        <v>19</v>
+      </c>
+      <c r="N235" t="n">
+        <v>79.96400000000001</v>
+      </c>
+      <c r="O235" t="n">
+        <v>83.654</v>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capitanes de Arecibo </t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Leones de Ponce</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D236" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E236" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="F236" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="G236" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="H236" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="I236" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J236" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="K236" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="L236" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="M236" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="N236" t="n">
+        <v>91.16400000000002</v>
+      </c>
+      <c r="O236" t="n">
+        <v>78.474</v>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gigantes de Carolina </t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atleticos de San German</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F237" t="n">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="G237" t="n">
+        <v>21</v>
+      </c>
+      <c r="H237" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="I237" t="n">
+        <v>21</v>
+      </c>
+      <c r="J237" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="K237" t="n">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="L237" t="n">
+        <v>24</v>
+      </c>
+      <c r="M237" t="n">
+        <v>20</v>
+      </c>
+      <c r="N237" t="n">
+        <v>98.03666666666668</v>
+      </c>
+      <c r="O237" t="n">
+        <v>97.83</v>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atenas Cordoba </t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportivo Rivadavia Mendoza</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F238" t="n">
+        <v>10</v>
+      </c>
+      <c r="G238" t="n">
+        <v>12</v>
+      </c>
+      <c r="H238" t="n">
+        <v>11</v>
+      </c>
+      <c r="I238" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J238" t="n">
+        <v>9</v>
+      </c>
+      <c r="K238" t="n">
+        <v>11</v>
+      </c>
+      <c r="L238" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M238" t="n">
+        <v>8</v>
+      </c>
+      <c r="N238" t="n">
+        <v>80.755</v>
+      </c>
+      <c r="O238" t="n">
+        <v>77.64</v>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Regatas Corrientes </t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F239" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="G239" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H239" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="I239" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="J239" t="n">
+        <v>18</v>
+      </c>
+      <c r="K239" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="L239" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="M239" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="N239" t="n">
+        <v>79.20800000000001</v>
+      </c>
+      <c r="O239" t="n">
+        <v>74.562</v>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Broncos De Caracas </t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cancrejeros de Monagas</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F240" t="n">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G240" t="n">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="H240" t="n">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="I240" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="J240" t="n">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="K240" t="n">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="L240" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="M240" t="n">
+        <v>7</v>
+      </c>
+      <c r="N240" t="n">
+        <v>77.11766666666666</v>
+      </c>
+      <c r="O240" t="n">
+        <v>76.42933333333333</v>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aguada </t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Nacional</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F241" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="G241" t="n">
+        <v>18.875</v>
+      </c>
+      <c r="H241" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="I241" t="n">
+        <v>20</v>
+      </c>
+      <c r="J241" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K241" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="L241" t="n">
+        <v>18</v>
+      </c>
+      <c r="M241" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="N241" t="n">
+        <v>87.205</v>
+      </c>
+      <c r="O241" t="n">
+        <v>80.80499999999999</v>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bucaros de Bucaramanga </t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caribbean Storm Islands</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="F242" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="G242" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="H242" t="n">
+        <v>20</v>
+      </c>
+      <c r="I242" t="n">
+        <v>23</v>
+      </c>
+      <c r="J242" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K242" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="L242" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="M242" t="n">
+        <v>21</v>
+      </c>
+      <c r="N242" t="n">
+        <v>84.57250000000001</v>
+      </c>
+      <c r="O242" t="n">
+        <v>75.9675</v>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CB Cojute </t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salvadorenos BC</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F243" t="n">
+        <v>23</v>
+      </c>
+      <c r="G243" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="H243" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="I243" t="n">
+        <v>24</v>
+      </c>
+      <c r="J243" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="K243" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="L243" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M243" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="N243" t="n">
+        <v>81.105</v>
+      </c>
+      <c r="O243" t="n">
+        <v>69.2325</v>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santa Ana BC </t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brujos Izalco</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D244" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E244" t="n">
+        <v>5.529999999999999</v>
+      </c>
+      <c r="F244" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="G244" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H244" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="I244" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J244" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K244" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="L244" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M244" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="N244" t="n">
+        <v>72.44799999999999</v>
+      </c>
+      <c r="O244" t="n">
+        <v>64.88200000000001</v>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sampaio Basquete </t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SC Corinthians SP</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D245" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E245" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F245" t="n">
+        <v>21</v>
+      </c>
+      <c r="G245" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="H245" t="n">
+        <v>17</v>
+      </c>
+      <c r="I245" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J245" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K245" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="L245" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="M245" t="n">
+        <v>17</v>
+      </c>
+      <c r="N245" t="n">
+        <v>74.89000000000001</v>
+      </c>
+      <c r="O245" t="n">
+        <v>72.95599999999999</v>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hawke's Bay Hawks </t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Franklin Bulls</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F246" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="G246" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="H246" t="n">
+        <v>25</v>
+      </c>
+      <c r="I246" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J246" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="K246" t="n">
+        <v>24</v>
+      </c>
+      <c r="L246" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="M246" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="N246" t="n">
+        <v>98.694</v>
+      </c>
+      <c r="O246" t="n">
+        <v>89.152</v>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">San Miguel Beermen </t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dyip</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F247" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G247" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="H247" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="I247" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="J247" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K247" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L247" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="M247" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="N247" t="n">
+        <v>104.945</v>
+      </c>
+      <c r="O247" t="n">
+        <v>100.45</v>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taoyuan Pilots </t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New Taipei Kings</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F248" t="n">
+        <v>24</v>
+      </c>
+      <c r="G248" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="H248" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="I248" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J248" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="K248" t="n">
+        <v>31</v>
+      </c>
+      <c r="L248" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="M248" t="n">
+        <v>23</v>
+      </c>
+      <c r="N248" t="n">
+        <v>92.19</v>
+      </c>
+      <c r="O248" t="n">
+        <v>97.49249999999999</v>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tropang Giga </t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rain or Shine Elasto Painters</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F249" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="G249" t="n">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="H249" t="n">
+        <v>32</v>
+      </c>
+      <c r="I249" t="n">
+        <v>31</v>
+      </c>
+      <c r="J249" t="n">
+        <v>18</v>
+      </c>
+      <c r="K249" t="n">
+        <v>30</v>
+      </c>
+      <c r="L249" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="M249" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="N249" t="n">
+        <v>110.5833333333333</v>
+      </c>
+      <c r="O249" t="n">
+        <v>106.3133333333333</v>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liaoning Flying Leopards </t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Xinjiang Flying Tigers</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F250" t="n">
+        <v>25.28571428571428</v>
+      </c>
+      <c r="G250" t="n">
+        <v>24.57142857142857</v>
+      </c>
+      <c r="H250" t="n">
+        <v>26.14285714285714</v>
+      </c>
+      <c r="I250" t="n">
+        <v>28.28571428571428</v>
+      </c>
+      <c r="J250" t="n">
+        <v>27.85714285714286</v>
+      </c>
+      <c r="K250" t="n">
+        <v>24.71428571428572</v>
+      </c>
+      <c r="L250" t="n">
+        <v>24.14285714285714</v>
+      </c>
+      <c r="M250" t="n">
+        <v>21.85714285714286</v>
+      </c>
+      <c r="N250" t="n">
+        <v>102.85</v>
+      </c>
+      <c r="O250" t="n">
+        <v>96.94714285714288</v>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fenerbahce Istanbul </t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Petkim Spor Aliaga</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D251" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="E251" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F251" t="n">
+        <v>11</v>
+      </c>
+      <c r="G251" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H251" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I251" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J251" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K251" t="n">
+        <v>16</v>
+      </c>
+      <c r="L251" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M251" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="N251" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="O251" t="n">
+        <v>78.035</v>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Panathinaikos BC </t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PAOK BC</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D252" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="E252" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="F252" t="n">
+        <v>21.28571428571428</v>
+      </c>
+      <c r="G252" t="n">
+        <v>24.85714285714286</v>
+      </c>
+      <c r="H252" t="n">
+        <v>23.85714285714286</v>
+      </c>
+      <c r="I252" t="n">
+        <v>22.71428571428572</v>
+      </c>
+      <c r="J252" t="n">
+        <v>24.57142857142857</v>
+      </c>
+      <c r="K252" t="n">
+        <v>16.71428571428572</v>
+      </c>
+      <c r="L252" t="n">
+        <v>20.28571428571428</v>
+      </c>
+      <c r="M252" t="n">
+        <v>20.85714285714286</v>
+      </c>
+      <c r="N252" t="n">
+        <v>86.86571428571428</v>
+      </c>
+      <c r="O252" t="n">
+        <v>81.82714285714287</v>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indiana Fever </t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New York Liberty</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F253" t="n">
+        <v>22</v>
+      </c>
+      <c r="G253" t="n">
+        <v>19.85714285714286</v>
+      </c>
+      <c r="H253" t="n">
+        <v>15.85714285714286</v>
+      </c>
+      <c r="I253" t="n">
+        <v>22.57142857142857</v>
+      </c>
+      <c r="J253" t="n">
+        <v>20.57142857142857</v>
+      </c>
+      <c r="K253" t="n">
+        <v>19.28571428571428</v>
+      </c>
+      <c r="L253" t="n">
+        <v>18</v>
+      </c>
+      <c r="M253" t="n">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="N253" t="n">
+        <v>84.66714285714286</v>
+      </c>
+      <c r="O253" t="n">
+        <v>82.59714285714286</v>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atleticos de San German </t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gigantes de Carolina</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D254" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.6200000000000001</v>
+      </c>
+      <c r="F254" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="G254" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="H254" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="I254" t="n">
+        <v>26</v>
+      </c>
+      <c r="J254" t="n">
+        <v>22</v>
+      </c>
+      <c r="K254" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L254" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="M254" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="N254" t="n">
+        <v>96.476</v>
+      </c>
+      <c r="O254" t="n">
+        <v>92.64000000000001</v>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indios de Mayaguez </t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mets de Guaynabo</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="F255" t="n">
+        <v>24.85714285714286</v>
+      </c>
+      <c r="G255" t="n">
+        <v>18.14285714285714</v>
+      </c>
+      <c r="H255" t="n">
+        <v>26.42857142857143</v>
+      </c>
+      <c r="I255" t="n">
+        <v>23.57142857142857</v>
+      </c>
+      <c r="J255" t="n">
+        <v>18.57142857142857</v>
+      </c>
+      <c r="K255" t="n">
+        <v>22</v>
+      </c>
+      <c r="L255" t="n">
+        <v>21.85714285714286</v>
+      </c>
+      <c r="M255" t="n">
+        <v>23.28571428571428</v>
+      </c>
+      <c r="N255" t="n">
+        <v>92.77142857142857</v>
+      </c>
+      <c r="O255" t="n">
+        <v>85.55857142857144</v>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Defensor Sporting </t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Penarol</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="F256" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="G256" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="H256" t="n">
+        <v>12</v>
+      </c>
+      <c r="I256" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J256" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="K256" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="L256" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="M256" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N256" t="n">
+        <v>72.83500000000001</v>
+      </c>
+      <c r="O256" t="n">
+        <v>73.1525</v>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minnesota Timberwolves </t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="F257" t="n">
+        <v>25</v>
+      </c>
+      <c r="G257" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="H257" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="I257" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="J257" t="n">
+        <v>28</v>
+      </c>
+      <c r="K257" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="L257" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="M257" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="N257" t="n">
+        <v>101.7925</v>
+      </c>
+      <c r="O257" t="n">
+        <v>111.0025</v>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Union Formosa </t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D258" t="n">
+        <v>2</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F258" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="G258" t="n">
+        <v>19</v>
+      </c>
+      <c r="H258" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="I258" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="J258" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K258" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="L258" t="n">
+        <v>17</v>
+      </c>
+      <c r="M258" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="N258" t="n">
+        <v>79.46250000000001</v>
+      </c>
+      <c r="O258" t="n">
+        <v>75.18000000000001</v>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canterbury Rams </t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Whai</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D259" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E259" t="n">
+        <v>8.370000000000001</v>
+      </c>
+      <c r="F259" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="G259" t="n">
+        <v>20</v>
+      </c>
+      <c r="H259" t="n">
+        <v>17</v>
+      </c>
+      <c r="I259" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="J259" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K259" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="L259" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="M259" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="N259" t="n">
+        <v>84.51599999999999</v>
+      </c>
+      <c r="O259" t="n">
+        <v>77.614</v>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rain or Shine Elasto Painters </t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Miguel Beermen</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F260" t="n">
+        <v>23.375</v>
+      </c>
+      <c r="G260" t="n">
+        <v>24.125</v>
+      </c>
+      <c r="H260" t="n">
+        <v>26.375</v>
+      </c>
+      <c r="I260" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="J260" t="n">
+        <v>22</v>
+      </c>
+      <c r="K260" t="n">
+        <v>25.625</v>
+      </c>
+      <c r="L260" t="n">
+        <v>27.375</v>
+      </c>
+      <c r="M260" t="n">
+        <v>24.125</v>
+      </c>
+      <c r="N260" t="n">
+        <v>105.145</v>
+      </c>
+      <c r="O260" t="n">
+        <v>103.94125</v>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Haifa BC </t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Afula</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F261" t="n">
+        <v>19.42857142857143</v>
+      </c>
+      <c r="G261" t="n">
+        <v>21.85714285714286</v>
+      </c>
+      <c r="H261" t="n">
+        <v>22.85714285714286</v>
+      </c>
+      <c r="I261" t="n">
+        <v>19.85714285714286</v>
+      </c>
+      <c r="J261" t="n">
+        <v>20.28571428571428</v>
+      </c>
+      <c r="K261" t="n">
+        <v>21</v>
+      </c>
+      <c r="L261" t="n">
+        <v>20</v>
+      </c>
+      <c r="M261" t="n">
+        <v>20</v>
+      </c>
+      <c r="N261" t="n">
+        <v>82.62142857142855</v>
+      </c>
+      <c r="O261" t="n">
+        <v>81.28</v>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Willetton Tigers </t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mandurah Magic</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D262" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E262" t="n">
+        <v>5.640000000000001</v>
+      </c>
+      <c r="F262" t="n">
+        <v>25</v>
+      </c>
+      <c r="G262" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="H262" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="I262" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J262" t="n">
+        <v>24</v>
+      </c>
+      <c r="K262" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="L262" t="n">
+        <v>24</v>
+      </c>
+      <c r="M262" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="N262" t="n">
+        <v>92.145</v>
+      </c>
+      <c r="O262" t="n">
+        <v>93.25500000000001</v>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Beer Sheva </t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Eilat</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F263" t="n">
+        <v>15.375</v>
+      </c>
+      <c r="G263" t="n">
+        <v>16.375</v>
+      </c>
+      <c r="H263" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="I263" t="n">
+        <v>18.375</v>
+      </c>
+      <c r="J263" t="n">
+        <v>14.625</v>
+      </c>
+      <c r="K263" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L263" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="M263" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="N263" t="n">
+        <v>65.24249999999999</v>
+      </c>
+      <c r="O263" t="n">
+        <v>63.02875</v>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bnei Herzelia </t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ironi Ness Ziona</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D264" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.8499999999999999</v>
+      </c>
+      <c r="F264" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="G264" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H264" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I264" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="J264" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="K264" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="L264" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M264" t="n">
+        <v>20</v>
+      </c>
+      <c r="N264" t="n">
+        <v>83.14</v>
+      </c>
+      <c r="O264" t="n">
+        <v>83.205</v>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bumi Borneo Basketball Pontianak </t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dewa United Surabaya</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>4.800000000000001</v>
+      </c>
+      <c r="F265" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="G265" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="H265" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="I265" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J265" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K265" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L265" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="M265" t="n">
+        <v>19</v>
+      </c>
+      <c r="N265" t="n">
+        <v>85.43000000000001</v>
+      </c>
+      <c r="O265" t="n">
+        <v>90.44</v>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolts </t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Barangay Ginebra</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.7399999999999998</v>
+      </c>
+      <c r="F266" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="G266" t="n">
+        <v>25</v>
+      </c>
+      <c r="H266" t="n">
+        <v>20</v>
+      </c>
+      <c r="I266" t="n">
+        <v>20</v>
+      </c>
+      <c r="J266" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="K266" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="L266" t="n">
+        <v>29.66666666666667</v>
+      </c>
+      <c r="M266" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="N266" t="n">
+        <v>90.44</v>
+      </c>
+      <c r="O266" t="n">
+        <v>88.75333333333333</v>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cocodrilos de Caracas </t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diablos de Miranda</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D267" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E267" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="F267" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="G267" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H267" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I267" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J267" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K267" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L267" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="M267" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="N267" t="n">
+        <v>72.28587878787877</v>
+      </c>
+      <c r="O267" t="n">
+        <v>78.69785238095237</v>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Llaneros de Guarico </t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Broncos De Caracas</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F268" t="n">
+        <v>12.875</v>
+      </c>
+      <c r="G268" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H268" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="I268" t="n">
+        <v>9.375</v>
+      </c>
+      <c r="J268" t="n">
+        <v>8.875</v>
+      </c>
+      <c r="K268" t="n">
+        <v>11.625</v>
+      </c>
+      <c r="L268" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="M268" t="n">
+        <v>10.625</v>
+      </c>
+      <c r="N268" t="n">
+        <v>74.32715750334225</v>
+      </c>
+      <c r="O268" t="n">
+        <v>72.52518729065054</v>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Panteras De Miranda </t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Centauros de Portuguesa</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F269" t="n">
+        <v>18.625</v>
+      </c>
+      <c r="G269" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="H269" t="n">
+        <v>19.375</v>
+      </c>
+      <c r="I269" t="n">
+        <v>15.125</v>
+      </c>
+      <c r="J269" t="n">
+        <v>21.875</v>
+      </c>
+      <c r="K269" t="n">
+        <v>17.125</v>
+      </c>
+      <c r="L269" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="M269" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="N269" t="n">
+        <v>72.08115214646465</v>
+      </c>
+      <c r="O269" t="n">
+        <v>74.20677985209235</v>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlanta Dream </t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dallas Wings</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F270" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="G270" t="n">
+        <v>19</v>
+      </c>
+      <c r="H270" t="n">
+        <v>23</v>
+      </c>
+      <c r="I270" t="n">
+        <v>21</v>
+      </c>
+      <c r="J270" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="K270" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L270" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M270" t="n">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="N270" t="n">
+        <v>87.10833333333335</v>
+      </c>
+      <c r="O270" t="n">
+        <v>86.30166666666666</v>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trotamundos de Carabobo </t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Taurinos de Aragua</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D271" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F271" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="G271" t="n">
+        <v>17.125</v>
+      </c>
+      <c r="H271" t="n">
+        <v>20.125</v>
+      </c>
+      <c r="I271" t="n">
+        <v>20.875</v>
+      </c>
+      <c r="J271" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="K271" t="n">
+        <v>20.875</v>
+      </c>
+      <c r="L271" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M271" t="n">
+        <v>22.625</v>
+      </c>
+      <c r="N271" t="n">
+        <v>78.20750000000001</v>
+      </c>
+      <c r="O271" t="n">
+        <v>76.46143749999999</v>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boston Celtics </t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Indiana Pacers</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D272" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E272" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="F272" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="G272" t="n">
+        <v>30</v>
+      </c>
+      <c r="H272" t="n">
+        <v>31</v>
+      </c>
+      <c r="I272" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="J272" t="n">
+        <v>32</v>
+      </c>
+      <c r="K272" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="L272" t="n">
+        <v>25</v>
+      </c>
+      <c r="M272" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="N272" t="n">
+        <v>112.4425</v>
+      </c>
+      <c r="O272" t="n">
+        <v>107.0275</v>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independiente de Oliva </t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Platense</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.0299999999999998</v>
+      </c>
+      <c r="F273" t="n">
+        <v>17.88888888888889</v>
+      </c>
+      <c r="G273" t="n">
+        <v>22</v>
+      </c>
+      <c r="H273" t="n">
+        <v>18.88888888888889</v>
+      </c>
+      <c r="I273" t="n">
+        <v>18.44444444444444</v>
+      </c>
+      <c r="J273" t="n">
+        <v>15.33333333333333</v>
+      </c>
+      <c r="K273" t="n">
+        <v>18.11111111111111</v>
+      </c>
+      <c r="L273" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="M273" t="n">
+        <v>16.22222222222222</v>
+      </c>
+      <c r="N273" t="n">
+        <v>75.03222222222222</v>
+      </c>
+      <c r="O273" t="n">
+        <v>69.52888888888889</v>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Union Formosa </t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Obras Sanitarias</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.1699999999999999</v>
+      </c>
+      <c r="F274" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="G274" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="H274" t="n">
+        <v>17.83333333333333</v>
+      </c>
+      <c r="I274" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="J274" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K274" t="n">
+        <v>17.83333333333333</v>
+      </c>
+      <c r="L274" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M274" t="n">
+        <v>14</v>
+      </c>
+      <c r="N274" t="n">
+        <v>76.65166666666666</v>
+      </c>
+      <c r="O274" t="n">
+        <v>69.58499999999999</v>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Penarol </t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D275" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F275" t="n">
+        <v>18</v>
+      </c>
+      <c r="G275" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="H275" t="n">
+        <v>26.83333333333333</v>
+      </c>
+      <c r="I275" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="J275" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="K275" t="n">
+        <v>21</v>
+      </c>
+      <c r="L275" t="n">
+        <v>21</v>
+      </c>
+      <c r="M275" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="N275" t="n">
+        <v>83.33833333333332</v>
+      </c>
+      <c r="O275" t="n">
+        <v>80.54666666666667</v>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Piratas de Bogota </t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Titanes de Barranquilla</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F276" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="G276" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="H276" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="I276" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="J276" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="K276" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="L276" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="M276" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="N276" t="n">
+        <v>85.75</v>
+      </c>
+      <c r="O276" t="n">
+        <v>76.82199999999999</v>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ciclista Olimpico de La Banda </t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimnasia de Comodoro</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D277" t="n">
+        <v>3</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F277" t="n">
+        <v>19.57142857142857</v>
+      </c>
+      <c r="G277" t="n">
+        <v>18.42857142857143</v>
+      </c>
+      <c r="H277" t="n">
+        <v>20.57142857142857</v>
+      </c>
+      <c r="I277" t="n">
+        <v>21.71428571428572</v>
+      </c>
+      <c r="J277" t="n">
+        <v>18.57142857142857</v>
+      </c>
+      <c r="K277" t="n">
+        <v>18.14285714285714</v>
+      </c>
+      <c r="L277" t="n">
+        <v>22.85714285714286</v>
+      </c>
+      <c r="M277" t="n">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="N277" t="n">
+        <v>82.08285714285715</v>
+      </c>
+      <c r="O277" t="n">
+        <v>76.81142857142858</v>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Chalchuapa United </t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Salvador BC</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F278" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G278" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H278" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="I278" t="n">
+        <v>18.83333333333333</v>
+      </c>
+      <c r="J278" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="K278" t="n">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="L278" t="n">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="M278" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="N278" t="n">
+        <v>73.34333333333335</v>
+      </c>
+      <c r="O278" t="n">
+        <v>63.45333333333334</v>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Las Vegas Aces </t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Phoenix Mercury</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D279" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="E279" t="n">
+        <v>7.800000000000001</v>
+      </c>
+      <c r="F279" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G279" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="H279" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I279" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J279" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="K279" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="L279" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="M279" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="N279" t="n">
+        <v>82.41300000000001</v>
+      </c>
+      <c r="O279" t="n">
+        <v>76.57799999999999</v>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Los Angeles Sparks </t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Washington Mystics</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="F280" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="G280" t="n">
+        <v>22.16666666666667</v>
+      </c>
+      <c r="H280" t="n">
+        <v>23.16666666666667</v>
+      </c>
+      <c r="I280" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J280" t="n">
+        <v>22</v>
+      </c>
+      <c r="K280" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L280" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="M280" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="N280" t="n">
+        <v>86.06</v>
+      </c>
+      <c r="O280" t="n">
+        <v>82.64999999999999</v>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taranaki Mountainairs </t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hawke's Bay Hawks</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D281" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E281" t="n">
+        <v>3.760000000000001</v>
+      </c>
+      <c r="F281" t="n">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="G281" t="n">
+        <v>26</v>
+      </c>
+      <c r="H281" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="I281" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="J281" t="n">
+        <v>25.16666666666667</v>
+      </c>
+      <c r="K281" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="L281" t="n">
+        <v>27</v>
+      </c>
+      <c r="M281" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="N281" t="n">
+        <v>105.9266666666667</v>
+      </c>
+      <c r="O281" t="n">
+        <v>89.81833333333334</v>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryukyu Golden Kings Okinawa </t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chiba Jets Funabashi</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.6999999999999997</v>
+      </c>
+      <c r="F282" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="G282" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="H282" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="I282" t="n">
+        <v>22</v>
+      </c>
+      <c r="J282" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="K282" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="L282" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="M282" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="N282" t="n">
+        <v>73.6125</v>
+      </c>
+      <c r="O282" t="n">
+        <v>72.71250000000001</v>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Zalgiris Kaunas </t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BC Lietkabelis Panevezys</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D283" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E283" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F283" t="n">
+        <v>10</v>
+      </c>
+      <c r="G283" t="n">
+        <v>13</v>
+      </c>
+      <c r="H283" t="n">
+        <v>8</v>
+      </c>
+      <c r="I283" t="n">
+        <v>13</v>
+      </c>
+      <c r="J283" t="n">
+        <v>12</v>
+      </c>
+      <c r="K283" t="n">
+        <v>11</v>
+      </c>
+      <c r="L283" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M283" t="n">
+        <v>10</v>
+      </c>
+      <c r="N283" t="n">
+        <v>84.72</v>
+      </c>
+      <c r="O283" t="n">
+        <v>89.82499999999999</v>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elitzur Kiryat Atta </t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maccabi Ironi Ramat Gan</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F284" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="G284" t="n">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="H284" t="n">
+        <v>15</v>
+      </c>
+      <c r="I284" t="n">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="J284" t="n">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="K284" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="L284" t="n">
+        <v>16</v>
+      </c>
+      <c r="M284" t="n">
+        <v>15.33333333333333</v>
+      </c>
+      <c r="N284" t="n">
+        <v>67.03666666666668</v>
+      </c>
+      <c r="O284" t="n">
+        <v>68.14666666666666</v>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kk Rapla </t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kk Parnu</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D285" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="F285" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G285" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H285" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="I285" t="n">
+        <v>16</v>
+      </c>
+      <c r="J285" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K285" t="n">
+        <v>24</v>
+      </c>
+      <c r="L285" t="n">
+        <v>21</v>
+      </c>
+      <c r="M285" t="n">
+        <v>18</v>
+      </c>
+      <c r="N285" t="n">
+        <v>73.035</v>
+      </c>
+      <c r="O285" t="n">
+        <v>74.12</v>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basketball Nymburk </t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sluneta Usti nad Labem</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D286" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E286" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F286" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="G286" t="n">
+        <v>19</v>
+      </c>
+      <c r="H286" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="I286" t="n">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="J286" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="K286" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="L286" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="M286" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="N286" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="O286" t="n">
+        <v>78.23333333333333</v>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baskets Bonn </t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alba Berlin</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.9299999999999997</v>
+      </c>
+      <c r="F287" t="n">
+        <v>19.15789473684211</v>
+      </c>
+      <c r="G287" t="n">
+        <v>21.84210526315789</v>
+      </c>
+      <c r="H287" t="n">
+        <v>19.26315789473684</v>
+      </c>
+      <c r="I287" t="n">
+        <v>20.78947368421053</v>
+      </c>
+      <c r="J287" t="n">
+        <v>19.15789473684211</v>
+      </c>
+      <c r="K287" t="n">
+        <v>17.15789473684211</v>
+      </c>
+      <c r="L287" t="n">
+        <v>18.84210526315789</v>
+      </c>
+      <c r="M287" t="n">
+        <v>17.52631578947368</v>
+      </c>
+      <c r="N287" t="n">
+        <v>80.82315789473685</v>
+      </c>
+      <c r="O287" t="n">
+        <v>73.82052631578945</v>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phoenix Hagen </t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PS Karlsruhe Lions</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D288" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.8499999999999999</v>
+      </c>
+      <c r="F288" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G288" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="H288" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I288" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J288" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="K288" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="L288" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M288" t="n">
+        <v>18</v>
+      </c>
+      <c r="N288" t="n">
+        <v>84.27499999999999</v>
+      </c>
+      <c r="O288" t="n">
+        <v>81.0975</v>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KK Krka Novo Mesto </t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Helios Domzale</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D289" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F289" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="G289" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="H289" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="I289" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="J289" t="n">
+        <v>26.33333333333333</v>
+      </c>
+      <c r="K289" t="n">
+        <v>18.16666666666667</v>
+      </c>
+      <c r="L289" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="M289" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N289" t="n">
+        <v>81.505</v>
+      </c>
+      <c r="O289" t="n">
+        <v>81.52166666666668</v>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Porto </t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ovarense Basquetebol</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D290" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E290" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F290" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="G290" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="H290" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="I290" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J290" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="K290" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="L290" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="M290" t="n">
+        <v>20</v>
+      </c>
+      <c r="N290" t="n">
+        <v>75.77249999999999</v>
+      </c>
+      <c r="O290" t="n">
+        <v>75.23999999999999</v>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rasta Vechta </t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Niners Chemnitz</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D291" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="F291" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="G291" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="H291" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="I291" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J291" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K291" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="L291" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M291" t="n">
+        <v>22</v>
+      </c>
+      <c r="N291" t="n">
+        <v>83.134</v>
+      </c>
+      <c r="O291" t="n">
+        <v>85.24799999999999</v>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basquet Manresa </t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB Malaga</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F292" t="n">
+        <v>19</v>
+      </c>
+      <c r="G292" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H292" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I292" t="n">
+        <v>28</v>
+      </c>
+      <c r="J292" t="n">
+        <v>16</v>
+      </c>
+      <c r="K292" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L292" t="n">
+        <v>20</v>
+      </c>
+      <c r="M292" t="n">
+        <v>28</v>
+      </c>
+      <c r="N292" t="n">
+        <v>88.16499999999999</v>
+      </c>
+      <c r="O292" t="n">
+        <v>80.05500000000001</v>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paris Basketball </t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cholet Basket</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D293" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="E293" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="F293" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="G293" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H293" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I293" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J293" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K293" t="n">
+        <v>14</v>
+      </c>
+      <c r="L293" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="M293" t="n">
+        <v>14</v>
+      </c>
+      <c r="N293" t="n">
+        <v>73.63499999999999</v>
+      </c>
+      <c r="O293" t="n">
+        <v>81.19500000000001</v>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortitudo Bologna </t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Real Sebastiani Rieti</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D294" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F294" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G294" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="H294" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I294" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="J294" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K294" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L294" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="M294" t="n">
+        <v>17.16666666666667</v>
+      </c>
+      <c r="N294" t="n">
+        <v>74.26333333333334</v>
+      </c>
+      <c r="O294" t="n">
+        <v>72.37833333333333</v>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pallacanestro 2.015 Forli </t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Trieste 2004</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F295" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G295" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H295" t="n">
+        <v>15</v>
+      </c>
+      <c r="I295" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J295" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K295" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L295" t="n">
+        <v>13</v>
+      </c>
+      <c r="M295" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N295" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="O295" t="n">
+        <v>74.97999999999999</v>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pallacanestro Cantu </t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APU Udine</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F296" t="n">
+        <v>21</v>
+      </c>
+      <c r="G296" t="n">
+        <v>15</v>
+      </c>
+      <c r="H296" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="I296" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="J296" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="K296" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="L296" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="M296" t="n">
+        <v>19</v>
+      </c>
+      <c r="N296" t="n">
+        <v>71.80666666666667</v>
+      </c>
+      <c r="O296" t="n">
+        <v>67.29333333333334</v>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Virtus Basket Padova </t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pallacanestro Vicenza</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F297" t="n">
+        <v>22</v>
+      </c>
+      <c r="G297" t="n">
+        <v>19</v>
+      </c>
+      <c r="H297" t="n">
+        <v>20</v>
+      </c>
+      <c r="I297" t="n">
+        <v>14</v>
+      </c>
+      <c r="J297" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="K297" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="L297" t="n">
+        <v>18</v>
+      </c>
+      <c r="M297" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="N297" t="n">
+        <v>75.28799999999998</v>
+      </c>
+      <c r="O297" t="n">
+        <v>68.05199999999999</v>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Libertas Livorno </t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basket Jesi Academy</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D298" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E298" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F298" t="n">
+        <v>17</v>
+      </c>
+      <c r="G298" t="n">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="H298" t="n">
+        <v>18.16666666666667</v>
+      </c>
+      <c r="I298" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J298" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="K298" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="L298" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="M298" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="N298" t="n">
+        <v>79.64999999999999</v>
+      </c>
+      <c r="O298" t="n">
+        <v>64.645</v>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pallacanestro Roseto </t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fabriano Basket</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.9600000000000002</v>
+      </c>
+      <c r="F299" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="G299" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H299" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="I299" t="n">
+        <v>16</v>
+      </c>
+      <c r="J299" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K299" t="n">
+        <v>20</v>
+      </c>
+      <c r="L299" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="M299" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="N299" t="n">
+        <v>64.578</v>
+      </c>
+      <c r="O299" t="n">
+        <v>62.676</v>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PF Schio </t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Umana Venezia</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F300" t="n">
+        <v>22.85714285714286</v>
+      </c>
+      <c r="G300" t="n">
+        <v>24.57142857142857</v>
+      </c>
+      <c r="H300" t="n">
+        <v>22.14285714285714</v>
+      </c>
+      <c r="I300" t="n">
+        <v>18.28571428571428</v>
+      </c>
+      <c r="J300" t="n">
+        <v>14.28571428571429</v>
+      </c>
+      <c r="K300" t="n">
+        <v>19.14285714285714</v>
+      </c>
+      <c r="L300" t="n">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="M300" t="n">
+        <v>18</v>
+      </c>
+      <c r="N300" t="n">
+        <v>81.83714285714287</v>
+      </c>
+      <c r="O300" t="n">
+        <v>70.43999999999998</v>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Talos Ruvo Di Puglia </t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Herons Basket</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F301" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="G301" t="n">
+        <v>19</v>
+      </c>
+      <c r="H301" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="I301" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="J301" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="K301" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="L301" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M301" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="N301" t="n">
+        <v>72.768</v>
+      </c>
+      <c r="O301" t="n">
+        <v>71.34999999999999</v>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sao Jose Dos Campos </t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SC Corinthians SP</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>6</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E302" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="F302" t="n">
+        <v>21</v>
+      </c>
+      <c r="G302" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="H302" t="n">
+        <v>17</v>
+      </c>
+      <c r="I302" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J302" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K302" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="L302" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="M302" t="n">
+        <v>17</v>
+      </c>
+      <c r="N302" t="n">
+        <v>74.89000000000001</v>
+      </c>
+      <c r="O302" t="n">
+        <v>72.95599999999999</v>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aguada </t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Nacional</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D303" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E303" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F303" t="n">
+        <v>21.61538461538462</v>
+      </c>
+      <c r="G303" t="n">
+        <v>19.76923076923077</v>
+      </c>
+      <c r="H303" t="n">
+        <v>19.84615384615385</v>
+      </c>
+      <c r="I303" t="n">
+        <v>17.23076923076923</v>
+      </c>
+      <c r="J303" t="n">
+        <v>21.76923076923077</v>
+      </c>
+      <c r="K303" t="n">
+        <v>22.15384615384615</v>
+      </c>
+      <c r="L303" t="n">
+        <v>21.15384615384615</v>
+      </c>
+      <c r="M303" t="n">
+        <v>17.53846153846154</v>
+      </c>
+      <c r="N303" t="n">
+        <v>81.08</v>
+      </c>
+      <c r="O303" t="n">
+        <v>80.91769230769231</v>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bauru Basket SP </t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>3</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F304" t="n">
+        <v>17.28571428571428</v>
+      </c>
+      <c r="G304" t="n">
+        <v>18</v>
+      </c>
+      <c r="H304" t="n">
+        <v>24</v>
+      </c>
+      <c r="I304" t="n">
+        <v>19.57142857142857</v>
+      </c>
+      <c r="J304" t="n">
+        <v>18</v>
+      </c>
+      <c r="K304" t="n">
+        <v>16</v>
+      </c>
+      <c r="L304" t="n">
+        <v>18.85714285714286</v>
+      </c>
+      <c r="M304" t="n">
+        <v>20.71428571428572</v>
+      </c>
+      <c r="N304" t="n">
+        <v>79.60428571428572</v>
+      </c>
+      <c r="O304" t="n">
+        <v>71.23714285714286</v>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santo Andre/Apaba </t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vera Cruz Campinas</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F305" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="G305" t="n">
+        <v>15.33333333333333</v>
+      </c>
+      <c r="H305" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="I305" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="J305" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="K305" t="n">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="L305" t="n">
+        <v>18</v>
+      </c>
+      <c r="M305" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="N305" t="n">
+        <v>61.25</v>
+      </c>
+      <c r="O305" t="n">
+        <v>66.06666666666666</v>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>pending</t>
         </is>
       </c>
     </row>

--- a/ml_bb.xlsx
+++ b/ml_bb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P305"/>
+  <dimension ref="A1:P289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15358,2184 +15358,1288 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cocodrilos de Caracas </t>
+          <t xml:space="preserve">Ryukyu Golden Kings Okinawa </t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diablos de Miranda</t>
+          <t xml:space="preserve"> Chiba Jets Funabashi</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1.17</v>
+        <v>2.3</v>
       </c>
       <c r="D267" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="E267" t="n">
-        <v>3.03</v>
+        <v>0.6999999999999997</v>
       </c>
       <c r="F267" t="n">
-        <v>22.6</v>
+        <v>19.25</v>
       </c>
       <c r="G267" t="n">
-        <v>14.6</v>
+        <v>24.25</v>
       </c>
       <c r="H267" t="n">
-        <v>18.2</v>
+        <v>15.25</v>
       </c>
       <c r="I267" t="n">
-        <v>14.4</v>
+        <v>22</v>
       </c>
       <c r="J267" t="n">
-        <v>23.6</v>
+        <v>13.25</v>
       </c>
       <c r="K267" t="n">
-        <v>15.2</v>
+        <v>21.25</v>
       </c>
       <c r="L267" t="n">
-        <v>22.2</v>
+        <v>16.25</v>
       </c>
       <c r="M267" t="n">
-        <v>16.6</v>
+        <v>21.25</v>
       </c>
       <c r="N267" t="n">
-        <v>72.28587878787877</v>
+        <v>73.6125</v>
       </c>
       <c r="O267" t="n">
-        <v>78.69785238095237</v>
+        <v>72.71250000000001</v>
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Llaneros de Guarico </t>
+          <t xml:space="preserve">BC Zalgiris Kaunas </t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Broncos De Caracas</t>
+          <t xml:space="preserve"> BC Lietkabelis Panevezys</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2.25</v>
+        <v>1.11</v>
       </c>
       <c r="D268" t="n">
-        <v>1.56</v>
+        <v>6.2</v>
       </c>
       <c r="E268" t="n">
-        <v>0.6899999999999999</v>
+        <v>5.09</v>
       </c>
       <c r="F268" t="n">
-        <v>12.875</v>
+        <v>10</v>
       </c>
       <c r="G268" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="H268" t="n">
-        <v>12.25</v>
+        <v>8</v>
       </c>
       <c r="I268" t="n">
-        <v>9.375</v>
+        <v>13</v>
       </c>
       <c r="J268" t="n">
-        <v>8.875</v>
+        <v>12</v>
       </c>
       <c r="K268" t="n">
-        <v>11.625</v>
+        <v>11</v>
       </c>
       <c r="L268" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="M268" t="n">
-        <v>10.625</v>
+        <v>10</v>
       </c>
       <c r="N268" t="n">
-        <v>74.32715750334225</v>
+        <v>84.72</v>
       </c>
       <c r="O268" t="n">
-        <v>72.52518729065054</v>
+        <v>89.82499999999999</v>
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Panteras De Miranda </t>
+          <t xml:space="preserve">Elitzur Kiryat Atta </t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Centauros de Portuguesa</t>
+          <t xml:space="preserve"> Maccabi Ironi Ramat Gan</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
       <c r="D269" t="n">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="E269" t="n">
-        <v>0.2</v>
+        <v>0.5500000000000003</v>
       </c>
       <c r="F269" t="n">
-        <v>18.625</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="G269" t="n">
-        <v>16.25</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="H269" t="n">
-        <v>19.375</v>
+        <v>15</v>
       </c>
       <c r="I269" t="n">
-        <v>15.125</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="J269" t="n">
-        <v>21.875</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="K269" t="n">
-        <v>17.125</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="L269" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="M269" t="n">
-        <v>18.75</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="N269" t="n">
-        <v>72.08115214646465</v>
+        <v>67.03666666666668</v>
       </c>
       <c r="O269" t="n">
-        <v>74.20677985209235</v>
+        <v>68.14666666666666</v>
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atlanta Dream </t>
+          <t xml:space="preserve">Kk Rapla </t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dallas Wings</t>
+          <t xml:space="preserve"> Kk Parnu</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="D270" t="n">
-        <v>2.94</v>
+        <v>2.25</v>
       </c>
       <c r="E270" t="n">
-        <v>1.51</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="F270" t="n">
-        <v>21.66666666666667</v>
+        <v>16.5</v>
       </c>
       <c r="G270" t="n">
-        <v>19</v>
+        <v>21.5</v>
       </c>
       <c r="H270" t="n">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="I270" t="n">
+        <v>16</v>
+      </c>
+      <c r="J270" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K270" t="n">
+        <v>24</v>
+      </c>
+      <c r="L270" t="n">
         <v>21</v>
       </c>
-      <c r="J270" t="n">
-        <v>22.66666666666667</v>
-      </c>
-      <c r="K270" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L270" t="n">
-        <v>18.5</v>
-      </c>
       <c r="M270" t="n">
-        <v>21.33333333333333</v>
+        <v>18</v>
       </c>
       <c r="N270" t="n">
-        <v>87.10833333333335</v>
+        <v>73.035</v>
       </c>
       <c r="O270" t="n">
-        <v>86.30166666666666</v>
+        <v>74.12</v>
       </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trotamundos de Carabobo </t>
+          <t xml:space="preserve">Basketball Nymburk </t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taurinos de Aragua</t>
+          <t xml:space="preserve"> Sluneta Usti nad Labem</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="D271" t="n">
-        <v>3.9</v>
+        <v>7.75</v>
       </c>
       <c r="E271" t="n">
-        <v>2.7</v>
+        <v>6.68</v>
       </c>
       <c r="F271" t="n">
-        <v>22.25</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="G271" t="n">
-        <v>17.125</v>
+        <v>19</v>
       </c>
       <c r="H271" t="n">
-        <v>20.125</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="I271" t="n">
-        <v>20.875</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="J271" t="n">
-        <v>15.25</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="K271" t="n">
-        <v>20.875</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="L271" t="n">
-        <v>20.5</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="M271" t="n">
-        <v>22.625</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="N271" t="n">
-        <v>78.20750000000001</v>
+        <v>80.25</v>
       </c>
       <c r="O271" t="n">
-        <v>76.46143749999999</v>
+        <v>78.23333333333333</v>
       </c>
       <c r="P271" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boston Celtics </t>
+          <t xml:space="preserve">Baskets Bonn </t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indiana Pacers</t>
+          <t xml:space="preserve"> Alba Berlin</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1.23</v>
+        <v>2.53</v>
       </c>
       <c r="D272" t="n">
-        <v>4.77</v>
+        <v>1.6</v>
       </c>
       <c r="E272" t="n">
-        <v>3.54</v>
+        <v>0.9299999999999997</v>
       </c>
       <c r="F272" t="n">
-        <v>34.75</v>
+        <v>19.15789473684211</v>
       </c>
       <c r="G272" t="n">
-        <v>30</v>
+        <v>21.84210526315789</v>
       </c>
       <c r="H272" t="n">
-        <v>31</v>
+        <v>19.26315789473684</v>
       </c>
       <c r="I272" t="n">
-        <v>30.75</v>
+        <v>20.78947368421053</v>
       </c>
       <c r="J272" t="n">
-        <v>32</v>
+        <v>19.15789473684211</v>
       </c>
       <c r="K272" t="n">
-        <v>31.25</v>
+        <v>17.15789473684211</v>
       </c>
       <c r="L272" t="n">
-        <v>25</v>
+        <v>18.84210526315789</v>
       </c>
       <c r="M272" t="n">
-        <v>25.25</v>
+        <v>17.52631578947368</v>
       </c>
       <c r="N272" t="n">
-        <v>112.4425</v>
+        <v>80.82315789473685</v>
       </c>
       <c r="O272" t="n">
-        <v>107.0275</v>
+        <v>73.82052631578945</v>
       </c>
       <c r="P272" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Independiente de Oliva </t>
+          <t xml:space="preserve">Phoenix Hagen </t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA Platense</t>
+          <t xml:space="preserve"> PS Karlsruhe Lions</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="D273" t="n">
-        <v>1.87</v>
+        <v>2.4</v>
       </c>
       <c r="E273" t="n">
-        <v>0.0299999999999998</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="F273" t="n">
-        <v>17.88888888888889</v>
+        <v>15.5</v>
       </c>
       <c r="G273" t="n">
-        <v>22</v>
+        <v>26.25</v>
       </c>
       <c r="H273" t="n">
-        <v>18.88888888888889</v>
+        <v>19.5</v>
       </c>
       <c r="I273" t="n">
-        <v>18.44444444444444</v>
+        <v>22.5</v>
       </c>
       <c r="J273" t="n">
-        <v>15.33333333333333</v>
+        <v>19.75</v>
       </c>
       <c r="K273" t="n">
-        <v>18.11111111111111</v>
+        <v>16.75</v>
       </c>
       <c r="L273" t="n">
-        <v>19.66666666666667</v>
+        <v>20.5</v>
       </c>
       <c r="M273" t="n">
-        <v>16.22222222222222</v>
+        <v>18</v>
       </c>
       <c r="N273" t="n">
-        <v>75.03222222222222</v>
+        <v>84.27499999999999</v>
       </c>
       <c r="O273" t="n">
-        <v>69.52888888888889</v>
+        <v>81.0975</v>
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Union Formosa </t>
+          <t xml:space="preserve">KK Krka Novo Mesto </t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Obras Sanitarias</t>
+          <t xml:space="preserve"> Helios Domzale</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1.97</v>
+        <v>1.42</v>
       </c>
       <c r="D274" t="n">
-        <v>1.8</v>
+        <v>2.65</v>
       </c>
       <c r="E274" t="n">
-        <v>0.1699999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="F274" t="n">
-        <v>21.66666666666667</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="G274" t="n">
-        <v>17.33333333333333</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="H274" t="n">
-        <v>17.83333333333333</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="I274" t="n">
-        <v>18.33333333333333</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="J274" t="n">
-        <v>16.5</v>
+        <v>26.33333333333333</v>
       </c>
       <c r="K274" t="n">
-        <v>17.83333333333333</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="L274" t="n">
-        <v>17.5</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="M274" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="N274" t="n">
-        <v>76.65166666666666</v>
+        <v>81.505</v>
       </c>
       <c r="O274" t="n">
-        <v>69.58499999999999</v>
+        <v>81.52166666666668</v>
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Penarol </t>
+          <t xml:space="preserve">FC Porto </t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Defensor Sporting</t>
+          <t xml:space="preserve"> Ovarense Basquetebol</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="D275" t="n">
-        <v>3.5</v>
+        <v>7.4</v>
       </c>
       <c r="E275" t="n">
-        <v>2.24</v>
+        <v>6.32</v>
       </c>
       <c r="F275" t="n">
-        <v>18</v>
+        <v>19.75</v>
       </c>
       <c r="G275" t="n">
-        <v>20.83333333333333</v>
+        <v>16.75</v>
       </c>
       <c r="H275" t="n">
-        <v>26.83333333333333</v>
+        <v>20.75</v>
       </c>
       <c r="I275" t="n">
-        <v>18.33333333333333</v>
+        <v>19.5</v>
       </c>
       <c r="J275" t="n">
-        <v>20.66666666666667</v>
+        <v>17.75</v>
       </c>
       <c r="K275" t="n">
-        <v>21</v>
+        <v>19.25</v>
       </c>
       <c r="L275" t="n">
-        <v>21</v>
+        <v>14.25</v>
       </c>
       <c r="M275" t="n">
-        <v>18.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="N275" t="n">
-        <v>83.33833333333332</v>
+        <v>75.77249999999999</v>
       </c>
       <c r="O275" t="n">
-        <v>80.54666666666667</v>
+        <v>75.23999999999999</v>
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Piratas de Bogota </t>
+          <t xml:space="preserve">Rasta Vechta </t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Titanes de Barranquilla</t>
+          <t xml:space="preserve"> Niners Chemnitz</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1.45</v>
+        <v>1.89</v>
       </c>
       <c r="D276" t="n">
-        <v>2.5</v>
+        <v>2.03</v>
       </c>
       <c r="E276" t="n">
-        <v>1.05</v>
+        <v>0.1399999999999999</v>
       </c>
       <c r="F276" t="n">
-        <v>22.8</v>
+        <v>19.8</v>
       </c>
       <c r="G276" t="n">
-        <v>18.9</v>
+        <v>24.8</v>
       </c>
       <c r="H276" t="n">
-        <v>23.3</v>
+        <v>17.4</v>
       </c>
       <c r="I276" t="n">
-        <v>21.4</v>
+        <v>23.6</v>
       </c>
       <c r="J276" t="n">
-        <v>19.7</v>
+        <v>22.4</v>
       </c>
       <c r="K276" t="n">
-        <v>19.9</v>
+        <v>22.2</v>
       </c>
       <c r="L276" t="n">
-        <v>18.9</v>
+        <v>20.6</v>
       </c>
       <c r="M276" t="n">
-        <v>19.2</v>
+        <v>22</v>
       </c>
       <c r="N276" t="n">
-        <v>85.75</v>
+        <v>83.134</v>
       </c>
       <c r="O276" t="n">
-        <v>76.82199999999999</v>
+        <v>85.24799999999999</v>
       </c>
       <c r="P276" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ciclista Olimpico de La Banda </t>
+          <t xml:space="preserve">Basquet Manresa </t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gimnasia de Comodoro</t>
+          <t xml:space="preserve"> CB Malaga</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1.38</v>
+        <v>2.74</v>
       </c>
       <c r="D277" t="n">
-        <v>3</v>
+        <v>1.53</v>
       </c>
       <c r="E277" t="n">
-        <v>1.62</v>
+        <v>1.21</v>
       </c>
       <c r="F277" t="n">
-        <v>19.57142857142857</v>
+        <v>19</v>
       </c>
       <c r="G277" t="n">
-        <v>18.42857142857143</v>
+        <v>18.5</v>
       </c>
       <c r="H277" t="n">
-        <v>20.57142857142857</v>
+        <v>16.5</v>
       </c>
       <c r="I277" t="n">
-        <v>21.71428571428572</v>
+        <v>28</v>
       </c>
       <c r="J277" t="n">
-        <v>18.57142857142857</v>
+        <v>16</v>
       </c>
       <c r="K277" t="n">
-        <v>18.14285714285714</v>
+        <v>19.5</v>
       </c>
       <c r="L277" t="n">
-        <v>22.85714285714286</v>
+        <v>20</v>
       </c>
       <c r="M277" t="n">
-        <v>20.14285714285714</v>
+        <v>28</v>
       </c>
       <c r="N277" t="n">
-        <v>82.08285714285715</v>
+        <v>88.16499999999999</v>
       </c>
       <c r="O277" t="n">
-        <v>76.81142857142858</v>
+        <v>80.05500000000001</v>
       </c>
       <c r="P277" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t xml:space="preserve">BC Chalchuapa United </t>
+          <t xml:space="preserve">Paris Basketball </t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> San Salvador BC</t>
+          <t xml:space="preserve"> Cholet Basket</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>2.25</v>
+        <v>1.09</v>
       </c>
       <c r="D278" t="n">
-        <v>1.55</v>
+        <v>9.93</v>
       </c>
       <c r="E278" t="n">
-        <v>0.7</v>
+        <v>8.84</v>
       </c>
       <c r="F278" t="n">
-        <v>19.5</v>
+        <v>13.75</v>
       </c>
       <c r="G278" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="H278" t="n">
-        <v>19.33333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="I278" t="n">
-        <v>18.83333333333333</v>
+        <v>13.5</v>
       </c>
       <c r="J278" t="n">
-        <v>19.33333333333333</v>
+        <v>15.5</v>
       </c>
       <c r="K278" t="n">
-        <v>14.33333333333333</v>
+        <v>14</v>
       </c>
       <c r="L278" t="n">
-        <v>16.16666666666667</v>
+        <v>14.5</v>
       </c>
       <c r="M278" t="n">
-        <v>14.66666666666667</v>
+        <v>14</v>
       </c>
       <c r="N278" t="n">
-        <v>73.34333333333335</v>
+        <v>73.63499999999999</v>
       </c>
       <c r="O278" t="n">
-        <v>63.45333333333334</v>
+        <v>81.19500000000001</v>
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las Vegas Aces </t>
+          <t xml:space="preserve">Fortitudo Bologna </t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Phoenix Mercury</t>
+          <t xml:space="preserve"> Real Sebastiani Rieti</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="D279" t="n">
-        <v>8.880000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="E279" t="n">
-        <v>7.800000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="F279" t="n">
-        <v>19.7</v>
+        <v>17.5</v>
       </c>
       <c r="G279" t="n">
-        <v>18.8</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="H279" t="n">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="I279" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="J279" t="n">
         <v>21.5</v>
       </c>
-      <c r="J279" t="n">
-        <v>18.3</v>
-      </c>
       <c r="K279" t="n">
-        <v>17.9</v>
+        <v>16.5</v>
       </c>
       <c r="L279" t="n">
-        <v>16.8</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="M279" t="n">
-        <v>20.9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="N279" t="n">
-        <v>82.41300000000001</v>
+        <v>74.26333333333334</v>
       </c>
       <c r="O279" t="n">
-        <v>76.57799999999999</v>
+        <v>72.37833333333333</v>
       </c>
       <c r="P279" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los Angeles Sparks </t>
+          <t xml:space="preserve">Pallacanestro 2.015 Forli </t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Washington Mystics</t>
+          <t xml:space="preserve"> Trieste 2004</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="D280" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="E280" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="F280" t="n">
-        <v>22.33333333333333</v>
+        <v>19.5</v>
       </c>
       <c r="G280" t="n">
-        <v>22.16666666666667</v>
+        <v>15.5</v>
       </c>
       <c r="H280" t="n">
-        <v>23.16666666666667</v>
+        <v>15</v>
       </c>
       <c r="I280" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J280" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K280" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L280" t="n">
+        <v>13</v>
+      </c>
+      <c r="M280" t="n">
         <v>17.5</v>
       </c>
-      <c r="J280" t="n">
-        <v>22</v>
-      </c>
-      <c r="K280" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="L280" t="n">
-        <v>20.83333333333333</v>
-      </c>
-      <c r="M280" t="n">
-        <v>19.5</v>
-      </c>
       <c r="N280" t="n">
-        <v>86.06</v>
+        <v>67.47</v>
       </c>
       <c r="O280" t="n">
-        <v>82.64999999999999</v>
+        <v>74.97999999999999</v>
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taranaki Mountainairs </t>
+          <t xml:space="preserve">Pallacanestro Cantu </t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hawke's Bay Hawks</t>
+          <t xml:space="preserve"> APU Udine</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="D281" t="n">
-        <v>4.9</v>
+        <v>2.75</v>
       </c>
       <c r="E281" t="n">
-        <v>3.760000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="F281" t="n">
-        <v>23.83333333333333</v>
+        <v>21</v>
       </c>
       <c r="G281" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H281" t="n">
-        <v>23.66666666666667</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="I281" t="n">
-        <v>26.66666666666667</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="J281" t="n">
-        <v>25.16666666666667</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="K281" t="n">
-        <v>25.33333333333333</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="L281" t="n">
-        <v>27</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="M281" t="n">
-        <v>18.66666666666667</v>
+        <v>19</v>
       </c>
       <c r="N281" t="n">
-        <v>105.9266666666667</v>
+        <v>71.80666666666667</v>
       </c>
       <c r="O281" t="n">
-        <v>89.81833333333334</v>
+        <v>67.29333333333334</v>
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ryukyu Golden Kings Okinawa </t>
+          <t xml:space="preserve">Virtus Basket Padova </t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chiba Jets Funabashi</t>
+          <t xml:space="preserve"> Pallacanestro Vicenza</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="D282" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="E282" t="n">
-        <v>0.6999999999999997</v>
+        <v>0.4500000000000002</v>
       </c>
       <c r="F282" t="n">
-        <v>19.25</v>
+        <v>22</v>
       </c>
       <c r="G282" t="n">
-        <v>24.25</v>
+        <v>19</v>
       </c>
       <c r="H282" t="n">
-        <v>15.25</v>
+        <v>20</v>
       </c>
       <c r="I282" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J282" t="n">
-        <v>13.25</v>
+        <v>13.8</v>
       </c>
       <c r="K282" t="n">
-        <v>21.25</v>
+        <v>18.2</v>
       </c>
       <c r="L282" t="n">
-        <v>16.25</v>
+        <v>18</v>
       </c>
       <c r="M282" t="n">
-        <v>21.25</v>
+        <v>21.8</v>
       </c>
       <c r="N282" t="n">
-        <v>73.6125</v>
+        <v>75.28799999999998</v>
       </c>
       <c r="O282" t="n">
-        <v>72.71250000000001</v>
+        <v>68.05199999999999</v>
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t xml:space="preserve">BC Zalgiris Kaunas </t>
+          <t xml:space="preserve">Libertas Livorno </t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BC Lietkabelis Panevezys</t>
+          <t xml:space="preserve"> Basket Jesi Academy</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="D283" t="n">
-        <v>6.2</v>
+        <v>3.75</v>
       </c>
       <c r="E283" t="n">
-        <v>5.09</v>
+        <v>2.52</v>
       </c>
       <c r="F283" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G283" t="n">
-        <v>13</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="H283" t="n">
-        <v>8</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="I283" t="n">
-        <v>13</v>
+        <v>21.5</v>
       </c>
       <c r="J283" t="n">
-        <v>12</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="K283" t="n">
-        <v>11</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="L283" t="n">
-        <v>11.5</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="M283" t="n">
-        <v>10</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="N283" t="n">
-        <v>84.72</v>
+        <v>79.64999999999999</v>
       </c>
       <c r="O283" t="n">
-        <v>89.82499999999999</v>
+        <v>64.645</v>
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elitzur Kiryat Atta </t>
+          <t xml:space="preserve">Pallacanestro Roseto </t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maccabi Ironi Ramat Gan</t>
+          <t xml:space="preserve"> Fabriano Basket</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2.2</v>
+        <v>1.49</v>
       </c>
       <c r="D284" t="n">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="E284" t="n">
-        <v>0.5500000000000003</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="F284" t="n">
-        <v>15.66666666666667</v>
+        <v>17.4</v>
       </c>
       <c r="G284" t="n">
-        <v>10.66666666666667</v>
+        <v>15.2</v>
       </c>
       <c r="H284" t="n">
-        <v>15</v>
+        <v>17.6</v>
       </c>
       <c r="I284" t="n">
-        <v>14.33333333333333</v>
+        <v>16</v>
       </c>
       <c r="J284" t="n">
-        <v>12.33333333333333</v>
+        <v>12.2</v>
       </c>
       <c r="K284" t="n">
-        <v>13.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="L284" t="n">
-        <v>16</v>
+        <v>18.2</v>
       </c>
       <c r="M284" t="n">
-        <v>15.33333333333333</v>
+        <v>17.2</v>
       </c>
       <c r="N284" t="n">
-        <v>67.03666666666668</v>
+        <v>64.578</v>
       </c>
       <c r="O284" t="n">
-        <v>68.14666666666666</v>
+        <v>62.676</v>
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kk Rapla </t>
+          <t xml:space="preserve">PF Schio </t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kk Parnu</t>
+          <t xml:space="preserve"> Umana Venezia</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="D285" t="n">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="E285" t="n">
-        <v>0.6699999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="F285" t="n">
-        <v>16.5</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="G285" t="n">
-        <v>21.5</v>
+        <v>24.57142857142857</v>
       </c>
       <c r="H285" t="n">
-        <v>21.5</v>
+        <v>22.14285714285714</v>
       </c>
       <c r="I285" t="n">
-        <v>16</v>
+        <v>18.28571428571428</v>
       </c>
       <c r="J285" t="n">
-        <v>13.5</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="K285" t="n">
-        <v>24</v>
+        <v>19.14285714285714</v>
       </c>
       <c r="L285" t="n">
-        <v>21</v>
+        <v>14.85714285714286</v>
       </c>
       <c r="M285" t="n">
         <v>18</v>
       </c>
       <c r="N285" t="n">
-        <v>73.035</v>
+        <v>81.83714285714287</v>
       </c>
       <c r="O285" t="n">
-        <v>74.12</v>
+        <v>70.43999999999998</v>
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Basketball Nymburk </t>
+          <t xml:space="preserve">Talos Ruvo Di Puglia </t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sluneta Usti nad Labem</t>
+          <t xml:space="preserve"> Herons Basket</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="D286" t="n">
-        <v>7.75</v>
+        <v>2.8</v>
       </c>
       <c r="E286" t="n">
-        <v>6.68</v>
+        <v>1.42</v>
       </c>
       <c r="F286" t="n">
-        <v>18.66666666666667</v>
+        <v>17.6</v>
       </c>
       <c r="G286" t="n">
         <v>19</v>
       </c>
       <c r="H286" t="n">
-        <v>19.33333333333333</v>
+        <v>17.2</v>
       </c>
       <c r="I286" t="n">
-        <v>24.33333333333333</v>
+        <v>19.8</v>
       </c>
       <c r="J286" t="n">
-        <v>21.66666666666667</v>
+        <v>17.4</v>
       </c>
       <c r="K286" t="n">
-        <v>20.66666666666667</v>
+        <v>18.2</v>
       </c>
       <c r="L286" t="n">
-        <v>22.33333333333333</v>
+        <v>15.8</v>
       </c>
       <c r="M286" t="n">
-        <v>14.66666666666667</v>
+        <v>16.6</v>
       </c>
       <c r="N286" t="n">
-        <v>80.25</v>
+        <v>72.768</v>
       </c>
       <c r="O286" t="n">
-        <v>78.23333333333333</v>
+        <v>71.34999999999999</v>
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baskets Bonn </t>
+          <t xml:space="preserve">Sao Jose Dos Campos </t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alba Berlin</t>
+          <t xml:space="preserve"> SC Corinthians SP</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>2.53</v>
+        <v>6</v>
       </c>
       <c r="D287" t="n">
-        <v>1.6</v>
+        <v>1.08</v>
       </c>
       <c r="E287" t="n">
-        <v>0.9299999999999997</v>
+        <v>4.92</v>
       </c>
       <c r="F287" t="n">
-        <v>19.15789473684211</v>
+        <v>21</v>
       </c>
       <c r="G287" t="n">
-        <v>21.84210526315789</v>
+        <v>21.8</v>
       </c>
       <c r="H287" t="n">
-        <v>19.26315789473684</v>
+        <v>17</v>
       </c>
       <c r="I287" t="n">
-        <v>20.78947368421053</v>
+        <v>15.8</v>
       </c>
       <c r="J287" t="n">
-        <v>19.15789473684211</v>
+        <v>21.2</v>
       </c>
       <c r="K287" t="n">
-        <v>17.15789473684211</v>
+        <v>19.6</v>
       </c>
       <c r="L287" t="n">
-        <v>18.84210526315789</v>
+        <v>17.8</v>
       </c>
       <c r="M287" t="n">
-        <v>17.52631578947368</v>
+        <v>17</v>
       </c>
       <c r="N287" t="n">
-        <v>80.82315789473685</v>
+        <v>74.89000000000001</v>
       </c>
       <c r="O287" t="n">
-        <v>73.82052631578945</v>
+        <v>72.95599999999999</v>
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phoenix Hagen </t>
+          <t xml:space="preserve">Bauru Basket SP </t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PS Karlsruhe Lions</t>
+          <t xml:space="preserve"> Flamengo RJ</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="D288" t="n">
-        <v>2.4</v>
+        <v>1.38</v>
       </c>
       <c r="E288" t="n">
-        <v>0.8499999999999999</v>
+        <v>1.62</v>
       </c>
       <c r="F288" t="n">
-        <v>15.5</v>
+        <v>17.28571428571428</v>
       </c>
       <c r="G288" t="n">
-        <v>26.25</v>
+        <v>18</v>
       </c>
       <c r="H288" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="I288" t="n">
-        <v>22.5</v>
+        <v>19.57142857142857</v>
       </c>
       <c r="J288" t="n">
-        <v>19.75</v>
+        <v>18</v>
       </c>
       <c r="K288" t="n">
-        <v>16.75</v>
+        <v>16</v>
       </c>
       <c r="L288" t="n">
-        <v>20.5</v>
+        <v>18.85714285714286</v>
       </c>
       <c r="M288" t="n">
-        <v>18</v>
+        <v>20.71428571428572</v>
       </c>
       <c r="N288" t="n">
-        <v>84.27499999999999</v>
+        <v>79.60428571428572</v>
       </c>
       <c r="O288" t="n">
-        <v>81.0975</v>
+        <v>71.23714285714286</v>
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t xml:space="preserve">KK Krka Novo Mesto </t>
+          <t xml:space="preserve">Santo Andre/Apaba </t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Helios Domzale</t>
+          <t xml:space="preserve"> Vera Cruz Campinas</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="D289" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="E289" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="F289" t="n">
-        <v>20.83333333333333</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="G289" t="n">
-        <v>18.66666666666667</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="H289" t="n">
-        <v>20.83333333333333</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I289" t="n">
-        <v>19.66666666666667</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="J289" t="n">
-        <v>26.33333333333333</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="K289" t="n">
-        <v>18.16666666666667</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="L289" t="n">
-        <v>22.33333333333333</v>
+        <v>18</v>
       </c>
       <c r="M289" t="n">
-        <v>18.5</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="N289" t="n">
-        <v>81.505</v>
+        <v>61.25</v>
       </c>
       <c r="O289" t="n">
-        <v>81.52166666666668</v>
+        <v>66.06666666666666</v>
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FC Porto </t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ovarense Basquetebol</t>
-        </is>
-      </c>
-      <c r="C290" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="D290" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E290" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="F290" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="G290" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="H290" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="I290" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J290" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="K290" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="L290" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="M290" t="n">
-        <v>20</v>
-      </c>
-      <c r="N290" t="n">
-        <v>75.77249999999999</v>
-      </c>
-      <c r="O290" t="n">
-        <v>75.23999999999999</v>
-      </c>
-      <c r="P290" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rasta Vechta </t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Niners Chemnitz</t>
-        </is>
-      </c>
-      <c r="C291" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D291" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="E291" t="n">
-        <v>0.1399999999999999</v>
-      </c>
-      <c r="F291" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="G291" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="H291" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="I291" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J291" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K291" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="L291" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="M291" t="n">
-        <v>22</v>
-      </c>
-      <c r="N291" t="n">
-        <v>83.134</v>
-      </c>
-      <c r="O291" t="n">
-        <v>85.24799999999999</v>
-      </c>
-      <c r="P291" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Basquet Manresa </t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CB Malaga</t>
-        </is>
-      </c>
-      <c r="C292" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="D292" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="E292" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="F292" t="n">
-        <v>19</v>
-      </c>
-      <c r="G292" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="H292" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="I292" t="n">
-        <v>28</v>
-      </c>
-      <c r="J292" t="n">
-        <v>16</v>
-      </c>
-      <c r="K292" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="L292" t="n">
-        <v>20</v>
-      </c>
-      <c r="M292" t="n">
-        <v>28</v>
-      </c>
-      <c r="N292" t="n">
-        <v>88.16499999999999</v>
-      </c>
-      <c r="O292" t="n">
-        <v>80.05500000000001</v>
-      </c>
-      <c r="P292" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paris Basketball </t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cholet Basket</t>
-        </is>
-      </c>
-      <c r="C293" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="D293" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="E293" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="F293" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="G293" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H293" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="I293" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J293" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K293" t="n">
-        <v>14</v>
-      </c>
-      <c r="L293" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="M293" t="n">
-        <v>14</v>
-      </c>
-      <c r="N293" t="n">
-        <v>73.63499999999999</v>
-      </c>
-      <c r="O293" t="n">
-        <v>81.19500000000001</v>
-      </c>
-      <c r="P293" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fortitudo Bologna </t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Real Sebastiani Rieti</t>
-        </is>
-      </c>
-      <c r="C294" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="D294" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="E294" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="F294" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="G294" t="n">
-        <v>16.66666666666667</v>
-      </c>
-      <c r="H294" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="I294" t="n">
-        <v>19.83333333333333</v>
-      </c>
-      <c r="J294" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K294" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L294" t="n">
-        <v>20.83333333333333</v>
-      </c>
-      <c r="M294" t="n">
-        <v>17.16666666666667</v>
-      </c>
-      <c r="N294" t="n">
-        <v>74.26333333333334</v>
-      </c>
-      <c r="O294" t="n">
-        <v>72.37833333333333</v>
-      </c>
-      <c r="P294" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pallacanestro 2.015 Forli </t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Trieste 2004</t>
-        </is>
-      </c>
-      <c r="C295" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="D295" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E295" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F295" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="G295" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H295" t="n">
-        <v>15</v>
-      </c>
-      <c r="I295" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J295" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K295" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L295" t="n">
-        <v>13</v>
-      </c>
-      <c r="M295" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="N295" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="O295" t="n">
-        <v>74.97999999999999</v>
-      </c>
-      <c r="P295" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pallacanestro Cantu </t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> APU Udine</t>
-        </is>
-      </c>
-      <c r="C296" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="D296" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="E296" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="F296" t="n">
-        <v>21</v>
-      </c>
-      <c r="G296" t="n">
-        <v>15</v>
-      </c>
-      <c r="H296" t="n">
-        <v>18.66666666666667</v>
-      </c>
-      <c r="I296" t="n">
-        <v>20.66666666666667</v>
-      </c>
-      <c r="J296" t="n">
-        <v>19.33333333333333</v>
-      </c>
-      <c r="K296" t="n">
-        <v>18.33333333333333</v>
-      </c>
-      <c r="L296" t="n">
-        <v>18.33333333333333</v>
-      </c>
-      <c r="M296" t="n">
-        <v>19</v>
-      </c>
-      <c r="N296" t="n">
-        <v>71.80666666666667</v>
-      </c>
-      <c r="O296" t="n">
-        <v>67.29333333333334</v>
-      </c>
-      <c r="P296" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Virtus Basket Padova </t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Pallacanestro Vicenza</t>
-        </is>
-      </c>
-      <c r="C297" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="D297" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E297" t="n">
-        <v>0.4500000000000002</v>
-      </c>
-      <c r="F297" t="n">
-        <v>22</v>
-      </c>
-      <c r="G297" t="n">
-        <v>19</v>
-      </c>
-      <c r="H297" t="n">
-        <v>20</v>
-      </c>
-      <c r="I297" t="n">
-        <v>14</v>
-      </c>
-      <c r="J297" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K297" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L297" t="n">
-        <v>18</v>
-      </c>
-      <c r="M297" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="N297" t="n">
-        <v>75.28799999999998</v>
-      </c>
-      <c r="O297" t="n">
-        <v>68.05199999999999</v>
-      </c>
-      <c r="P297" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Libertas Livorno </t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Basket Jesi Academy</t>
-        </is>
-      </c>
-      <c r="C298" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="D298" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="E298" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="F298" t="n">
-        <v>17</v>
-      </c>
-      <c r="G298" t="n">
-        <v>20.16666666666667</v>
-      </c>
-      <c r="H298" t="n">
-        <v>18.16666666666667</v>
-      </c>
-      <c r="I298" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J298" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="K298" t="n">
-        <v>13.66666666666667</v>
-      </c>
-      <c r="L298" t="n">
-        <v>17.66666666666667</v>
-      </c>
-      <c r="M298" t="n">
-        <v>17.33333333333333</v>
-      </c>
-      <c r="N298" t="n">
-        <v>79.64999999999999</v>
-      </c>
-      <c r="O298" t="n">
-        <v>64.645</v>
-      </c>
-      <c r="P298" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pallacanestro Roseto </t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fabriano Basket</t>
-        </is>
-      </c>
-      <c r="C299" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="D299" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="E299" t="n">
-        <v>0.9600000000000002</v>
-      </c>
-      <c r="F299" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="G299" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H299" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="I299" t="n">
-        <v>16</v>
-      </c>
-      <c r="J299" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K299" t="n">
-        <v>20</v>
-      </c>
-      <c r="L299" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="M299" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="N299" t="n">
-        <v>64.578</v>
-      </c>
-      <c r="O299" t="n">
-        <v>62.676</v>
-      </c>
-      <c r="P299" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PF Schio </t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Umana Venezia</t>
-        </is>
-      </c>
-      <c r="C300" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="D300" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E300" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="F300" t="n">
-        <v>22.85714285714286</v>
-      </c>
-      <c r="G300" t="n">
-        <v>24.57142857142857</v>
-      </c>
-      <c r="H300" t="n">
-        <v>22.14285714285714</v>
-      </c>
-      <c r="I300" t="n">
-        <v>18.28571428571428</v>
-      </c>
-      <c r="J300" t="n">
-        <v>14.28571428571429</v>
-      </c>
-      <c r="K300" t="n">
-        <v>19.14285714285714</v>
-      </c>
-      <c r="L300" t="n">
-        <v>14.85714285714286</v>
-      </c>
-      <c r="M300" t="n">
-        <v>18</v>
-      </c>
-      <c r="N300" t="n">
-        <v>81.83714285714287</v>
-      </c>
-      <c r="O300" t="n">
-        <v>70.43999999999998</v>
-      </c>
-      <c r="P300" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Talos Ruvo Di Puglia </t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Herons Basket</t>
-        </is>
-      </c>
-      <c r="C301" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="D301" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E301" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F301" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="G301" t="n">
-        <v>19</v>
-      </c>
-      <c r="H301" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="J301" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="K301" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L301" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M301" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="N301" t="n">
-        <v>72.768</v>
-      </c>
-      <c r="O301" t="n">
-        <v>71.34999999999999</v>
-      </c>
-      <c r="P301" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sao Jose Dos Campos </t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SC Corinthians SP</t>
-        </is>
-      </c>
-      <c r="C302" t="n">
-        <v>6</v>
-      </c>
-      <c r="D302" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="E302" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="F302" t="n">
-        <v>21</v>
-      </c>
-      <c r="G302" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="H302" t="n">
-        <v>17</v>
-      </c>
-      <c r="I302" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J302" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="K302" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="L302" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="M302" t="n">
-        <v>17</v>
-      </c>
-      <c r="N302" t="n">
-        <v>74.89000000000001</v>
-      </c>
-      <c r="O302" t="n">
-        <v>72.95599999999999</v>
-      </c>
-      <c r="P302" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aguada </t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Club Nacional</t>
-        </is>
-      </c>
-      <c r="C303" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="D303" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="E303" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F303" t="n">
-        <v>21.61538461538462</v>
-      </c>
-      <c r="G303" t="n">
-        <v>19.76923076923077</v>
-      </c>
-      <c r="H303" t="n">
-        <v>19.84615384615385</v>
-      </c>
-      <c r="I303" t="n">
-        <v>17.23076923076923</v>
-      </c>
-      <c r="J303" t="n">
-        <v>21.76923076923077</v>
-      </c>
-      <c r="K303" t="n">
-        <v>22.15384615384615</v>
-      </c>
-      <c r="L303" t="n">
-        <v>21.15384615384615</v>
-      </c>
-      <c r="M303" t="n">
-        <v>17.53846153846154</v>
-      </c>
-      <c r="N303" t="n">
-        <v>81.08</v>
-      </c>
-      <c r="O303" t="n">
-        <v>80.91769230769231</v>
-      </c>
-      <c r="P303" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bauru Basket SP </t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Flamengo RJ</t>
-        </is>
-      </c>
-      <c r="C304" t="n">
-        <v>3</v>
-      </c>
-      <c r="D304" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="E304" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="F304" t="n">
-        <v>17.28571428571428</v>
-      </c>
-      <c r="G304" t="n">
-        <v>18</v>
-      </c>
-      <c r="H304" t="n">
-        <v>24</v>
-      </c>
-      <c r="I304" t="n">
-        <v>19.57142857142857</v>
-      </c>
-      <c r="J304" t="n">
-        <v>18</v>
-      </c>
-      <c r="K304" t="n">
-        <v>16</v>
-      </c>
-      <c r="L304" t="n">
-        <v>18.85714285714286</v>
-      </c>
-      <c r="M304" t="n">
-        <v>20.71428571428572</v>
-      </c>
-      <c r="N304" t="n">
-        <v>79.60428571428572</v>
-      </c>
-      <c r="O304" t="n">
-        <v>71.23714285714286</v>
-      </c>
-      <c r="P304" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Santo Andre/Apaba </t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Vera Cruz Campinas</t>
-        </is>
-      </c>
-      <c r="C305" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="D305" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E305" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="F305" t="n">
-        <v>17.66666666666667</v>
-      </c>
-      <c r="G305" t="n">
-        <v>15.33333333333333</v>
-      </c>
-      <c r="H305" t="n">
-        <v>16.66666666666667</v>
-      </c>
-      <c r="I305" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="J305" t="n">
-        <v>17.66666666666667</v>
-      </c>
-      <c r="K305" t="n">
-        <v>12.33333333333333</v>
-      </c>
-      <c r="L305" t="n">
-        <v>18</v>
-      </c>
-      <c r="M305" t="n">
-        <v>18.33333333333333</v>
-      </c>
-      <c r="N305" t="n">
-        <v>61.25</v>
-      </c>
-      <c r="O305" t="n">
-        <v>66.06666666666666</v>
-      </c>
-      <c r="P305" t="inlineStr">
-        <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
